--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunghwan.park/git/ien/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C18F42-7ED2-B94C-8303-AA08EF407374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CD304-417E-AE4D-85D4-906CC4ED8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="-16800" windowWidth="23820" windowHeight="15680" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="534">
   <si>
     <t>Last Name</t>
   </si>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -2317,6 +2317,9 @@
       <c r="M2" s="9">
         <v>44593</v>
       </c>
+      <c r="P2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
@@ -2336,6 +2339,19 @@
       </c>
       <c r="M3" s="9">
         <v>44621</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="P4" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="P5" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1">
@@ -2967,7 +2983,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P4:P643</xm:sqref>
+          <xm:sqref>P6:P643</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75DF9A3C-F5E0-47B5-AB24-C6351B5176D1}">
           <x14:formula1>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunghwan.park/git/ien/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750CD304-417E-AE4D-85D4-906CC4ED8BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DF4CA-C83A-D544-9563-AB20ECE2D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="-16800" windowWidth="23820" windowHeight="15680" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="534">
   <si>
     <t>Last Name</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Zip/Postal Code</t>
   </si>
   <si>
-    <t>NCAS Asssessment Complete</t>
-  </si>
-  <si>
-    <t>BCCN Application Complete</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -1640,6 +1634,12 @@
   </si>
   <si>
     <t>Oral72@gmail.com</t>
+  </si>
+  <si>
+    <t>NCAS Assessment Complete</t>
+  </si>
+  <si>
+    <t>BCCNM Application Complete</t>
   </si>
 </sst>
 </file>
@@ -1919,8 +1919,8 @@
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Country of Education]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="Date ROS Contract Signed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="NCAS Asssessment Complete" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCN Application Complete" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="NCAS Assessment Complete" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Application Complete" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="Registration Designation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -2253,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2280,22 +2280,22 @@
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>13</v>
+        <v>532</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>14</v>
+        <v>533</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2303,22 +2303,28 @@
         <v>112374</v>
       </c>
       <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="D2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>530</v>
-      </c>
       <c r="I2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M2" s="9">
         <v>44593</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="P2" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2326,32 +2332,38 @@
         <v>111166</v>
       </c>
       <c r="C3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="D3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>533</v>
-      </c>
       <c r="I3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M3" s="9">
         <v>44621</v>
       </c>
+      <c r="N3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="P3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1">
@@ -2977,7 +2989,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N5:O59 N4</xm:sqref>
+          <xm:sqref>N2:O59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41C196C3-3B03-4A85-A4EF-7D46FACB4C5B}">
           <x14:formula1>
@@ -3027,7 +3039,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3110,2032 +3122,2032 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="3:4">
       <c r="C80" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="C89" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="C91" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="3:4">
       <c r="C104" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="C105" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="C106" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="C107" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="C108" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="C111" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="3:4">
       <c r="C112" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="3:4">
       <c r="C114" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="3:4">
       <c r="C115" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="3:4">
       <c r="C116" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="3:4">
       <c r="C119" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="C120" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="3:4">
       <c r="C123" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="3:4">
       <c r="C125" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="3:4">
       <c r="C126" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="3:4">
       <c r="C128" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="3:4">
       <c r="C129" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="3:4">
       <c r="C130" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="3:4">
       <c r="C131" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="3:4">
       <c r="C132" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="3:4">
       <c r="C133" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="3:4">
       <c r="C134" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="3:4">
       <c r="C135" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="3:4">
       <c r="C138" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="3:4">
       <c r="C139" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="3:4">
       <c r="C140" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="3:4">
       <c r="C141" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="3:4">
       <c r="C142" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="3:4">
       <c r="C143" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="3:4">
       <c r="C144" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="3:4">
       <c r="C145" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="3:4">
       <c r="C146" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="3:4">
       <c r="C147" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="3:4">
       <c r="C148" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="3:4">
       <c r="C149" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="3:4">
       <c r="C150" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="3:4">
       <c r="C151" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="3:4">
       <c r="C152" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="3:4">
       <c r="C153" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="3:4">
       <c r="C154" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="3:4">
       <c r="C155" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="3:4">
       <c r="C156" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="3:4">
       <c r="C157" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="3:4">
       <c r="C158" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="3:4">
       <c r="C159" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="3:4">
       <c r="C161" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="3:4">
       <c r="C163" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="3:4">
       <c r="C166" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="3:4">
       <c r="C168" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="3:4">
       <c r="C169" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" spans="3:4">
       <c r="C170" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="3:4">
       <c r="C171" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="3:4">
       <c r="C172" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="3:4">
       <c r="C173" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="3:4">
       <c r="C174" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="3:4">
       <c r="C175" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="3:4">
       <c r="C177" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="3:4">
       <c r="C178" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="3:4">
       <c r="C179" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="3:4">
       <c r="C180" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="3:4">
       <c r="C181" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="3:4">
       <c r="C182" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="3:4">
       <c r="C183" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="184" spans="3:4">
       <c r="C184" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="3:4">
       <c r="C185" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="3:4">
       <c r="C186" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="3:4">
       <c r="C187" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="188" spans="3:4">
       <c r="C188" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="3:4">
       <c r="C189" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="3:4">
       <c r="C190" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="3:4">
       <c r="C191" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="192" spans="3:4">
       <c r="C192" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="193" spans="3:4">
       <c r="C193" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="3:4">
       <c r="C194" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="3:4">
       <c r="C196" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="198" spans="3:4">
       <c r="C198" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199" spans="3:4">
       <c r="C199" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="3:4">
       <c r="C200" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="3:4">
       <c r="C201" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" spans="3:4">
       <c r="C202" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="203" spans="3:4">
       <c r="C203" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="204" spans="3:4">
       <c r="C204" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" spans="3:4">
       <c r="C205" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" spans="3:4">
       <c r="C206" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="3:4">
       <c r="C207" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" spans="3:4">
       <c r="C208" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="3:4">
       <c r="C209" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="3:4">
       <c r="C210" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="3:4">
       <c r="C211" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="3:4">
       <c r="C212" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="213" spans="3:4">
       <c r="C213" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="3:4">
       <c r="C214" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215" spans="3:4">
       <c r="C215" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="3:4">
       <c r="C216" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="3:4">
       <c r="C217" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218" spans="3:4">
       <c r="C218" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219" spans="3:4">
       <c r="C219" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="220" spans="3:4">
       <c r="C220" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="221" spans="3:4">
       <c r="C221" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" spans="3:4">
       <c r="C222" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="3:4">
       <c r="C223" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="3:4">
       <c r="C224" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="3:4">
       <c r="C225" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226" spans="3:4">
       <c r="C226" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="3:4">
       <c r="C227" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="3:4">
       <c r="C228" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="3:4">
       <c r="C229" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="3:4">
       <c r="C230" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231" spans="3:4">
       <c r="C231" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="3:4">
       <c r="C232" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="3:4">
       <c r="C233" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="234" spans="3:4">
       <c r="C234" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="3:4">
       <c r="C235" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="3:4">
       <c r="C236" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="237" spans="3:4">
       <c r="C237" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="238" spans="3:4">
       <c r="C238" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="239" spans="3:4">
       <c r="C239" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="3:4">
       <c r="C240" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="241" spans="3:4">
       <c r="C241" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="3:4">
       <c r="C242" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="3:4">
       <c r="C243" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="3:4">
       <c r="C244" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="245" spans="3:4">
       <c r="C245" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="246" spans="3:4">
       <c r="C246" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247" spans="3:4">
       <c r="C247" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="248" spans="3:4">
       <c r="C248" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="3:4">
       <c r="C249" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="3:4">
       <c r="C250" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunghwan.park/git/ien/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693DF4CA-C83A-D544-9563-AB20ECE2D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C16BA2-95FD-024E-B3EA-09E3B648C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="-16800" windowWidth="23820" windowHeight="15680" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="535">
   <si>
     <t>Last Name</t>
   </si>
@@ -1640,6 +1640,9 @@
   </si>
   <si>
     <t>BCCNM Application Complete</t>
+  </si>
+  <si>
+    <t>kr</t>
   </si>
 </sst>
 </file>
@@ -2226,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -2313,6 +2316,9 @@
       </c>
       <c r="I2" t="s">
         <v>525</v>
+      </c>
+      <c r="K2" t="s">
+        <v>534</v>
       </c>
       <c r="M2" s="9">
         <v>44593</v>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunghwan.park/git/ien/apps/web/cypress/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry.wang/Library/CloudStorage/OneDrive-EY/Documents/projects/jerry/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C16BA2-95FD-024E-B3EA-09E3B648C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F01FF9-0108-C946-B177-EB8369AB9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="-16800" windowWidth="23820" windowHeight="15680" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Template - DO NOT EDIT" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Country of Education</t>
-  </si>
-  <si>
     <t>Registration Designation</t>
   </si>
   <si>
@@ -1643,6 +1640,9 @@
   </si>
   <si>
     <t>kr</t>
+  </si>
+  <si>
+    <t>ISO Code - Education</t>
   </si>
 </sst>
 </file>
@@ -1917,9 +1917,9 @@
     <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="State/Province" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Country"/>
     <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Zip/Postal Code"/>
-    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="Country of Education"/>
+    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="ISO Code - Education"/>
     <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="ISO Code" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Country of Education]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[ISO Code - Education]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="Date ROS Contract Signed" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="NCAS Assessment Complete" dataDxfId="2"/>
@@ -1931,9 +1931,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1971,7 +1971,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2077,7 +2077,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2219,7 +2219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2229,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>15</v>
+        <v>534</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>533</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2306,19 +2306,19 @@
         <v>112374</v>
       </c>
       <c r="C2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" t="s">
         <v>526</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>528</v>
-      </c>
       <c r="I2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M2" s="9">
         <v>44593</v>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2338,16 +2338,16 @@
         <v>111166</v>
       </c>
       <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
         <v>529</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>531</v>
-      </c>
       <c r="I3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M3" s="9">
         <v>44621</v>
@@ -2359,17 +2359,17 @@
         <v>13</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="P4" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="P5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="11" customFormat="1">
@@ -3045,7 +3045,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3128,16 +3128,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3159,2001 +3159,2001 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="C68" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="80" spans="3:4">
       <c r="C80" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="89" spans="3:4">
       <c r="C89" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="91" spans="3:4">
       <c r="C91" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="92" spans="3:4">
       <c r="C92" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="93" spans="3:4">
       <c r="C93" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="94" spans="3:4">
       <c r="C94" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="95" spans="3:4">
       <c r="C95" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="96" spans="3:4">
       <c r="C96" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>217</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="14" t="s">
         <v>221</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="101" spans="3:4">
       <c r="C101" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="103" spans="3:4">
       <c r="C103" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="104" spans="3:4">
       <c r="C104" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="C105" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="C106" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="C107" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="108" spans="3:4">
       <c r="C108" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="110" spans="3:4">
       <c r="C110" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D110" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="C111" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="112" spans="3:4">
       <c r="C112" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D112" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="114" spans="3:4">
       <c r="C114" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="115" spans="3:4">
       <c r="C115" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="116" spans="3:4">
       <c r="C116" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="117" spans="3:4">
       <c r="C117" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="119" spans="3:4">
       <c r="C119" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="C120" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="121" spans="3:4">
       <c r="C121" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="123" spans="3:4">
       <c r="C123" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D123" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="C124" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="125" spans="3:4">
       <c r="C125" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="126" spans="3:4">
       <c r="C126" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="127" spans="3:4">
       <c r="C127" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="128" spans="3:4">
       <c r="C128" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="129" spans="3:4">
       <c r="C129" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="130" spans="3:4">
       <c r="C130" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="D130" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="131" spans="3:4">
       <c r="C131" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="132" spans="3:4">
       <c r="C132" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="133" spans="3:4">
       <c r="C133" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="134" spans="3:4">
       <c r="C134" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="135" spans="3:4">
       <c r="C135" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D135" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D136" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="137" spans="3:4">
       <c r="C137" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="138" spans="3:4">
       <c r="C138" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D138" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="139" spans="3:4">
       <c r="C139" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="140" spans="3:4">
       <c r="C140" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D140" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="141" spans="3:4">
       <c r="C141" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="142" spans="3:4">
       <c r="C142" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="143" spans="3:4">
       <c r="C143" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D143" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="144" spans="3:4">
       <c r="C144" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="145" spans="3:4">
       <c r="C145" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="146" spans="3:4">
       <c r="C146" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="D146" s="14" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="147" spans="3:4">
       <c r="C147" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D147" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="148" spans="3:4">
       <c r="C148" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="149" spans="3:4">
       <c r="C149" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="150" spans="3:4">
       <c r="C150" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D150" s="14" t="s">
         <v>321</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="151" spans="3:4">
       <c r="C151" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="152" spans="3:4">
       <c r="C152" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="153" spans="3:4">
       <c r="C153" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D153" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="D153" s="14" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="3:4">
       <c r="C154" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D154" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="D154" s="14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="155" spans="3:4">
       <c r="C155" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="156" spans="3:4">
       <c r="C156" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="157" spans="3:4">
       <c r="C157" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D157" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="158" spans="3:4">
       <c r="C158" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="159" spans="3:4">
       <c r="C159" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D159" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="D159" s="14" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="160" spans="3:4">
       <c r="C160" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D160" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="161" spans="3:4">
       <c r="C161" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D161" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="162" spans="3:4">
       <c r="C162" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="163" spans="3:4">
       <c r="C163" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D163" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="164" spans="3:4">
       <c r="C164" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="165" spans="3:4">
       <c r="C165" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="166" spans="3:4">
       <c r="C166" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="167" spans="3:4">
       <c r="C167" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D167" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="168" spans="3:4">
       <c r="C168" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D168" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="169" spans="3:4">
       <c r="C169" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="170" spans="3:4">
       <c r="C170" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="171" spans="3:4">
       <c r="C171" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D171" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="172" spans="3:4">
       <c r="C172" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D172" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="173" spans="3:4">
       <c r="C173" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>367</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="174" spans="3:4">
       <c r="C174" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D174" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="175" spans="3:4">
       <c r="C175" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D175" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="D175" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="176" spans="3:4">
       <c r="C176" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D176" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="177" spans="3:4">
       <c r="C177" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D177" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="178" spans="3:4">
       <c r="C178" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D178" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="179" spans="3:4">
       <c r="C179" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D179" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="D179" s="14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="180" spans="3:4">
       <c r="C180" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D180" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="181" spans="3:4">
       <c r="C181" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D181" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="182" spans="3:4">
       <c r="C182" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D182" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="D182" s="14" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="183" spans="3:4">
       <c r="C183" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D183" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="184" spans="3:4">
       <c r="C184" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D184" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="185" spans="3:4">
       <c r="C185" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="186" spans="3:4">
       <c r="C186" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D186" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="187" spans="3:4">
       <c r="C187" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D187" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="188" spans="3:4">
       <c r="C188" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D188" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="D188" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="189" spans="3:4">
       <c r="C189" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D189" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="190" spans="3:4">
       <c r="C190" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D190" s="14" t="s">
         <v>401</v>
-      </c>
-      <c r="D190" s="14" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="191" spans="3:4">
       <c r="C191" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D191" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="192" spans="3:4">
       <c r="C192" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="D192" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="193" spans="3:4">
       <c r="C193" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D193" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="194" spans="3:4">
       <c r="C194" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="D194" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="195" spans="3:4">
       <c r="C195" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D195" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="D195" s="14" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="196" spans="3:4">
       <c r="C196" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D196" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="197" spans="3:4">
       <c r="C197" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D197" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="198" spans="3:4">
       <c r="C198" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D198" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="D198" s="14" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="199" spans="3:4">
       <c r="C199" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="D199" s="14" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="200" spans="3:4">
       <c r="C200" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D200" s="14" t="s">
         <v>421</v>
-      </c>
-      <c r="D200" s="14" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="201" spans="3:4">
       <c r="C201" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D201" s="14" t="s">
         <v>423</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="202" spans="3:4">
       <c r="C202" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D202" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="D202" s="14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="203" spans="3:4">
       <c r="C203" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D203" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="D203" s="14" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="204" spans="3:4">
       <c r="C204" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D204" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="205" spans="3:4">
       <c r="C205" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D205" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="206" spans="3:4">
       <c r="C206" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D206" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="207" spans="3:4">
       <c r="C207" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D207" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="208" spans="3:4">
       <c r="C208" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D208" s="14" t="s">
         <v>437</v>
-      </c>
-      <c r="D208" s="14" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="209" spans="3:4">
       <c r="C209" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D209" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="D209" s="14" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="210" spans="3:4">
       <c r="C210" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D210" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="211" spans="3:4">
       <c r="C211" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D211" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="212" spans="3:4">
       <c r="C212" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D212" s="14" t="s">
         <v>445</v>
-      </c>
-      <c r="D212" s="14" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="213" spans="3:4">
       <c r="C213" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D213" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="D213" s="14" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="214" spans="3:4">
       <c r="C214" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="D214" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="D214" s="14" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="215" spans="3:4">
       <c r="C215" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="D215" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="D215" s="14" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="216" spans="3:4">
       <c r="C216" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D216" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="D216" s="14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="217" spans="3:4">
       <c r="C217" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D217" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="218" spans="3:4">
       <c r="C218" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D218" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="D218" s="14" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="219" spans="3:4">
       <c r="C219" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D219" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="D219" s="14" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="220" spans="3:4">
       <c r="C220" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D220" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="D220" s="14" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="221" spans="3:4">
       <c r="C221" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D221" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="222" spans="3:4">
       <c r="C222" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D222" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="223" spans="3:4">
       <c r="C223" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D223" s="14" t="s">
         <v>467</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="224" spans="3:4">
       <c r="C224" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D224" s="14" t="s">
         <v>469</v>
-      </c>
-      <c r="D224" s="14" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="225" spans="3:4">
       <c r="C225" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="D225" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="D225" s="14" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="226" spans="3:4">
       <c r="C226" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D226" s="14" t="s">
         <v>473</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="227" spans="3:4">
       <c r="C227" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D227" s="14" t="s">
         <v>475</v>
-      </c>
-      <c r="D227" s="14" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="228" spans="3:4">
       <c r="C228" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D228" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="D228" s="14" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="229" spans="3:4">
       <c r="C229" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D229" s="14" t="s">
         <v>479</v>
-      </c>
-      <c r="D229" s="14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="230" spans="3:4">
       <c r="C230" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D230" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="231" spans="3:4">
       <c r="C231" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D231" s="14" t="s">
         <v>483</v>
-      </c>
-      <c r="D231" s="14" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="232" spans="3:4">
       <c r="C232" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D232" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="D232" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="233" spans="3:4">
       <c r="C233" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D233" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="D233" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="234" spans="3:4">
       <c r="C234" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D234" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="D234" s="14" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="235" spans="3:4">
       <c r="C235" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D235" s="14" t="s">
         <v>491</v>
-      </c>
-      <c r="D235" s="14" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="236" spans="3:4">
       <c r="C236" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D236" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="D236" s="14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="237" spans="3:4">
       <c r="C237" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D237" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="D237" s="14" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="238" spans="3:4">
       <c r="C238" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D238" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="239" spans="3:4">
       <c r="C239" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D239" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="D239" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="240" spans="3:4">
       <c r="C240" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="3:4">
       <c r="C241" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D241" s="14" t="s">
         <v>502</v>
-      </c>
-      <c r="D241" s="14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="242" spans="3:4">
       <c r="C242" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D242" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="D242" s="14" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="243" spans="3:4">
       <c r="C243" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D243" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="D243" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="244" spans="3:4">
       <c r="C244" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D244" s="14" t="s">
         <v>508</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="245" spans="3:4">
       <c r="C245" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="D245" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="246" spans="3:4">
       <c r="C246" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D246" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="D246" s="14" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="247" spans="3:4">
       <c r="C247" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D247" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="248" spans="3:4">
       <c r="C248" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D248" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="249" spans="3:4">
       <c r="C249" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="D249" s="14" t="s">
         <v>518</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="250" spans="3:4">
       <c r="C250" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D250" s="16" t="s">
         <v>520</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry.wang/Library/CloudStorage/OneDrive-EY/Documents/projects/jerry/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/_Never Backup/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F01FF9-0108-C946-B177-EB8369AB9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4F87A-6D35-5D4D-ACA3-492614C8F861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
+    <workbookView xWindow="2660" yWindow="3940" windowWidth="35840" windowHeight="19920" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Template - DO NOT EDIT" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="535">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="536">
   <si>
     <t>Date ROS Contract Signed</t>
   </si>
@@ -64,21 +55,6 @@
     <t>HMBC Unique ID</t>
   </si>
   <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State/Province</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Zip/Postal Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -1633,16 +1609,43 @@
     <t>Oral72@gmail.com</t>
   </si>
   <si>
-    <t>NCAS Assessment Complete</t>
-  </si>
-  <si>
-    <t>BCCNM Application Complete</t>
-  </si>
-  <si>
-    <t>kr</t>
-  </si>
-  <si>
     <t>ISO Code - Education</t>
+  </si>
+  <si>
+    <t>Date NCAS Assessment Complete</t>
+  </si>
+  <si>
+    <t>Date BCCNM Application Complete</t>
+  </si>
+  <si>
+    <t>BCCNM Decision Date</t>
+  </si>
+  <si>
+    <t>BCCNM Full License LPN</t>
+  </si>
+  <si>
+    <t>BCCNM Full License RN</t>
+  </si>
+  <si>
+    <t>BCCNM Provisional License LPN</t>
+  </si>
+  <si>
+    <t>BCCNM Provisional License RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name </t>
+  </si>
+  <si>
+    <t>Email - Primary</t>
+  </si>
+  <si>
+    <t>Covered by Bursary</t>
+  </si>
+  <si>
+    <t>File Name</t>
   </si>
 </sst>
 </file>
@@ -1652,17 +1655,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="BC Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
       <name val="BC Sans"/>
       <family val="2"/>
     </font>
@@ -1685,8 +1681,34 @@
       <name val="BC Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF305496"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1711,8 +1733,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF156082"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1805,47 +1839,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF156082"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF156082"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1861,35 +1966,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="BC Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1904,27 +1980,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}" name="Table1" displayName="Table1" ref="A1:P643" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:P643" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}" name="Table1" displayName="Table1" ref="A1:S643" totalsRowShown="0">
+  <autoFilter ref="A1:S643" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{CDFAA216-362A-4C3B-91ED-973573FA63BE}" name="HMBC Unique ID"/>
-    <tableColumn id="16" xr3:uid="{6B1C3EF8-434B-4A70-9CC2-01868A58237A}" name="NCAS ID"/>
-    <tableColumn id="2" xr3:uid="{FC3A8880-1945-4DDE-9E12-E4AD6545BD94}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{4FEABF76-703E-4E5C-BEF5-1B8BCD8D52CA}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{9CFB1ADA-FA54-4BFA-9D89-60D240A017E6}" name="Email Address"/>
-    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Street Address" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1289DA46-C6F4-4809-8F21-C820C84BD194}" name="City"/>
-    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="State/Province" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Country"/>
-    <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Zip/Postal Code"/>
-    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="ISO Code - Education"/>
-    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="ISO Code" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[ISO Code - Education]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{6B1C3EF8-434B-4A70-9CC2-01868A58237A}" name="First name "/>
+    <tableColumn id="2" xr3:uid="{FC3A8880-1945-4DDE-9E12-E4AD6545BD94}" name="Last name "/>
+    <tableColumn id="3" xr3:uid="{4FEABF76-703E-4E5C-BEF5-1B8BCD8D52CA}" name="NCAS ID"/>
+    <tableColumn id="4" xr3:uid="{9CFB1ADA-FA54-4BFA-9D89-60D240A017E6}" name="Email - Primary"/>
+    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Covered by Bursary" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1289DA46-C6F4-4809-8F21-C820C84BD194}" name="File Name"/>
+    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="ISO Code - Education" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Date ROS Contract Signed"/>
+    <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Date NCAS Assessment Complete"/>
+    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="Date BCCNM Application Complete"/>
+    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="BCCNM Decision Date" dataDxfId="9">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Date BCCNM Application Complete]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="Date ROS Contract Signed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="NCAS Assessment Complete" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Application Complete" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="Registration Designation" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="BCCNM Full License LPN" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="BCCNM Full License RN" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Full License RPN" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="BCCNM Provisional License LPN" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{B0A5DF27-4781-E549-AE55-87A740B508E6}" name="BCCNM Provisional License RN" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{FA3D4950-FEA7-A343-A9A0-B684CFDE7B7F}" name="BCCNM Provisional License RPN" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{FF0BDF1A-A776-B141-9A2B-C79986315763}" name="Registration Designation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2227,761 +2306,3767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:S643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="31.19921875" customWidth="1"/>
     <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="54.796875" customWidth="1"/>
-    <col min="6" max="6" width="54.796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="54.796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.19921875" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" style="4" customWidth="1"/>
     <col min="9" max="10" width="21.19921875" customWidth="1"/>
     <col min="11" max="11" width="33.19921875" customWidth="1"/>
     <col min="12" max="12" width="21.19921875" customWidth="1"/>
-    <col min="13" max="13" width="26" style="9" customWidth="1"/>
-    <col min="14" max="15" width="29.59765625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="32.19921875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26" style="5" customWidth="1"/>
+    <col min="14" max="15" width="29.59765625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="32.19921875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="35.19921875" customWidth="1"/>
+    <col min="18" max="18" width="43.59765625" customWidth="1"/>
+    <col min="19" max="19" width="34.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>112374</v>
       </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2" t="s">
-        <v>524</v>
-      </c>
-      <c r="K2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M2" s="9">
+        <v>518</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="5">
         <v>44593</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="K2" s="5">
+        <v>44563</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>111166</v>
       </c>
+      <c r="B3" t="s">
+        <v>518</v>
+      </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I3" t="s">
-        <v>524</v>
-      </c>
-      <c r="M3" s="9">
+        <v>521</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="I3" s="5">
         <v>44621</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="P4" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="P5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1">
+      <c r="K3" s="5">
+        <v>44594</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" s="6" customFormat="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
       <c r="G20"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="4"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" s="11" customFormat="1">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" s="6" customFormat="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="4"/>
       <c r="G21"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="4"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" s="11" customFormat="1">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" s="6" customFormat="1">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="4"/>
       <c r="G22"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="4"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" s="6" customFormat="1">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="4"/>
       <c r="G23"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="4"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" s="11" customFormat="1">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="6" customFormat="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="4"/>
       <c r="G24"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="4"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" s="11" customFormat="1">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" s="6" customFormat="1">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="4"/>
       <c r="G25"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="4"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" s="11" customFormat="1">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" s="6" customFormat="1">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" s="11" customFormat="1">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" s="6" customFormat="1">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="4"/>
       <c r="G27"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="4"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" s="11" customFormat="1">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" s="6" customFormat="1">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="4"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" s="11" customFormat="1">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" s="6" customFormat="1">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="4"/>
       <c r="G29"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="4"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" s="11" customFormat="1">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="4"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" s="11" customFormat="1">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="4"/>
       <c r="G31"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="4"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" s="11" customFormat="1">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" s="6" customFormat="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="4"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" s="11" customFormat="1">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="4"/>
       <c r="G33"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="4"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" s="11" customFormat="1">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="4"/>
       <c r="G34"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" s="11" customFormat="1">
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="4"/>
       <c r="G35"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="4"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" s="11" customFormat="1">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="4"/>
       <c r="G36"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" s="11" customFormat="1">
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="4"/>
       <c r="G37"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="4"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" s="11" customFormat="1">
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" s="6" customFormat="1">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="4"/>
       <c r="G38"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="4"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" s="11" customFormat="1">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" s="6" customFormat="1">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="4"/>
       <c r="G39"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="4"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" s="11" customFormat="1">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" s="6" customFormat="1">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="4"/>
       <c r="G40"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="4"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" s="11" customFormat="1">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" s="6" customFormat="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="4"/>
       <c r="G41"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="4"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" s="11" customFormat="1">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="4"/>
       <c r="G42"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="4"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" s="11" customFormat="1">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="4"/>
       <c r="G43"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="4"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" s="11" customFormat="1">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="4"/>
       <c r="G44"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="4"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" s="11" customFormat="1">
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="4"/>
       <c r="G45"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="4"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" s="11" customFormat="1">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="4"/>
       <c r="G46"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="4"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" s="11" customFormat="1">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="4"/>
       <c r="G47"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="4"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" s="11" customFormat="1">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" s="6" customFormat="1">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="4"/>
       <c r="G48"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="4"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" s="11" customFormat="1">
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" s="6" customFormat="1">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="4"/>
       <c r="G49"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="4"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" s="11" customFormat="1">
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="4"/>
       <c r="G50"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="4"/>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" s="11" customFormat="1">
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" s="6" customFormat="1">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="4"/>
       <c r="G51"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="4"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:13" s="11" customFormat="1">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" s="6" customFormat="1">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="4"/>
       <c r="G52"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="4"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" s="11" customFormat="1">
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="4"/>
       <c r="G53"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="4"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="1:13" s="11" customFormat="1">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" s="6" customFormat="1">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="4"/>
       <c r="G54"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="4"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" s="11" customFormat="1">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="4"/>
       <c r="G55"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="4"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="1:13" s="11" customFormat="1">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" s="6" customFormat="1">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="4"/>
       <c r="G56"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="4"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="1:13" s="11" customFormat="1">
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" s="6" customFormat="1">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="4"/>
       <c r="G57"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="4"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="1:13" s="11" customFormat="1">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" s="6" customFormat="1">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="4"/>
       <c r="G58"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="4"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="1:13" s="11" customFormat="1">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="4"/>
       <c r="G59"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="4"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="17:19">
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+    </row>
+    <row r="66" spans="17:19">
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="17:19">
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+    </row>
+    <row r="68" spans="17:19">
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+    </row>
+    <row r="69" spans="17:19">
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+    </row>
+    <row r="70" spans="17:19">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+    </row>
+    <row r="71" spans="17:19">
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="17:19">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+    </row>
+    <row r="73" spans="17:19">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="17:19">
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+    </row>
+    <row r="75" spans="17:19">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" spans="17:19">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="17:19">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="17:19">
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="17:19">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="17:19">
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="17:19">
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="17:19">
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="17:19">
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="17:19">
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="17:19">
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="17:19">
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="17:19">
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="17:19">
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+    </row>
+    <row r="89" spans="17:19">
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+    </row>
+    <row r="90" spans="17:19">
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+    </row>
+    <row r="91" spans="17:19">
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+    </row>
+    <row r="92" spans="17:19">
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+    </row>
+    <row r="93" spans="17:19">
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+    </row>
+    <row r="94" spans="17:19">
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="17:19">
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+    </row>
+    <row r="96" spans="17:19">
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+    </row>
+    <row r="97" spans="17:19">
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+    </row>
+    <row r="98" spans="17:19">
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+    </row>
+    <row r="99" spans="17:19">
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+    </row>
+    <row r="100" spans="17:19">
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+    </row>
+    <row r="101" spans="17:19">
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+    </row>
+    <row r="102" spans="17:19">
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+    </row>
+    <row r="103" spans="17:19">
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+    </row>
+    <row r="104" spans="17:19">
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+    </row>
+    <row r="105" spans="17:19">
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+    </row>
+    <row r="106" spans="17:19">
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+    </row>
+    <row r="107" spans="17:19">
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+    </row>
+    <row r="108" spans="17:19">
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+    </row>
+    <row r="109" spans="17:19">
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+    </row>
+    <row r="110" spans="17:19">
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+    </row>
+    <row r="111" spans="17:19">
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+    </row>
+    <row r="112" spans="17:19">
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+    </row>
+    <row r="113" spans="17:19">
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+    </row>
+    <row r="114" spans="17:19">
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+    </row>
+    <row r="115" spans="17:19">
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="17:19">
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+    </row>
+    <row r="117" spans="17:19">
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+    </row>
+    <row r="118" spans="17:19">
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+    </row>
+    <row r="119" spans="17:19">
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+    </row>
+    <row r="120" spans="17:19">
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+    </row>
+    <row r="121" spans="17:19">
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+    </row>
+    <row r="122" spans="17:19">
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+    </row>
+    <row r="123" spans="17:19">
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+    </row>
+    <row r="124" spans="17:19">
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+    </row>
+    <row r="125" spans="17:19">
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+    </row>
+    <row r="126" spans="17:19">
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+    </row>
+    <row r="127" spans="17:19">
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+    </row>
+    <row r="128" spans="17:19">
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+    </row>
+    <row r="129" spans="17:19">
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+    </row>
+    <row r="130" spans="17:19">
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+    </row>
+    <row r="131" spans="17:19">
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+    </row>
+    <row r="132" spans="17:19">
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+    </row>
+    <row r="133" spans="17:19">
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+    </row>
+    <row r="134" spans="17:19">
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+    </row>
+    <row r="135" spans="17:19">
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+    </row>
+    <row r="136" spans="17:19">
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+    </row>
+    <row r="137" spans="17:19">
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+    </row>
+    <row r="138" spans="17:19">
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+    </row>
+    <row r="139" spans="17:19">
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+    </row>
+    <row r="140" spans="17:19">
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+    </row>
+    <row r="141" spans="17:19">
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+    </row>
+    <row r="142" spans="17:19">
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+    </row>
+    <row r="143" spans="17:19">
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+    </row>
+    <row r="144" spans="17:19">
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+    </row>
+    <row r="145" spans="17:19">
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6"/>
+    </row>
+    <row r="146" spans="17:19">
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+    </row>
+    <row r="147" spans="17:19">
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+    </row>
+    <row r="148" spans="17:19">
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+    </row>
+    <row r="149" spans="17:19">
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+    </row>
+    <row r="150" spans="17:19">
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+    </row>
+    <row r="151" spans="17:19">
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+    </row>
+    <row r="152" spans="17:19">
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6"/>
+    </row>
+    <row r="153" spans="17:19">
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+    </row>
+    <row r="154" spans="17:19">
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+    </row>
+    <row r="155" spans="17:19">
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+    </row>
+    <row r="156" spans="17:19">
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+    </row>
+    <row r="157" spans="17:19">
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+    </row>
+    <row r="158" spans="17:19">
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+    </row>
+    <row r="159" spans="17:19">
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+    </row>
+    <row r="160" spans="17:19">
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+    </row>
+    <row r="161" spans="17:19">
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+    </row>
+    <row r="162" spans="17:19">
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+    </row>
+    <row r="163" spans="17:19">
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+    </row>
+    <row r="164" spans="17:19">
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+    </row>
+    <row r="165" spans="17:19">
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+    </row>
+    <row r="166" spans="17:19">
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+    </row>
+    <row r="167" spans="17:19">
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+    </row>
+    <row r="168" spans="17:19">
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+    </row>
+    <row r="169" spans="17:19">
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+    </row>
+    <row r="170" spans="17:19">
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+    </row>
+    <row r="171" spans="17:19">
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+    </row>
+    <row r="172" spans="17:19">
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+    </row>
+    <row r="173" spans="17:19">
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+    </row>
+    <row r="174" spans="17:19">
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+    </row>
+    <row r="175" spans="17:19">
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+    </row>
+    <row r="176" spans="17:19">
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+    </row>
+    <row r="177" spans="17:19">
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+    </row>
+    <row r="178" spans="17:19">
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+    </row>
+    <row r="179" spans="17:19">
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+    </row>
+    <row r="180" spans="17:19">
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+    </row>
+    <row r="181" spans="17:19">
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+    </row>
+    <row r="182" spans="17:19">
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+    </row>
+    <row r="183" spans="17:19">
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+    </row>
+    <row r="184" spans="17:19">
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+    </row>
+    <row r="185" spans="17:19">
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+    </row>
+    <row r="186" spans="17:19">
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+    </row>
+    <row r="187" spans="17:19">
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+    </row>
+    <row r="188" spans="17:19">
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+    </row>
+    <row r="189" spans="17:19">
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+    </row>
+    <row r="190" spans="17:19">
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+    </row>
+    <row r="191" spans="17:19">
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+    </row>
+    <row r="192" spans="17:19">
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+    </row>
+    <row r="193" spans="17:19">
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+    </row>
+    <row r="194" spans="17:19">
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+    </row>
+    <row r="195" spans="17:19">
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+    </row>
+    <row r="196" spans="17:19">
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+    </row>
+    <row r="197" spans="17:19">
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+    </row>
+    <row r="198" spans="17:19">
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+    </row>
+    <row r="199" spans="17:19">
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+    </row>
+    <row r="200" spans="17:19">
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+    </row>
+    <row r="201" spans="17:19">
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+    </row>
+    <row r="202" spans="17:19">
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+    </row>
+    <row r="203" spans="17:19">
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+    </row>
+    <row r="204" spans="17:19">
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+    </row>
+    <row r="205" spans="17:19">
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+    </row>
+    <row r="206" spans="17:19">
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+    </row>
+    <row r="207" spans="17:19">
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+    </row>
+    <row r="208" spans="17:19">
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+    </row>
+    <row r="209" spans="17:19">
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+    </row>
+    <row r="210" spans="17:19">
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+    </row>
+    <row r="211" spans="17:19">
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+    </row>
+    <row r="212" spans="17:19">
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+    </row>
+    <row r="213" spans="17:19">
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+    </row>
+    <row r="214" spans="17:19">
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+    </row>
+    <row r="215" spans="17:19">
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+    </row>
+    <row r="216" spans="17:19">
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+    </row>
+    <row r="217" spans="17:19">
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+    </row>
+    <row r="218" spans="17:19">
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+    </row>
+    <row r="219" spans="17:19">
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+    </row>
+    <row r="220" spans="17:19">
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+    </row>
+    <row r="221" spans="17:19">
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+    </row>
+    <row r="222" spans="17:19">
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+    </row>
+    <row r="223" spans="17:19">
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+    </row>
+    <row r="224" spans="17:19">
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+    </row>
+    <row r="225" spans="17:19">
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+    </row>
+    <row r="226" spans="17:19">
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+    </row>
+    <row r="227" spans="17:19">
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+    </row>
+    <row r="228" spans="17:19">
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+    </row>
+    <row r="229" spans="17:19">
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+    </row>
+    <row r="230" spans="17:19">
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+    </row>
+    <row r="231" spans="17:19">
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+    </row>
+    <row r="232" spans="17:19">
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+    </row>
+    <row r="233" spans="17:19">
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+    </row>
+    <row r="234" spans="17:19">
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+    </row>
+    <row r="235" spans="17:19">
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+    </row>
+    <row r="236" spans="17:19">
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+    </row>
+    <row r="237" spans="17:19">
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+    </row>
+    <row r="238" spans="17:19">
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+    </row>
+    <row r="239" spans="17:19">
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+    </row>
+    <row r="240" spans="17:19">
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+    </row>
+    <row r="241" spans="17:19">
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+    </row>
+    <row r="242" spans="17:19">
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+    </row>
+    <row r="243" spans="17:19">
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+    </row>
+    <row r="244" spans="17:19">
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+    </row>
+    <row r="245" spans="17:19">
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+    </row>
+    <row r="246" spans="17:19">
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+    </row>
+    <row r="247" spans="17:19">
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+    </row>
+    <row r="248" spans="17:19">
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="6"/>
+    </row>
+    <row r="249" spans="17:19">
+      <c r="Q249" s="6"/>
+      <c r="R249" s="6"/>
+      <c r="S249" s="6"/>
+    </row>
+    <row r="250" spans="17:19">
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+      <c r="S250" s="6"/>
+    </row>
+    <row r="251" spans="17:19">
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="6"/>
+    </row>
+    <row r="252" spans="17:19">
+      <c r="Q252" s="6"/>
+      <c r="R252" s="6"/>
+      <c r="S252" s="6"/>
+    </row>
+    <row r="253" spans="17:19">
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="6"/>
+    </row>
+    <row r="254" spans="17:19">
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="6"/>
+    </row>
+    <row r="255" spans="17:19">
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="6"/>
+    </row>
+    <row r="256" spans="17:19">
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="6"/>
+    </row>
+    <row r="257" spans="17:19">
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+    </row>
+    <row r="258" spans="17:19">
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="6"/>
+    </row>
+    <row r="259" spans="17:19">
+      <c r="Q259" s="6"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="6"/>
+    </row>
+    <row r="260" spans="17:19">
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="6"/>
+    </row>
+    <row r="261" spans="17:19">
+      <c r="Q261" s="6"/>
+      <c r="R261" s="6"/>
+      <c r="S261" s="6"/>
+    </row>
+    <row r="262" spans="17:19">
+      <c r="Q262" s="6"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="6"/>
+    </row>
+    <row r="263" spans="17:19">
+      <c r="Q263" s="6"/>
+      <c r="R263" s="6"/>
+      <c r="S263" s="6"/>
+    </row>
+    <row r="264" spans="17:19">
+      <c r="Q264" s="6"/>
+      <c r="R264" s="6"/>
+      <c r="S264" s="6"/>
+    </row>
+    <row r="265" spans="17:19">
+      <c r="Q265" s="6"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="6"/>
+    </row>
+    <row r="266" spans="17:19">
+      <c r="Q266" s="6"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="6"/>
+    </row>
+    <row r="267" spans="17:19">
+      <c r="Q267" s="6"/>
+      <c r="R267" s="6"/>
+      <c r="S267" s="6"/>
+    </row>
+    <row r="268" spans="17:19">
+      <c r="Q268" s="6"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="6"/>
+    </row>
+    <row r="269" spans="17:19">
+      <c r="Q269" s="6"/>
+      <c r="R269" s="6"/>
+      <c r="S269" s="6"/>
+    </row>
+    <row r="270" spans="17:19">
+      <c r="Q270" s="6"/>
+      <c r="R270" s="6"/>
+      <c r="S270" s="6"/>
+    </row>
+    <row r="271" spans="17:19">
+      <c r="Q271" s="6"/>
+      <c r="R271" s="6"/>
+      <c r="S271" s="6"/>
+    </row>
+    <row r="272" spans="17:19">
+      <c r="Q272" s="6"/>
+      <c r="R272" s="6"/>
+      <c r="S272" s="6"/>
+    </row>
+    <row r="273" spans="17:19">
+      <c r="Q273" s="6"/>
+      <c r="R273" s="6"/>
+      <c r="S273" s="6"/>
+    </row>
+    <row r="274" spans="17:19">
+      <c r="Q274" s="6"/>
+      <c r="R274" s="6"/>
+      <c r="S274" s="6"/>
+    </row>
+    <row r="275" spans="17:19">
+      <c r="Q275" s="6"/>
+      <c r="R275" s="6"/>
+      <c r="S275" s="6"/>
+    </row>
+    <row r="276" spans="17:19">
+      <c r="Q276" s="6"/>
+      <c r="R276" s="6"/>
+      <c r="S276" s="6"/>
+    </row>
+    <row r="277" spans="17:19">
+      <c r="Q277" s="6"/>
+      <c r="R277" s="6"/>
+      <c r="S277" s="6"/>
+    </row>
+    <row r="278" spans="17:19">
+      <c r="Q278" s="6"/>
+      <c r="R278" s="6"/>
+      <c r="S278" s="6"/>
+    </row>
+    <row r="279" spans="17:19">
+      <c r="Q279" s="6"/>
+      <c r="R279" s="6"/>
+      <c r="S279" s="6"/>
+    </row>
+    <row r="280" spans="17:19">
+      <c r="Q280" s="6"/>
+      <c r="R280" s="6"/>
+      <c r="S280" s="6"/>
+    </row>
+    <row r="281" spans="17:19">
+      <c r="Q281" s="6"/>
+      <c r="R281" s="6"/>
+      <c r="S281" s="6"/>
+    </row>
+    <row r="282" spans="17:19">
+      <c r="Q282" s="6"/>
+      <c r="R282" s="6"/>
+      <c r="S282" s="6"/>
+    </row>
+    <row r="283" spans="17:19">
+      <c r="Q283" s="6"/>
+      <c r="R283" s="6"/>
+      <c r="S283" s="6"/>
+    </row>
+    <row r="284" spans="17:19">
+      <c r="Q284" s="6"/>
+      <c r="R284" s="6"/>
+      <c r="S284" s="6"/>
+    </row>
+    <row r="285" spans="17:19">
+      <c r="Q285" s="6"/>
+      <c r="R285" s="6"/>
+      <c r="S285" s="6"/>
+    </row>
+    <row r="286" spans="17:19">
+      <c r="Q286" s="6"/>
+      <c r="R286" s="6"/>
+      <c r="S286" s="6"/>
+    </row>
+    <row r="287" spans="17:19">
+      <c r="Q287" s="6"/>
+      <c r="R287" s="6"/>
+      <c r="S287" s="6"/>
+    </row>
+    <row r="288" spans="17:19">
+      <c r="Q288" s="6"/>
+      <c r="R288" s="6"/>
+      <c r="S288" s="6"/>
+    </row>
+    <row r="289" spans="17:19">
+      <c r="Q289" s="6"/>
+      <c r="R289" s="6"/>
+      <c r="S289" s="6"/>
+    </row>
+    <row r="290" spans="17:19">
+      <c r="Q290" s="6"/>
+      <c r="R290" s="6"/>
+      <c r="S290" s="6"/>
+    </row>
+    <row r="291" spans="17:19">
+      <c r="Q291" s="6"/>
+      <c r="R291" s="6"/>
+      <c r="S291" s="6"/>
+    </row>
+    <row r="292" spans="17:19">
+      <c r="Q292" s="6"/>
+      <c r="R292" s="6"/>
+      <c r="S292" s="6"/>
+    </row>
+    <row r="293" spans="17:19">
+      <c r="Q293" s="6"/>
+      <c r="R293" s="6"/>
+      <c r="S293" s="6"/>
+    </row>
+    <row r="294" spans="17:19">
+      <c r="Q294" s="6"/>
+      <c r="R294" s="6"/>
+      <c r="S294" s="6"/>
+    </row>
+    <row r="295" spans="17:19">
+      <c r="Q295" s="6"/>
+      <c r="R295" s="6"/>
+      <c r="S295" s="6"/>
+    </row>
+    <row r="296" spans="17:19">
+      <c r="Q296" s="6"/>
+      <c r="R296" s="6"/>
+      <c r="S296" s="6"/>
+    </row>
+    <row r="297" spans="17:19">
+      <c r="Q297" s="6"/>
+      <c r="R297" s="6"/>
+      <c r="S297" s="6"/>
+    </row>
+    <row r="298" spans="17:19">
+      <c r="Q298" s="6"/>
+      <c r="R298" s="6"/>
+      <c r="S298" s="6"/>
+    </row>
+    <row r="299" spans="17:19">
+      <c r="Q299" s="6"/>
+      <c r="R299" s="6"/>
+      <c r="S299" s="6"/>
+    </row>
+    <row r="300" spans="17:19">
+      <c r="Q300" s="6"/>
+      <c r="R300" s="6"/>
+      <c r="S300" s="6"/>
+    </row>
+    <row r="301" spans="17:19">
+      <c r="Q301" s="6"/>
+      <c r="R301" s="6"/>
+      <c r="S301" s="6"/>
+    </row>
+    <row r="302" spans="17:19">
+      <c r="Q302" s="6"/>
+      <c r="R302" s="6"/>
+      <c r="S302" s="6"/>
+    </row>
+    <row r="303" spans="17:19">
+      <c r="Q303" s="6"/>
+      <c r="R303" s="6"/>
+      <c r="S303" s="6"/>
+    </row>
+    <row r="304" spans="17:19">
+      <c r="Q304" s="6"/>
+      <c r="R304" s="6"/>
+      <c r="S304" s="6"/>
+    </row>
+    <row r="305" spans="17:19">
+      <c r="Q305" s="6"/>
+      <c r="R305" s="6"/>
+      <c r="S305" s="6"/>
+    </row>
+    <row r="306" spans="17:19">
+      <c r="Q306" s="6"/>
+      <c r="R306" s="6"/>
+      <c r="S306" s="6"/>
+    </row>
+    <row r="307" spans="17:19">
+      <c r="Q307" s="6"/>
+      <c r="R307" s="6"/>
+      <c r="S307" s="6"/>
+    </row>
+    <row r="308" spans="17:19">
+      <c r="Q308" s="6"/>
+      <c r="R308" s="6"/>
+      <c r="S308" s="6"/>
+    </row>
+    <row r="309" spans="17:19">
+      <c r="Q309" s="6"/>
+      <c r="R309" s="6"/>
+      <c r="S309" s="6"/>
+    </row>
+    <row r="310" spans="17:19">
+      <c r="Q310" s="6"/>
+      <c r="R310" s="6"/>
+      <c r="S310" s="6"/>
+    </row>
+    <row r="311" spans="17:19">
+      <c r="Q311" s="6"/>
+      <c r="R311" s="6"/>
+      <c r="S311" s="6"/>
+    </row>
+    <row r="312" spans="17:19">
+      <c r="Q312" s="6"/>
+      <c r="R312" s="6"/>
+      <c r="S312" s="6"/>
+    </row>
+    <row r="313" spans="17:19">
+      <c r="Q313" s="6"/>
+      <c r="R313" s="6"/>
+      <c r="S313" s="6"/>
+    </row>
+    <row r="314" spans="17:19">
+      <c r="Q314" s="6"/>
+      <c r="R314" s="6"/>
+      <c r="S314" s="6"/>
+    </row>
+    <row r="315" spans="17:19">
+      <c r="Q315" s="6"/>
+      <c r="R315" s="6"/>
+      <c r="S315" s="6"/>
+    </row>
+    <row r="316" spans="17:19">
+      <c r="Q316" s="6"/>
+      <c r="R316" s="6"/>
+      <c r="S316" s="6"/>
+    </row>
+    <row r="317" spans="17:19">
+      <c r="Q317" s="6"/>
+      <c r="R317" s="6"/>
+      <c r="S317" s="6"/>
+    </row>
+    <row r="318" spans="17:19">
+      <c r="Q318" s="6"/>
+      <c r="R318" s="6"/>
+      <c r="S318" s="6"/>
+    </row>
+    <row r="319" spans="17:19">
+      <c r="Q319" s="6"/>
+      <c r="R319" s="6"/>
+      <c r="S319" s="6"/>
+    </row>
+    <row r="320" spans="17:19">
+      <c r="Q320" s="6"/>
+      <c r="R320" s="6"/>
+      <c r="S320" s="6"/>
+    </row>
+    <row r="321" spans="17:19">
+      <c r="Q321" s="6"/>
+      <c r="R321" s="6"/>
+      <c r="S321" s="6"/>
+    </row>
+    <row r="322" spans="17:19">
+      <c r="Q322" s="6"/>
+      <c r="R322" s="6"/>
+      <c r="S322" s="6"/>
+    </row>
+    <row r="323" spans="17:19">
+      <c r="Q323" s="6"/>
+      <c r="R323" s="6"/>
+      <c r="S323" s="6"/>
+    </row>
+    <row r="324" spans="17:19">
+      <c r="Q324" s="6"/>
+      <c r="R324" s="6"/>
+      <c r="S324" s="6"/>
+    </row>
+    <row r="325" spans="17:19">
+      <c r="Q325" s="6"/>
+      <c r="R325" s="6"/>
+      <c r="S325" s="6"/>
+    </row>
+    <row r="326" spans="17:19">
+      <c r="Q326" s="6"/>
+      <c r="R326" s="6"/>
+      <c r="S326" s="6"/>
+    </row>
+    <row r="327" spans="17:19">
+      <c r="Q327" s="6"/>
+      <c r="R327" s="6"/>
+      <c r="S327" s="6"/>
+    </row>
+    <row r="328" spans="17:19">
+      <c r="Q328" s="6"/>
+      <c r="R328" s="6"/>
+      <c r="S328" s="6"/>
+    </row>
+    <row r="329" spans="17:19">
+      <c r="Q329" s="6"/>
+      <c r="R329" s="6"/>
+      <c r="S329" s="6"/>
+    </row>
+    <row r="330" spans="17:19">
+      <c r="Q330" s="6"/>
+      <c r="R330" s="6"/>
+      <c r="S330" s="6"/>
+    </row>
+    <row r="331" spans="17:19">
+      <c r="Q331" s="6"/>
+      <c r="R331" s="6"/>
+      <c r="S331" s="6"/>
+    </row>
+    <row r="332" spans="17:19">
+      <c r="Q332" s="6"/>
+      <c r="R332" s="6"/>
+      <c r="S332" s="6"/>
+    </row>
+    <row r="333" spans="17:19">
+      <c r="Q333" s="6"/>
+      <c r="R333" s="6"/>
+      <c r="S333" s="6"/>
+    </row>
+    <row r="334" spans="17:19">
+      <c r="Q334" s="6"/>
+      <c r="R334" s="6"/>
+      <c r="S334" s="6"/>
+    </row>
+    <row r="335" spans="17:19">
+      <c r="Q335" s="6"/>
+      <c r="R335" s="6"/>
+      <c r="S335" s="6"/>
+    </row>
+    <row r="336" spans="17:19">
+      <c r="Q336" s="6"/>
+      <c r="R336" s="6"/>
+      <c r="S336" s="6"/>
+    </row>
+    <row r="337" spans="17:19">
+      <c r="Q337" s="6"/>
+      <c r="R337" s="6"/>
+      <c r="S337" s="6"/>
+    </row>
+    <row r="338" spans="17:19">
+      <c r="Q338" s="6"/>
+      <c r="R338" s="6"/>
+      <c r="S338" s="6"/>
+    </row>
+    <row r="339" spans="17:19">
+      <c r="Q339" s="6"/>
+      <c r="R339" s="6"/>
+      <c r="S339" s="6"/>
+    </row>
+    <row r="340" spans="17:19">
+      <c r="Q340" s="6"/>
+      <c r="R340" s="6"/>
+      <c r="S340" s="6"/>
+    </row>
+    <row r="341" spans="17:19">
+      <c r="Q341" s="6"/>
+      <c r="R341" s="6"/>
+      <c r="S341" s="6"/>
+    </row>
+    <row r="342" spans="17:19">
+      <c r="Q342" s="6"/>
+      <c r="R342" s="6"/>
+      <c r="S342" s="6"/>
+    </row>
+    <row r="343" spans="17:19">
+      <c r="Q343" s="6"/>
+      <c r="R343" s="6"/>
+      <c r="S343" s="6"/>
+    </row>
+    <row r="344" spans="17:19">
+      <c r="Q344" s="6"/>
+      <c r="R344" s="6"/>
+      <c r="S344" s="6"/>
+    </row>
+    <row r="345" spans="17:19">
+      <c r="Q345" s="6"/>
+      <c r="R345" s="6"/>
+      <c r="S345" s="6"/>
+    </row>
+    <row r="346" spans="17:19">
+      <c r="Q346" s="6"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="6"/>
+    </row>
+    <row r="347" spans="17:19">
+      <c r="Q347" s="6"/>
+      <c r="R347" s="6"/>
+      <c r="S347" s="6"/>
+    </row>
+    <row r="348" spans="17:19">
+      <c r="Q348" s="6"/>
+      <c r="R348" s="6"/>
+      <c r="S348" s="6"/>
+    </row>
+    <row r="349" spans="17:19">
+      <c r="Q349" s="6"/>
+      <c r="R349" s="6"/>
+      <c r="S349" s="6"/>
+    </row>
+    <row r="350" spans="17:19">
+      <c r="Q350" s="6"/>
+      <c r="R350" s="6"/>
+      <c r="S350" s="6"/>
+    </row>
+    <row r="351" spans="17:19">
+      <c r="Q351" s="6"/>
+      <c r="R351" s="6"/>
+      <c r="S351" s="6"/>
+    </row>
+    <row r="352" spans="17:19">
+      <c r="Q352" s="6"/>
+      <c r="R352" s="6"/>
+      <c r="S352" s="6"/>
+    </row>
+    <row r="353" spans="17:19">
+      <c r="Q353" s="6"/>
+      <c r="R353" s="6"/>
+      <c r="S353" s="6"/>
+    </row>
+    <row r="354" spans="17:19">
+      <c r="Q354" s="6"/>
+      <c r="R354" s="6"/>
+      <c r="S354" s="6"/>
+    </row>
+    <row r="355" spans="17:19">
+      <c r="Q355" s="6"/>
+      <c r="R355" s="6"/>
+      <c r="S355" s="6"/>
+    </row>
+    <row r="356" spans="17:19">
+      <c r="Q356" s="6"/>
+      <c r="R356" s="6"/>
+      <c r="S356" s="6"/>
+    </row>
+    <row r="357" spans="17:19">
+      <c r="Q357" s="6"/>
+      <c r="R357" s="6"/>
+      <c r="S357" s="6"/>
+    </row>
+    <row r="358" spans="17:19">
+      <c r="Q358" s="6"/>
+      <c r="R358" s="6"/>
+      <c r="S358" s="6"/>
+    </row>
+    <row r="359" spans="17:19">
+      <c r="Q359" s="6"/>
+      <c r="R359" s="6"/>
+      <c r="S359" s="6"/>
+    </row>
+    <row r="360" spans="17:19">
+      <c r="Q360" s="6"/>
+      <c r="R360" s="6"/>
+      <c r="S360" s="6"/>
+    </row>
+    <row r="361" spans="17:19">
+      <c r="Q361" s="6"/>
+      <c r="R361" s="6"/>
+      <c r="S361" s="6"/>
+    </row>
+    <row r="362" spans="17:19">
+      <c r="Q362" s="6"/>
+      <c r="R362" s="6"/>
+      <c r="S362" s="6"/>
+    </row>
+    <row r="363" spans="17:19">
+      <c r="Q363" s="6"/>
+      <c r="R363" s="6"/>
+      <c r="S363" s="6"/>
+    </row>
+    <row r="364" spans="17:19">
+      <c r="Q364" s="6"/>
+      <c r="R364" s="6"/>
+      <c r="S364" s="6"/>
+    </row>
+    <row r="365" spans="17:19">
+      <c r="Q365" s="6"/>
+      <c r="R365" s="6"/>
+      <c r="S365" s="6"/>
+    </row>
+    <row r="366" spans="17:19">
+      <c r="Q366" s="6"/>
+      <c r="R366" s="6"/>
+      <c r="S366" s="6"/>
+    </row>
+    <row r="367" spans="17:19">
+      <c r="Q367" s="6"/>
+      <c r="R367" s="6"/>
+      <c r="S367" s="6"/>
+    </row>
+    <row r="368" spans="17:19">
+      <c r="Q368" s="6"/>
+      <c r="R368" s="6"/>
+      <c r="S368" s="6"/>
+    </row>
+    <row r="369" spans="17:19">
+      <c r="Q369" s="6"/>
+      <c r="R369" s="6"/>
+      <c r="S369" s="6"/>
+    </row>
+    <row r="370" spans="17:19">
+      <c r="Q370" s="6"/>
+      <c r="R370" s="6"/>
+      <c r="S370" s="6"/>
+    </row>
+    <row r="371" spans="17:19">
+      <c r="Q371" s="6"/>
+      <c r="R371" s="6"/>
+      <c r="S371" s="6"/>
+    </row>
+    <row r="372" spans="17:19">
+      <c r="Q372" s="6"/>
+      <c r="R372" s="6"/>
+      <c r="S372" s="6"/>
+    </row>
+    <row r="373" spans="17:19">
+      <c r="Q373" s="6"/>
+      <c r="R373" s="6"/>
+      <c r="S373" s="6"/>
+    </row>
+    <row r="374" spans="17:19">
+      <c r="Q374" s="6"/>
+      <c r="R374" s="6"/>
+      <c r="S374" s="6"/>
+    </row>
+    <row r="375" spans="17:19">
+      <c r="Q375" s="6"/>
+      <c r="R375" s="6"/>
+      <c r="S375" s="6"/>
+    </row>
+    <row r="376" spans="17:19">
+      <c r="Q376" s="6"/>
+      <c r="R376" s="6"/>
+      <c r="S376" s="6"/>
+    </row>
+    <row r="377" spans="17:19">
+      <c r="Q377" s="6"/>
+      <c r="R377" s="6"/>
+      <c r="S377" s="6"/>
+    </row>
+    <row r="378" spans="17:19">
+      <c r="Q378" s="6"/>
+      <c r="R378" s="6"/>
+      <c r="S378" s="6"/>
+    </row>
+    <row r="379" spans="17:19">
+      <c r="Q379" s="6"/>
+      <c r="R379" s="6"/>
+      <c r="S379" s="6"/>
+    </row>
+    <row r="380" spans="17:19">
+      <c r="Q380" s="6"/>
+      <c r="R380" s="6"/>
+      <c r="S380" s="6"/>
+    </row>
+    <row r="381" spans="17:19">
+      <c r="Q381" s="6"/>
+      <c r="R381" s="6"/>
+      <c r="S381" s="6"/>
+    </row>
+    <row r="382" spans="17:19">
+      <c r="Q382" s="6"/>
+      <c r="R382" s="6"/>
+      <c r="S382" s="6"/>
+    </row>
+    <row r="383" spans="17:19">
+      <c r="Q383" s="6"/>
+      <c r="R383" s="6"/>
+      <c r="S383" s="6"/>
+    </row>
+    <row r="384" spans="17:19">
+      <c r="Q384" s="6"/>
+      <c r="R384" s="6"/>
+      <c r="S384" s="6"/>
+    </row>
+    <row r="385" spans="17:19">
+      <c r="Q385" s="6"/>
+      <c r="R385" s="6"/>
+      <c r="S385" s="6"/>
+    </row>
+    <row r="386" spans="17:19">
+      <c r="Q386" s="6"/>
+      <c r="R386" s="6"/>
+      <c r="S386" s="6"/>
+    </row>
+    <row r="387" spans="17:19">
+      <c r="Q387" s="6"/>
+      <c r="R387" s="6"/>
+      <c r="S387" s="6"/>
+    </row>
+    <row r="388" spans="17:19">
+      <c r="Q388" s="6"/>
+      <c r="R388" s="6"/>
+      <c r="S388" s="6"/>
+    </row>
+    <row r="389" spans="17:19">
+      <c r="Q389" s="6"/>
+      <c r="R389" s="6"/>
+      <c r="S389" s="6"/>
+    </row>
+    <row r="390" spans="17:19">
+      <c r="Q390" s="6"/>
+      <c r="R390" s="6"/>
+      <c r="S390" s="6"/>
+    </row>
+    <row r="391" spans="17:19">
+      <c r="Q391" s="6"/>
+      <c r="R391" s="6"/>
+      <c r="S391" s="6"/>
+    </row>
+    <row r="392" spans="17:19">
+      <c r="Q392" s="6"/>
+      <c r="R392" s="6"/>
+      <c r="S392" s="6"/>
+    </row>
+    <row r="393" spans="17:19">
+      <c r="Q393" s="6"/>
+      <c r="R393" s="6"/>
+      <c r="S393" s="6"/>
+    </row>
+    <row r="394" spans="17:19">
+      <c r="Q394" s="6"/>
+      <c r="R394" s="6"/>
+      <c r="S394" s="6"/>
+    </row>
+    <row r="395" spans="17:19">
+      <c r="Q395" s="6"/>
+      <c r="R395" s="6"/>
+      <c r="S395" s="6"/>
+    </row>
+    <row r="396" spans="17:19">
+      <c r="Q396" s="6"/>
+      <c r="R396" s="6"/>
+      <c r="S396" s="6"/>
+    </row>
+    <row r="397" spans="17:19">
+      <c r="Q397" s="6"/>
+      <c r="R397" s="6"/>
+      <c r="S397" s="6"/>
+    </row>
+    <row r="398" spans="17:19">
+      <c r="Q398" s="6"/>
+      <c r="R398" s="6"/>
+      <c r="S398" s="6"/>
+    </row>
+    <row r="399" spans="17:19">
+      <c r="Q399" s="6"/>
+      <c r="R399" s="6"/>
+      <c r="S399" s="6"/>
+    </row>
+    <row r="400" spans="17:19">
+      <c r="Q400" s="6"/>
+      <c r="R400" s="6"/>
+      <c r="S400" s="6"/>
+    </row>
+    <row r="401" spans="17:19">
+      <c r="Q401" s="6"/>
+      <c r="R401" s="6"/>
+      <c r="S401" s="6"/>
+    </row>
+    <row r="402" spans="17:19">
+      <c r="Q402" s="6"/>
+      <c r="R402" s="6"/>
+      <c r="S402" s="6"/>
+    </row>
+    <row r="403" spans="17:19">
+      <c r="Q403" s="6"/>
+      <c r="R403" s="6"/>
+      <c r="S403" s="6"/>
+    </row>
+    <row r="404" spans="17:19">
+      <c r="Q404" s="6"/>
+      <c r="R404" s="6"/>
+      <c r="S404" s="6"/>
+    </row>
+    <row r="405" spans="17:19">
+      <c r="Q405" s="6"/>
+      <c r="R405" s="6"/>
+      <c r="S405" s="6"/>
+    </row>
+    <row r="406" spans="17:19">
+      <c r="Q406" s="6"/>
+      <c r="R406" s="6"/>
+      <c r="S406" s="6"/>
+    </row>
+    <row r="407" spans="17:19">
+      <c r="Q407" s="6"/>
+      <c r="R407" s="6"/>
+      <c r="S407" s="6"/>
+    </row>
+    <row r="408" spans="17:19">
+      <c r="Q408" s="6"/>
+      <c r="R408" s="6"/>
+      <c r="S408" s="6"/>
+    </row>
+    <row r="409" spans="17:19">
+      <c r="Q409" s="6"/>
+      <c r="R409" s="6"/>
+      <c r="S409" s="6"/>
+    </row>
+    <row r="410" spans="17:19">
+      <c r="Q410" s="6"/>
+      <c r="R410" s="6"/>
+      <c r="S410" s="6"/>
+    </row>
+    <row r="411" spans="17:19">
+      <c r="Q411" s="6"/>
+      <c r="R411" s="6"/>
+      <c r="S411" s="6"/>
+    </row>
+    <row r="412" spans="17:19">
+      <c r="Q412" s="6"/>
+      <c r="R412" s="6"/>
+      <c r="S412" s="6"/>
+    </row>
+    <row r="413" spans="17:19">
+      <c r="Q413" s="6"/>
+      <c r="R413" s="6"/>
+      <c r="S413" s="6"/>
+    </row>
+    <row r="414" spans="17:19">
+      <c r="Q414" s="6"/>
+      <c r="R414" s="6"/>
+      <c r="S414" s="6"/>
+    </row>
+    <row r="415" spans="17:19">
+      <c r="Q415" s="6"/>
+      <c r="R415" s="6"/>
+      <c r="S415" s="6"/>
+    </row>
+    <row r="416" spans="17:19">
+      <c r="Q416" s="6"/>
+      <c r="R416" s="6"/>
+      <c r="S416" s="6"/>
+    </row>
+    <row r="417" spans="17:19">
+      <c r="Q417" s="6"/>
+      <c r="R417" s="6"/>
+      <c r="S417" s="6"/>
+    </row>
+    <row r="418" spans="17:19">
+      <c r="Q418" s="6"/>
+      <c r="R418" s="6"/>
+      <c r="S418" s="6"/>
+    </row>
+    <row r="419" spans="17:19">
+      <c r="Q419" s="6"/>
+      <c r="R419" s="6"/>
+      <c r="S419" s="6"/>
+    </row>
+    <row r="420" spans="17:19">
+      <c r="Q420" s="6"/>
+      <c r="R420" s="6"/>
+      <c r="S420" s="6"/>
+    </row>
+    <row r="421" spans="17:19">
+      <c r="Q421" s="6"/>
+      <c r="R421" s="6"/>
+      <c r="S421" s="6"/>
+    </row>
+    <row r="422" spans="17:19">
+      <c r="Q422" s="6"/>
+      <c r="R422" s="6"/>
+      <c r="S422" s="6"/>
+    </row>
+    <row r="423" spans="17:19">
+      <c r="Q423" s="6"/>
+      <c r="R423" s="6"/>
+      <c r="S423" s="6"/>
+    </row>
+    <row r="424" spans="17:19">
+      <c r="Q424" s="6"/>
+      <c r="R424" s="6"/>
+      <c r="S424" s="6"/>
+    </row>
+    <row r="425" spans="17:19">
+      <c r="Q425" s="6"/>
+      <c r="R425" s="6"/>
+      <c r="S425" s="6"/>
+    </row>
+    <row r="426" spans="17:19">
+      <c r="Q426" s="6"/>
+      <c r="R426" s="6"/>
+      <c r="S426" s="6"/>
+    </row>
+    <row r="427" spans="17:19">
+      <c r="Q427" s="6"/>
+      <c r="R427" s="6"/>
+      <c r="S427" s="6"/>
+    </row>
+    <row r="428" spans="17:19">
+      <c r="Q428" s="6"/>
+      <c r="R428" s="6"/>
+      <c r="S428" s="6"/>
+    </row>
+    <row r="429" spans="17:19">
+      <c r="Q429" s="6"/>
+      <c r="R429" s="6"/>
+      <c r="S429" s="6"/>
+    </row>
+    <row r="430" spans="17:19">
+      <c r="Q430" s="6"/>
+      <c r="R430" s="6"/>
+      <c r="S430" s="6"/>
+    </row>
+    <row r="431" spans="17:19">
+      <c r="Q431" s="6"/>
+      <c r="R431" s="6"/>
+      <c r="S431" s="6"/>
+    </row>
+    <row r="432" spans="17:19">
+      <c r="Q432" s="6"/>
+      <c r="R432" s="6"/>
+      <c r="S432" s="6"/>
+    </row>
+    <row r="433" spans="17:19">
+      <c r="Q433" s="6"/>
+      <c r="R433" s="6"/>
+      <c r="S433" s="6"/>
+    </row>
+    <row r="434" spans="17:19">
+      <c r="Q434" s="6"/>
+      <c r="R434" s="6"/>
+      <c r="S434" s="6"/>
+    </row>
+    <row r="435" spans="17:19">
+      <c r="Q435" s="6"/>
+      <c r="R435" s="6"/>
+      <c r="S435" s="6"/>
+    </row>
+    <row r="436" spans="17:19">
+      <c r="Q436" s="6"/>
+      <c r="R436" s="6"/>
+      <c r="S436" s="6"/>
+    </row>
+    <row r="437" spans="17:19">
+      <c r="Q437" s="6"/>
+      <c r="R437" s="6"/>
+      <c r="S437" s="6"/>
+    </row>
+    <row r="438" spans="17:19">
+      <c r="Q438" s="6"/>
+      <c r="R438" s="6"/>
+      <c r="S438" s="6"/>
+    </row>
+    <row r="439" spans="17:19">
+      <c r="Q439" s="6"/>
+      <c r="R439" s="6"/>
+      <c r="S439" s="6"/>
+    </row>
+    <row r="440" spans="17:19">
+      <c r="Q440" s="6"/>
+      <c r="R440" s="6"/>
+      <c r="S440" s="6"/>
+    </row>
+    <row r="441" spans="17:19">
+      <c r="Q441" s="6"/>
+      <c r="R441" s="6"/>
+      <c r="S441" s="6"/>
+    </row>
+    <row r="442" spans="17:19">
+      <c r="Q442" s="6"/>
+      <c r="R442" s="6"/>
+      <c r="S442" s="6"/>
+    </row>
+    <row r="443" spans="17:19">
+      <c r="Q443" s="6"/>
+      <c r="R443" s="6"/>
+      <c r="S443" s="6"/>
+    </row>
+    <row r="444" spans="17:19">
+      <c r="Q444" s="6"/>
+      <c r="R444" s="6"/>
+      <c r="S444" s="6"/>
+    </row>
+    <row r="445" spans="17:19">
+      <c r="Q445" s="6"/>
+      <c r="R445" s="6"/>
+      <c r="S445" s="6"/>
+    </row>
+    <row r="446" spans="17:19">
+      <c r="Q446" s="6"/>
+      <c r="R446" s="6"/>
+      <c r="S446" s="6"/>
+    </row>
+    <row r="447" spans="17:19">
+      <c r="Q447" s="6"/>
+      <c r="R447" s="6"/>
+      <c r="S447" s="6"/>
+    </row>
+    <row r="448" spans="17:19">
+      <c r="Q448" s="6"/>
+      <c r="R448" s="6"/>
+      <c r="S448" s="6"/>
+    </row>
+    <row r="449" spans="17:19">
+      <c r="Q449" s="6"/>
+      <c r="R449" s="6"/>
+      <c r="S449" s="6"/>
+    </row>
+    <row r="450" spans="17:19">
+      <c r="Q450" s="6"/>
+      <c r="R450" s="6"/>
+      <c r="S450" s="6"/>
+    </row>
+    <row r="451" spans="17:19">
+      <c r="Q451" s="6"/>
+      <c r="R451" s="6"/>
+      <c r="S451" s="6"/>
+    </row>
+    <row r="452" spans="17:19">
+      <c r="Q452" s="6"/>
+      <c r="R452" s="6"/>
+      <c r="S452" s="6"/>
+    </row>
+    <row r="453" spans="17:19">
+      <c r="Q453" s="6"/>
+      <c r="R453" s="6"/>
+      <c r="S453" s="6"/>
+    </row>
+    <row r="454" spans="17:19">
+      <c r="Q454" s="6"/>
+      <c r="R454" s="6"/>
+      <c r="S454" s="6"/>
+    </row>
+    <row r="455" spans="17:19">
+      <c r="Q455" s="6"/>
+      <c r="R455" s="6"/>
+      <c r="S455" s="6"/>
+    </row>
+    <row r="456" spans="17:19">
+      <c r="Q456" s="6"/>
+      <c r="R456" s="6"/>
+      <c r="S456" s="6"/>
+    </row>
+    <row r="457" spans="17:19">
+      <c r="Q457" s="6"/>
+      <c r="R457" s="6"/>
+      <c r="S457" s="6"/>
+    </row>
+    <row r="458" spans="17:19">
+      <c r="Q458" s="6"/>
+      <c r="R458" s="6"/>
+      <c r="S458" s="6"/>
+    </row>
+    <row r="459" spans="17:19">
+      <c r="Q459" s="6"/>
+      <c r="R459" s="6"/>
+      <c r="S459" s="6"/>
+    </row>
+    <row r="460" spans="17:19">
+      <c r="Q460" s="6"/>
+      <c r="R460" s="6"/>
+      <c r="S460" s="6"/>
+    </row>
+    <row r="461" spans="17:19">
+      <c r="Q461" s="6"/>
+      <c r="R461" s="6"/>
+      <c r="S461" s="6"/>
+    </row>
+    <row r="462" spans="17:19">
+      <c r="Q462" s="6"/>
+      <c r="R462" s="6"/>
+      <c r="S462" s="6"/>
+    </row>
+    <row r="463" spans="17:19">
+      <c r="Q463" s="6"/>
+      <c r="R463" s="6"/>
+      <c r="S463" s="6"/>
+    </row>
+    <row r="464" spans="17:19">
+      <c r="Q464" s="6"/>
+      <c r="R464" s="6"/>
+      <c r="S464" s="6"/>
+    </row>
+    <row r="465" spans="17:19">
+      <c r="Q465" s="6"/>
+      <c r="R465" s="6"/>
+      <c r="S465" s="6"/>
+    </row>
+    <row r="466" spans="17:19">
+      <c r="Q466" s="6"/>
+      <c r="R466" s="6"/>
+      <c r="S466" s="6"/>
+    </row>
+    <row r="467" spans="17:19">
+      <c r="Q467" s="6"/>
+      <c r="R467" s="6"/>
+      <c r="S467" s="6"/>
+    </row>
+    <row r="468" spans="17:19">
+      <c r="Q468" s="6"/>
+      <c r="R468" s="6"/>
+      <c r="S468" s="6"/>
+    </row>
+    <row r="469" spans="17:19">
+      <c r="Q469" s="6"/>
+      <c r="R469" s="6"/>
+      <c r="S469" s="6"/>
+    </row>
+    <row r="470" spans="17:19">
+      <c r="Q470" s="6"/>
+      <c r="R470" s="6"/>
+      <c r="S470" s="6"/>
+    </row>
+    <row r="471" spans="17:19">
+      <c r="Q471" s="6"/>
+      <c r="R471" s="6"/>
+      <c r="S471" s="6"/>
+    </row>
+    <row r="472" spans="17:19">
+      <c r="Q472" s="6"/>
+      <c r="R472" s="6"/>
+      <c r="S472" s="6"/>
+    </row>
+    <row r="473" spans="17:19">
+      <c r="Q473" s="6"/>
+      <c r="R473" s="6"/>
+      <c r="S473" s="6"/>
+    </row>
+    <row r="474" spans="17:19">
+      <c r="Q474" s="6"/>
+      <c r="R474" s="6"/>
+      <c r="S474" s="6"/>
+    </row>
+    <row r="475" spans="17:19">
+      <c r="Q475" s="6"/>
+      <c r="R475" s="6"/>
+      <c r="S475" s="6"/>
+    </row>
+    <row r="476" spans="17:19">
+      <c r="Q476" s="6"/>
+      <c r="R476" s="6"/>
+      <c r="S476" s="6"/>
+    </row>
+    <row r="477" spans="17:19">
+      <c r="Q477" s="6"/>
+      <c r="R477" s="6"/>
+      <c r="S477" s="6"/>
+    </row>
+    <row r="478" spans="17:19">
+      <c r="Q478" s="6"/>
+      <c r="R478" s="6"/>
+      <c r="S478" s="6"/>
+    </row>
+    <row r="479" spans="17:19">
+      <c r="Q479" s="6"/>
+      <c r="R479" s="6"/>
+      <c r="S479" s="6"/>
+    </row>
+    <row r="480" spans="17:19">
+      <c r="Q480" s="6"/>
+      <c r="R480" s="6"/>
+      <c r="S480" s="6"/>
+    </row>
+    <row r="481" spans="17:19">
+      <c r="Q481" s="6"/>
+      <c r="R481" s="6"/>
+      <c r="S481" s="6"/>
+    </row>
+    <row r="482" spans="17:19">
+      <c r="Q482" s="6"/>
+      <c r="R482" s="6"/>
+      <c r="S482" s="6"/>
+    </row>
+    <row r="483" spans="17:19">
+      <c r="Q483" s="6"/>
+      <c r="R483" s="6"/>
+      <c r="S483" s="6"/>
+    </row>
+    <row r="484" spans="17:19">
+      <c r="Q484" s="6"/>
+      <c r="R484" s="6"/>
+      <c r="S484" s="6"/>
+    </row>
+    <row r="485" spans="17:19">
+      <c r="Q485" s="6"/>
+      <c r="R485" s="6"/>
+      <c r="S485" s="6"/>
+    </row>
+    <row r="486" spans="17:19">
+      <c r="Q486" s="6"/>
+      <c r="R486" s="6"/>
+      <c r="S486" s="6"/>
+    </row>
+    <row r="487" spans="17:19">
+      <c r="Q487" s="6"/>
+      <c r="R487" s="6"/>
+      <c r="S487" s="6"/>
+    </row>
+    <row r="488" spans="17:19">
+      <c r="Q488" s="6"/>
+      <c r="R488" s="6"/>
+      <c r="S488" s="6"/>
+    </row>
+    <row r="489" spans="17:19">
+      <c r="Q489" s="6"/>
+      <c r="R489" s="6"/>
+      <c r="S489" s="6"/>
+    </row>
+    <row r="490" spans="17:19">
+      <c r="Q490" s="6"/>
+      <c r="R490" s="6"/>
+      <c r="S490" s="6"/>
+    </row>
+    <row r="491" spans="17:19">
+      <c r="Q491" s="6"/>
+      <c r="R491" s="6"/>
+      <c r="S491" s="6"/>
+    </row>
+    <row r="492" spans="17:19">
+      <c r="Q492" s="6"/>
+      <c r="R492" s="6"/>
+      <c r="S492" s="6"/>
+    </row>
+    <row r="493" spans="17:19">
+      <c r="Q493" s="6"/>
+      <c r="R493" s="6"/>
+      <c r="S493" s="6"/>
+    </row>
+    <row r="494" spans="17:19">
+      <c r="Q494" s="6"/>
+      <c r="R494" s="6"/>
+      <c r="S494" s="6"/>
+    </row>
+    <row r="495" spans="17:19">
+      <c r="Q495" s="6"/>
+      <c r="R495" s="6"/>
+      <c r="S495" s="6"/>
+    </row>
+    <row r="496" spans="17:19">
+      <c r="Q496" s="6"/>
+      <c r="R496" s="6"/>
+      <c r="S496" s="6"/>
+    </row>
+    <row r="497" spans="17:19">
+      <c r="Q497" s="6"/>
+      <c r="R497" s="6"/>
+      <c r="S497" s="6"/>
+    </row>
+    <row r="498" spans="17:19">
+      <c r="Q498" s="6"/>
+      <c r="R498" s="6"/>
+      <c r="S498" s="6"/>
+    </row>
+    <row r="499" spans="17:19">
+      <c r="Q499" s="6"/>
+      <c r="R499" s="6"/>
+      <c r="S499" s="6"/>
+    </row>
+    <row r="500" spans="17:19">
+      <c r="Q500" s="6"/>
+      <c r="R500" s="6"/>
+      <c r="S500" s="6"/>
+    </row>
+    <row r="501" spans="17:19">
+      <c r="Q501" s="6"/>
+      <c r="R501" s="6"/>
+      <c r="S501" s="6"/>
+    </row>
+    <row r="502" spans="17:19">
+      <c r="Q502" s="6"/>
+      <c r="R502" s="6"/>
+      <c r="S502" s="6"/>
+    </row>
+    <row r="503" spans="17:19">
+      <c r="Q503" s="6"/>
+      <c r="R503" s="6"/>
+      <c r="S503" s="6"/>
+    </row>
+    <row r="504" spans="17:19">
+      <c r="Q504" s="6"/>
+      <c r="R504" s="6"/>
+      <c r="S504" s="6"/>
+    </row>
+    <row r="505" spans="17:19">
+      <c r="Q505" s="6"/>
+      <c r="R505" s="6"/>
+      <c r="S505" s="6"/>
+    </row>
+    <row r="506" spans="17:19">
+      <c r="Q506" s="6"/>
+      <c r="R506" s="6"/>
+      <c r="S506" s="6"/>
+    </row>
+    <row r="507" spans="17:19">
+      <c r="Q507" s="6"/>
+      <c r="R507" s="6"/>
+      <c r="S507" s="6"/>
+    </row>
+    <row r="508" spans="17:19">
+      <c r="Q508" s="6"/>
+      <c r="R508" s="6"/>
+      <c r="S508" s="6"/>
+    </row>
+    <row r="509" spans="17:19">
+      <c r="Q509" s="6"/>
+      <c r="R509" s="6"/>
+      <c r="S509" s="6"/>
+    </row>
+    <row r="510" spans="17:19">
+      <c r="Q510" s="6"/>
+      <c r="R510" s="6"/>
+      <c r="S510" s="6"/>
+    </row>
+    <row r="511" spans="17:19">
+      <c r="Q511" s="6"/>
+      <c r="R511" s="6"/>
+      <c r="S511" s="6"/>
+    </row>
+    <row r="512" spans="17:19">
+      <c r="Q512" s="6"/>
+      <c r="R512" s="6"/>
+      <c r="S512" s="6"/>
+    </row>
+    <row r="513" spans="17:19">
+      <c r="Q513" s="6"/>
+      <c r="R513" s="6"/>
+      <c r="S513" s="6"/>
+    </row>
+    <row r="514" spans="17:19">
+      <c r="Q514" s="6"/>
+      <c r="R514" s="6"/>
+      <c r="S514" s="6"/>
+    </row>
+    <row r="515" spans="17:19">
+      <c r="Q515" s="6"/>
+      <c r="R515" s="6"/>
+      <c r="S515" s="6"/>
+    </row>
+    <row r="516" spans="17:19">
+      <c r="Q516" s="6"/>
+      <c r="R516" s="6"/>
+      <c r="S516" s="6"/>
+    </row>
+    <row r="517" spans="17:19">
+      <c r="Q517" s="6"/>
+      <c r="R517" s="6"/>
+      <c r="S517" s="6"/>
+    </row>
+    <row r="518" spans="17:19">
+      <c r="Q518" s="6"/>
+      <c r="R518" s="6"/>
+      <c r="S518" s="6"/>
+    </row>
+    <row r="519" spans="17:19">
+      <c r="Q519" s="6"/>
+      <c r="R519" s="6"/>
+      <c r="S519" s="6"/>
+    </row>
+    <row r="520" spans="17:19">
+      <c r="Q520" s="6"/>
+      <c r="R520" s="6"/>
+      <c r="S520" s="6"/>
+    </row>
+    <row r="521" spans="17:19">
+      <c r="Q521" s="6"/>
+      <c r="R521" s="6"/>
+      <c r="S521" s="6"/>
+    </row>
+    <row r="522" spans="17:19">
+      <c r="Q522" s="6"/>
+      <c r="R522" s="6"/>
+      <c r="S522" s="6"/>
+    </row>
+    <row r="523" spans="17:19">
+      <c r="Q523" s="6"/>
+      <c r="R523" s="6"/>
+      <c r="S523" s="6"/>
+    </row>
+    <row r="524" spans="17:19">
+      <c r="Q524" s="6"/>
+      <c r="R524" s="6"/>
+      <c r="S524" s="6"/>
+    </row>
+    <row r="525" spans="17:19">
+      <c r="Q525" s="6"/>
+      <c r="R525" s="6"/>
+      <c r="S525" s="6"/>
+    </row>
+    <row r="526" spans="17:19">
+      <c r="Q526" s="6"/>
+      <c r="R526" s="6"/>
+      <c r="S526" s="6"/>
+    </row>
+    <row r="527" spans="17:19">
+      <c r="Q527" s="6"/>
+      <c r="R527" s="6"/>
+      <c r="S527" s="6"/>
+    </row>
+    <row r="528" spans="17:19">
+      <c r="Q528" s="6"/>
+      <c r="R528" s="6"/>
+      <c r="S528" s="6"/>
+    </row>
+    <row r="529" spans="17:19">
+      <c r="Q529" s="6"/>
+      <c r="R529" s="6"/>
+      <c r="S529" s="6"/>
+    </row>
+    <row r="530" spans="17:19">
+      <c r="Q530" s="6"/>
+      <c r="R530" s="6"/>
+      <c r="S530" s="6"/>
+    </row>
+    <row r="531" spans="17:19">
+      <c r="Q531" s="6"/>
+      <c r="R531" s="6"/>
+      <c r="S531" s="6"/>
+    </row>
+    <row r="532" spans="17:19">
+      <c r="Q532" s="6"/>
+      <c r="R532" s="6"/>
+      <c r="S532" s="6"/>
+    </row>
+    <row r="533" spans="17:19">
+      <c r="Q533" s="6"/>
+      <c r="R533" s="6"/>
+      <c r="S533" s="6"/>
+    </row>
+    <row r="534" spans="17:19">
+      <c r="Q534" s="6"/>
+      <c r="R534" s="6"/>
+      <c r="S534" s="6"/>
+    </row>
+    <row r="535" spans="17:19">
+      <c r="Q535" s="6"/>
+      <c r="R535" s="6"/>
+      <c r="S535" s="6"/>
+    </row>
+    <row r="536" spans="17:19">
+      <c r="Q536" s="6"/>
+      <c r="R536" s="6"/>
+      <c r="S536" s="6"/>
+    </row>
+    <row r="537" spans="17:19">
+      <c r="Q537" s="6"/>
+      <c r="R537" s="6"/>
+      <c r="S537" s="6"/>
+    </row>
+    <row r="538" spans="17:19">
+      <c r="Q538" s="6"/>
+      <c r="R538" s="6"/>
+      <c r="S538" s="6"/>
+    </row>
+    <row r="539" spans="17:19">
+      <c r="Q539" s="6"/>
+      <c r="R539" s="6"/>
+      <c r="S539" s="6"/>
+    </row>
+    <row r="540" spans="17:19">
+      <c r="Q540" s="6"/>
+      <c r="R540" s="6"/>
+      <c r="S540" s="6"/>
+    </row>
+    <row r="541" spans="17:19">
+      <c r="Q541" s="6"/>
+      <c r="R541" s="6"/>
+      <c r="S541" s="6"/>
+    </row>
+    <row r="542" spans="17:19">
+      <c r="Q542" s="6"/>
+      <c r="R542" s="6"/>
+      <c r="S542" s="6"/>
+    </row>
+    <row r="543" spans="17:19">
+      <c r="Q543" s="6"/>
+      <c r="R543" s="6"/>
+      <c r="S543" s="6"/>
+    </row>
+    <row r="544" spans="17:19">
+      <c r="Q544" s="6"/>
+      <c r="R544" s="6"/>
+      <c r="S544" s="6"/>
+    </row>
+    <row r="545" spans="17:19">
+      <c r="Q545" s="6"/>
+      <c r="R545" s="6"/>
+      <c r="S545" s="6"/>
+    </row>
+    <row r="546" spans="17:19">
+      <c r="Q546" s="6"/>
+      <c r="R546" s="6"/>
+      <c r="S546" s="6"/>
+    </row>
+    <row r="547" spans="17:19">
+      <c r="Q547" s="6"/>
+      <c r="R547" s="6"/>
+      <c r="S547" s="6"/>
+    </row>
+    <row r="548" spans="17:19">
+      <c r="Q548" s="6"/>
+      <c r="R548" s="6"/>
+      <c r="S548" s="6"/>
+    </row>
+    <row r="549" spans="17:19">
+      <c r="Q549" s="6"/>
+      <c r="R549" s="6"/>
+      <c r="S549" s="6"/>
+    </row>
+    <row r="550" spans="17:19">
+      <c r="Q550" s="6"/>
+      <c r="R550" s="6"/>
+      <c r="S550" s="6"/>
+    </row>
+    <row r="551" spans="17:19">
+      <c r="Q551" s="6"/>
+      <c r="R551" s="6"/>
+      <c r="S551" s="6"/>
+    </row>
+    <row r="552" spans="17:19">
+      <c r="Q552" s="6"/>
+      <c r="R552" s="6"/>
+      <c r="S552" s="6"/>
+    </row>
+    <row r="553" spans="17:19">
+      <c r="Q553" s="6"/>
+      <c r="R553" s="6"/>
+      <c r="S553" s="6"/>
+    </row>
+    <row r="554" spans="17:19">
+      <c r="Q554" s="6"/>
+      <c r="R554" s="6"/>
+      <c r="S554" s="6"/>
+    </row>
+    <row r="555" spans="17:19">
+      <c r="Q555" s="6"/>
+      <c r="R555" s="6"/>
+      <c r="S555" s="6"/>
+    </row>
+    <row r="556" spans="17:19">
+      <c r="Q556" s="6"/>
+      <c r="R556" s="6"/>
+      <c r="S556" s="6"/>
+    </row>
+    <row r="557" spans="17:19">
+      <c r="Q557" s="6"/>
+      <c r="R557" s="6"/>
+      <c r="S557" s="6"/>
+    </row>
+    <row r="558" spans="17:19">
+      <c r="Q558" s="6"/>
+      <c r="R558" s="6"/>
+      <c r="S558" s="6"/>
+    </row>
+    <row r="559" spans="17:19">
+      <c r="Q559" s="6"/>
+      <c r="R559" s="6"/>
+      <c r="S559" s="6"/>
+    </row>
+    <row r="560" spans="17:19">
+      <c r="Q560" s="6"/>
+      <c r="R560" s="6"/>
+      <c r="S560" s="6"/>
+    </row>
+    <row r="561" spans="17:19">
+      <c r="Q561" s="6"/>
+      <c r="R561" s="6"/>
+      <c r="S561" s="6"/>
+    </row>
+    <row r="562" spans="17:19">
+      <c r="Q562" s="6"/>
+      <c r="R562" s="6"/>
+      <c r="S562" s="6"/>
+    </row>
+    <row r="563" spans="17:19">
+      <c r="Q563" s="6"/>
+      <c r="R563" s="6"/>
+      <c r="S563" s="6"/>
+    </row>
+    <row r="564" spans="17:19">
+      <c r="Q564" s="6"/>
+      <c r="R564" s="6"/>
+      <c r="S564" s="6"/>
+    </row>
+    <row r="565" spans="17:19">
+      <c r="Q565" s="6"/>
+      <c r="R565" s="6"/>
+      <c r="S565" s="6"/>
+    </row>
+    <row r="566" spans="17:19">
+      <c r="Q566" s="6"/>
+      <c r="R566" s="6"/>
+      <c r="S566" s="6"/>
+    </row>
+    <row r="567" spans="17:19">
+      <c r="Q567" s="6"/>
+      <c r="R567" s="6"/>
+      <c r="S567" s="6"/>
+    </row>
+    <row r="568" spans="17:19">
+      <c r="Q568" s="6"/>
+      <c r="R568" s="6"/>
+      <c r="S568" s="6"/>
+    </row>
+    <row r="569" spans="17:19">
+      <c r="Q569" s="6"/>
+      <c r="R569" s="6"/>
+      <c r="S569" s="6"/>
+    </row>
+    <row r="570" spans="17:19">
+      <c r="Q570" s="6"/>
+      <c r="R570" s="6"/>
+      <c r="S570" s="6"/>
+    </row>
+    <row r="571" spans="17:19">
+      <c r="Q571" s="6"/>
+      <c r="R571" s="6"/>
+      <c r="S571" s="6"/>
+    </row>
+    <row r="572" spans="17:19">
+      <c r="Q572" s="6"/>
+      <c r="R572" s="6"/>
+      <c r="S572" s="6"/>
+    </row>
+    <row r="573" spans="17:19">
+      <c r="Q573" s="6"/>
+      <c r="R573" s="6"/>
+      <c r="S573" s="6"/>
+    </row>
+    <row r="574" spans="17:19">
+      <c r="Q574" s="6"/>
+      <c r="R574" s="6"/>
+      <c r="S574" s="6"/>
+    </row>
+    <row r="575" spans="17:19">
+      <c r="Q575" s="6"/>
+      <c r="R575" s="6"/>
+      <c r="S575" s="6"/>
+    </row>
+    <row r="576" spans="17:19">
+      <c r="Q576" s="6"/>
+      <c r="R576" s="6"/>
+      <c r="S576" s="6"/>
+    </row>
+    <row r="577" spans="17:19">
+      <c r="Q577" s="6"/>
+      <c r="R577" s="6"/>
+      <c r="S577" s="6"/>
+    </row>
+    <row r="578" spans="17:19">
+      <c r="Q578" s="6"/>
+      <c r="R578" s="6"/>
+      <c r="S578" s="6"/>
+    </row>
+    <row r="579" spans="17:19">
+      <c r="Q579" s="6"/>
+      <c r="R579" s="6"/>
+      <c r="S579" s="6"/>
+    </row>
+    <row r="580" spans="17:19">
+      <c r="Q580" s="6"/>
+      <c r="R580" s="6"/>
+      <c r="S580" s="6"/>
+    </row>
+    <row r="581" spans="17:19">
+      <c r="Q581" s="6"/>
+      <c r="R581" s="6"/>
+      <c r="S581" s="6"/>
+    </row>
+    <row r="582" spans="17:19">
+      <c r="Q582" s="6"/>
+      <c r="R582" s="6"/>
+      <c r="S582" s="6"/>
+    </row>
+    <row r="583" spans="17:19">
+      <c r="Q583" s="6"/>
+      <c r="R583" s="6"/>
+      <c r="S583" s="6"/>
+    </row>
+    <row r="584" spans="17:19">
+      <c r="Q584" s="6"/>
+      <c r="R584" s="6"/>
+      <c r="S584" s="6"/>
+    </row>
+    <row r="585" spans="17:19">
+      <c r="Q585" s="6"/>
+      <c r="R585" s="6"/>
+      <c r="S585" s="6"/>
+    </row>
+    <row r="586" spans="17:19">
+      <c r="Q586" s="6"/>
+      <c r="R586" s="6"/>
+      <c r="S586" s="6"/>
+    </row>
+    <row r="587" spans="17:19">
+      <c r="Q587" s="6"/>
+      <c r="R587" s="6"/>
+      <c r="S587" s="6"/>
+    </row>
+    <row r="588" spans="17:19">
+      <c r="Q588" s="6"/>
+      <c r="R588" s="6"/>
+      <c r="S588" s="6"/>
+    </row>
+    <row r="589" spans="17:19">
+      <c r="Q589" s="6"/>
+      <c r="R589" s="6"/>
+      <c r="S589" s="6"/>
+    </row>
+    <row r="590" spans="17:19">
+      <c r="Q590" s="6"/>
+      <c r="R590" s="6"/>
+      <c r="S590" s="6"/>
+    </row>
+    <row r="591" spans="17:19">
+      <c r="Q591" s="6"/>
+      <c r="R591" s="6"/>
+      <c r="S591" s="6"/>
+    </row>
+    <row r="592" spans="17:19">
+      <c r="Q592" s="6"/>
+      <c r="R592" s="6"/>
+      <c r="S592" s="6"/>
+    </row>
+    <row r="593" spans="17:19">
+      <c r="Q593" s="6"/>
+      <c r="R593" s="6"/>
+      <c r="S593" s="6"/>
+    </row>
+    <row r="594" spans="17:19">
+      <c r="Q594" s="6"/>
+      <c r="R594" s="6"/>
+      <c r="S594" s="6"/>
+    </row>
+    <row r="595" spans="17:19">
+      <c r="Q595" s="6"/>
+      <c r="R595" s="6"/>
+      <c r="S595" s="6"/>
+    </row>
+    <row r="596" spans="17:19">
+      <c r="Q596" s="6"/>
+      <c r="R596" s="6"/>
+      <c r="S596" s="6"/>
+    </row>
+    <row r="597" spans="17:19">
+      <c r="Q597" s="6"/>
+      <c r="R597" s="6"/>
+      <c r="S597" s="6"/>
+    </row>
+    <row r="598" spans="17:19">
+      <c r="Q598" s="6"/>
+      <c r="R598" s="6"/>
+      <c r="S598" s="6"/>
+    </row>
+    <row r="599" spans="17:19">
+      <c r="Q599" s="6"/>
+      <c r="R599" s="6"/>
+      <c r="S599" s="6"/>
+    </row>
+    <row r="600" spans="17:19">
+      <c r="Q600" s="6"/>
+      <c r="R600" s="6"/>
+      <c r="S600" s="6"/>
+    </row>
+    <row r="601" spans="17:19">
+      <c r="Q601" s="6"/>
+      <c r="R601" s="6"/>
+      <c r="S601" s="6"/>
+    </row>
+    <row r="602" spans="17:19">
+      <c r="Q602" s="6"/>
+      <c r="R602" s="6"/>
+      <c r="S602" s="6"/>
+    </row>
+    <row r="603" spans="17:19">
+      <c r="Q603" s="6"/>
+      <c r="R603" s="6"/>
+      <c r="S603" s="6"/>
+    </row>
+    <row r="604" spans="17:19">
+      <c r="Q604" s="6"/>
+      <c r="R604" s="6"/>
+      <c r="S604" s="6"/>
+    </row>
+    <row r="605" spans="17:19">
+      <c r="Q605" s="6"/>
+      <c r="R605" s="6"/>
+      <c r="S605" s="6"/>
+    </row>
+    <row r="606" spans="17:19">
+      <c r="Q606" s="6"/>
+      <c r="R606" s="6"/>
+      <c r="S606" s="6"/>
+    </row>
+    <row r="607" spans="17:19">
+      <c r="Q607" s="6"/>
+      <c r="R607" s="6"/>
+      <c r="S607" s="6"/>
+    </row>
+    <row r="608" spans="17:19">
+      <c r="Q608" s="6"/>
+      <c r="R608" s="6"/>
+      <c r="S608" s="6"/>
+    </row>
+    <row r="609" spans="17:19">
+      <c r="Q609" s="6"/>
+      <c r="R609" s="6"/>
+      <c r="S609" s="6"/>
+    </row>
+    <row r="610" spans="17:19">
+      <c r="Q610" s="6"/>
+      <c r="R610" s="6"/>
+      <c r="S610" s="6"/>
+    </row>
+    <row r="611" spans="17:19">
+      <c r="Q611" s="6"/>
+      <c r="R611" s="6"/>
+      <c r="S611" s="6"/>
+    </row>
+    <row r="612" spans="17:19">
+      <c r="Q612" s="6"/>
+      <c r="R612" s="6"/>
+      <c r="S612" s="6"/>
+    </row>
+    <row r="613" spans="17:19">
+      <c r="Q613" s="6"/>
+      <c r="R613" s="6"/>
+      <c r="S613" s="6"/>
+    </row>
+    <row r="614" spans="17:19">
+      <c r="Q614" s="6"/>
+      <c r="R614" s="6"/>
+      <c r="S614" s="6"/>
+    </row>
+    <row r="615" spans="17:19">
+      <c r="Q615" s="6"/>
+      <c r="R615" s="6"/>
+      <c r="S615" s="6"/>
+    </row>
+    <row r="616" spans="17:19">
+      <c r="Q616" s="6"/>
+      <c r="R616" s="6"/>
+      <c r="S616" s="6"/>
+    </row>
+    <row r="617" spans="17:19">
+      <c r="Q617" s="6"/>
+      <c r="R617" s="6"/>
+      <c r="S617" s="6"/>
+    </row>
+    <row r="618" spans="17:19">
+      <c r="Q618" s="6"/>
+      <c r="R618" s="6"/>
+      <c r="S618" s="6"/>
+    </row>
+    <row r="619" spans="17:19">
+      <c r="Q619" s="6"/>
+      <c r="R619" s="6"/>
+      <c r="S619" s="6"/>
+    </row>
+    <row r="620" spans="17:19">
+      <c r="Q620" s="6"/>
+      <c r="R620" s="6"/>
+      <c r="S620" s="6"/>
+    </row>
+    <row r="621" spans="17:19">
+      <c r="Q621" s="6"/>
+      <c r="R621" s="6"/>
+      <c r="S621" s="6"/>
+    </row>
+    <row r="622" spans="17:19">
+      <c r="Q622" s="6"/>
+      <c r="R622" s="6"/>
+      <c r="S622" s="6"/>
+    </row>
+    <row r="623" spans="17:19">
+      <c r="Q623" s="6"/>
+      <c r="R623" s="6"/>
+      <c r="S623" s="6"/>
+    </row>
+    <row r="624" spans="17:19">
+      <c r="Q624" s="6"/>
+      <c r="R624" s="6"/>
+      <c r="S624" s="6"/>
+    </row>
+    <row r="625" spans="17:19">
+      <c r="Q625" s="6"/>
+      <c r="R625" s="6"/>
+      <c r="S625" s="6"/>
+    </row>
+    <row r="626" spans="17:19">
+      <c r="Q626" s="6"/>
+      <c r="R626" s="6"/>
+      <c r="S626" s="6"/>
+    </row>
+    <row r="627" spans="17:19">
+      <c r="Q627" s="6"/>
+      <c r="R627" s="6"/>
+      <c r="S627" s="6"/>
+    </row>
+    <row r="628" spans="17:19">
+      <c r="Q628" s="6"/>
+      <c r="R628" s="6"/>
+      <c r="S628" s="6"/>
+    </row>
+    <row r="629" spans="17:19">
+      <c r="Q629" s="6"/>
+      <c r="R629" s="6"/>
+      <c r="S629" s="6"/>
+    </row>
+    <row r="630" spans="17:19">
+      <c r="Q630" s="6"/>
+      <c r="R630" s="6"/>
+      <c r="S630" s="6"/>
+    </row>
+    <row r="631" spans="17:19">
+      <c r="Q631" s="6"/>
+      <c r="R631" s="6"/>
+      <c r="S631" s="6"/>
+    </row>
+    <row r="632" spans="17:19">
+      <c r="Q632" s="6"/>
+      <c r="R632" s="6"/>
+      <c r="S632" s="6"/>
+    </row>
+    <row r="633" spans="17:19">
+      <c r="Q633" s="6"/>
+      <c r="R633" s="6"/>
+      <c r="S633" s="6"/>
+    </row>
+    <row r="634" spans="17:19">
+      <c r="Q634" s="6"/>
+      <c r="R634" s="6"/>
+      <c r="S634" s="6"/>
+    </row>
+    <row r="635" spans="17:19">
+      <c r="Q635" s="6"/>
+      <c r="R635" s="6"/>
+      <c r="S635" s="6"/>
+    </row>
+    <row r="636" spans="17:19">
+      <c r="Q636" s="6"/>
+      <c r="R636" s="6"/>
+      <c r="S636" s="6"/>
+    </row>
+    <row r="637" spans="17:19">
+      <c r="Q637" s="6"/>
+      <c r="R637" s="6"/>
+      <c r="S637" s="6"/>
+    </row>
+    <row r="638" spans="17:19">
+      <c r="Q638" s="6"/>
+      <c r="R638" s="6"/>
+      <c r="S638" s="6"/>
+    </row>
+    <row r="639" spans="17:19">
+      <c r="Q639" s="6"/>
+      <c r="R639" s="6"/>
+      <c r="S639" s="6"/>
+    </row>
+    <row r="640" spans="17:19">
+      <c r="Q640" s="6"/>
+      <c r="R640" s="6"/>
+      <c r="S640" s="6"/>
+    </row>
+    <row r="641" spans="17:19">
+      <c r="Q641" s="6"/>
+      <c r="R641" s="6"/>
+      <c r="S641" s="6"/>
+    </row>
+    <row r="642" spans="17:19">
+      <c r="Q642" s="6"/>
+      <c r="R642" s="6"/>
+      <c r="S642" s="6"/>
+    </row>
+    <row r="643" spans="17:19">
+      <c r="Q643" s="6"/>
+      <c r="R643" s="6"/>
+      <c r="S643" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:P1" xr:uid="{BEEEE0E7-8791-4CC6-B23A-AAB276F68531}"/>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:O1048576 M2:M59" xr:uid="{FC76C5EB-0027-4C81-9F77-08421AE0CD39}">
+  <dataValidations count="1">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:O1048576 I2:I3 M4:M59 K2:K3" xr:uid="{FC76C5EB-0027-4C81-9F77-08421AE0CD39}">
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{7E4BE943-0E18-5941-8032-88EB3AD0BFB7}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D522A895-47E5-2E43-AA91-05542E59E31D}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{81517EF9-E86F-BE42-AC0B-803D1BCD4FE4}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{4599D42F-8255-BC4C-ADAE-9151583F2833}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3029,81 +6114,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="13" thickBot="1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,2033 +6212,2033 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>522</v>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
+        <v>515</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="13" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="13" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="13" t="s">
+    <row r="15" spans="1:4">
+      <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="13" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="13" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="13" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="13" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="13" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="13" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="13" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="13" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="13" t="s">
+    <row r="24" spans="3:4">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="13" t="s">
+    <row r="25" spans="3:4">
+      <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="13" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="13" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="13" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="13" t="s">
+    <row r="29" spans="3:4">
+      <c r="C29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="13" t="s">
+    <row r="30" spans="3:4">
+      <c r="C30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="13" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D31" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="13" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D32" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="13" t="s">
+    <row r="33" spans="3:4">
+      <c r="C33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D33" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="13" t="s">
+    <row r="34" spans="3:4">
+      <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D34" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="13" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D35" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="13" t="s">
+    <row r="36" spans="3:4">
+      <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D36" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="13" t="s">
+    <row r="37" spans="3:4">
+      <c r="C37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D37" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="13" t="s">
+    <row r="38" spans="3:4">
+      <c r="C38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="13" t="s">
+    <row r="39" spans="3:4">
+      <c r="C39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D39" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="13" t="s">
+    <row r="40" spans="3:4">
+      <c r="C40" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D40" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="13" t="s">
+    <row r="41" spans="3:4">
+      <c r="C41" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D41" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="13" t="s">
+    <row r="42" spans="3:4">
+      <c r="C42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D42" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="13" t="s">
+    <row r="43" spans="3:4">
+      <c r="C43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D43" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="13" t="s">
+    <row r="44" spans="3:4">
+      <c r="C44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D44" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="13" t="s">
+    <row r="45" spans="3:4">
+      <c r="C45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D45" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="13" t="s">
+    <row r="46" spans="3:4">
+      <c r="C46" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D46" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="13" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D47" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="13" t="s">
+    <row r="48" spans="3:4">
+      <c r="C48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D48" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="13" t="s">
+    <row r="49" spans="3:4">
+      <c r="C49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D49" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="13" t="s">
+    <row r="50" spans="3:4">
+      <c r="C50" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D50" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="13" t="s">
+    <row r="51" spans="3:4">
+      <c r="C51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D51" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="13" t="s">
+    <row r="52" spans="3:4">
+      <c r="C52" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D52" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="13" t="s">
+    <row r="53" spans="3:4">
+      <c r="C53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D53" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="13" t="s">
+    <row r="54" spans="3:4">
+      <c r="C54" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D54" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="13" t="s">
+    <row r="55" spans="3:4">
+      <c r="C55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D55" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="13" t="s">
+    <row r="56" spans="3:4">
+      <c r="C56" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D56" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="13" t="s">
+    <row r="57" spans="3:4">
+      <c r="C57" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D57" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="13" t="s">
+    <row r="58" spans="3:4">
+      <c r="C58" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D58" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="13" t="s">
+    <row r="59" spans="3:4">
+      <c r="C59" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D59" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="13" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D60" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="13" t="s">
+    <row r="61" spans="3:4">
+      <c r="C61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D61" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="13" t="s">
+    <row r="62" spans="3:4">
+      <c r="C62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D62" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="13" t="s">
+    <row r="63" spans="3:4">
+      <c r="C63" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D63" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="13" t="s">
+    <row r="64" spans="3:4">
+      <c r="C64" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D64" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="13" t="s">
+    <row r="65" spans="3:4">
+      <c r="C65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D65" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="13" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D66" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="13" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D67" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="13" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D68" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="13" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D69" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="13" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D70" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="13" t="s">
+    <row r="71" spans="3:4">
+      <c r="C71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D71" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="13" t="s">
+    <row r="72" spans="3:4">
+      <c r="C72" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D72" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="13" t="s">
+    <row r="73" spans="3:4">
+      <c r="C73" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D73" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="13" t="s">
+    <row r="74" spans="3:4">
+      <c r="C74" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D74" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="13" t="s">
+    <row r="75" spans="3:4">
+      <c r="C75" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D75" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="13" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D76" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="13" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D77" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="13" t="s">
+    <row r="78" spans="3:4">
+      <c r="C78" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D78" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="13" t="s">
+    <row r="79" spans="3:4">
+      <c r="C79" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D79" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="13" t="s">
+    <row r="80" spans="3:4">
+      <c r="C80" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="13" t="s">
+    <row r="81" spans="3:4">
+      <c r="C81" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D81" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="13" t="s">
+    <row r="82" spans="3:4">
+      <c r="C82" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D82" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="13" t="s">
+    <row r="83" spans="3:4">
+      <c r="C83" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D83" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="13" t="s">
+    <row r="84" spans="3:4">
+      <c r="C84" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D84" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="13" t="s">
+    <row r="85" spans="3:4">
+      <c r="C85" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D85" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="13" t="s">
+    <row r="86" spans="3:4">
+      <c r="C86" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D86" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="13" t="s">
+    <row r="87" spans="3:4">
+      <c r="C87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D87" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="13" t="s">
+    <row r="88" spans="3:4">
+      <c r="C88" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D88" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="13" t="s">
+    <row r="89" spans="3:4">
+      <c r="C89" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D89" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="13" t="s">
+    <row r="90" spans="3:4">
+      <c r="C90" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D90" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="13" t="s">
+    <row r="91" spans="3:4">
+      <c r="C91" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D91" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="13" t="s">
+    <row r="92" spans="3:4">
+      <c r="C92" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D92" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="13" t="s">
+    <row r="93" spans="3:4">
+      <c r="C93" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D93" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="13" t="s">
+    <row r="94" spans="3:4">
+      <c r="C94" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D94" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="13" t="s">
+    <row r="95" spans="3:4">
+      <c r="C95" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D95" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="13" t="s">
+    <row r="96" spans="3:4">
+      <c r="C96" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D96" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="13" t="s">
+    <row r="97" spans="3:4">
+      <c r="C97" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D97" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="13" t="s">
+    <row r="98" spans="3:4">
+      <c r="C98" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D98" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="13" t="s">
+    <row r="99" spans="3:4">
+      <c r="C99" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D99" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="13" t="s">
+    <row r="100" spans="3:4">
+      <c r="C100" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D100" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="13" t="s">
+    <row r="101" spans="3:4">
+      <c r="C101" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D101" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="13" t="s">
+    <row r="102" spans="3:4">
+      <c r="C102" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D102" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="13" t="s">
+    <row r="103" spans="3:4">
+      <c r="C103" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D103" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="13" t="s">
+    <row r="104" spans="3:4">
+      <c r="C104" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D104" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="13" t="s">
+    <row r="105" spans="3:4">
+      <c r="C105" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D105" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="13" t="s">
+    <row r="106" spans="3:4">
+      <c r="C106" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D106" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="13" t="s">
+    <row r="107" spans="3:4">
+      <c r="C107" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D107" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="13" t="s">
+    <row r="108" spans="3:4">
+      <c r="C108" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D108" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="13" t="s">
+    <row r="109" spans="3:4">
+      <c r="C109" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D109" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="13" t="s">
+    <row r="110" spans="3:4">
+      <c r="C110" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D110" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="13" t="s">
+    <row r="111" spans="3:4">
+      <c r="C111" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D111" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="13" t="s">
+    <row r="112" spans="3:4">
+      <c r="C112" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D112" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="13" t="s">
+    <row r="113" spans="3:4">
+      <c r="C113" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D113" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="13" t="s">
+    <row r="114" spans="3:4">
+      <c r="C114" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D114" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="13" t="s">
+    <row r="115" spans="3:4">
+      <c r="C115" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D115" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="13" t="s">
+    <row r="116" spans="3:4">
+      <c r="C116" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D116" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="13" t="s">
+    <row r="117" spans="3:4">
+      <c r="C117" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D117" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="13" t="s">
+    <row r="118" spans="3:4">
+      <c r="C118" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D118" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="13" t="s">
+    <row r="119" spans="3:4">
+      <c r="C119" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D119" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="13" t="s">
+    <row r="120" spans="3:4">
+      <c r="C120" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D120" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="13" t="s">
+    <row r="121" spans="3:4">
+      <c r="C121" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D121" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="13" t="s">
+    <row r="122" spans="3:4">
+      <c r="C122" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D122" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="13" t="s">
+    <row r="123" spans="3:4">
+      <c r="C123" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D123" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="13" t="s">
+    <row r="124" spans="3:4">
+      <c r="C124" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D124" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="13" t="s">
+    <row r="125" spans="3:4">
+      <c r="C125" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D125" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="13" t="s">
+    <row r="126" spans="3:4">
+      <c r="C126" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D126" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="13" t="s">
+    <row r="127" spans="3:4">
+      <c r="C127" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D127" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="13" t="s">
+    <row r="128" spans="3:4">
+      <c r="C128" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D128" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="13" t="s">
+    <row r="129" spans="3:4">
+      <c r="C129" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D129" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="13" t="s">
+    <row r="130" spans="3:4">
+      <c r="C130" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D130" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="13" t="s">
+    <row r="131" spans="3:4">
+      <c r="C131" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D131" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="13" t="s">
+    <row r="132" spans="3:4">
+      <c r="C132" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D132" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="13" t="s">
+    <row r="133" spans="3:4">
+      <c r="C133" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D133" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="13" t="s">
+    <row r="134" spans="3:4">
+      <c r="C134" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D134" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="13" t="s">
+    <row r="135" spans="3:4">
+      <c r="C135" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D135" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="13" t="s">
+    <row r="136" spans="3:4">
+      <c r="C136" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D136" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="13" t="s">
+    <row r="137" spans="3:4">
+      <c r="C137" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D137" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="13" t="s">
+    <row r="138" spans="3:4">
+      <c r="C138" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D138" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="13" t="s">
+    <row r="139" spans="3:4">
+      <c r="C139" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D139" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="13" t="s">
+    <row r="140" spans="3:4">
+      <c r="C140" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D140" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="13" t="s">
+    <row r="141" spans="3:4">
+      <c r="C141" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D141" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="13" t="s">
+    <row r="142" spans="3:4">
+      <c r="C142" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D142" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="13" t="s">
+    <row r="143" spans="3:4">
+      <c r="C143" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D143" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="13" t="s">
+    <row r="144" spans="3:4">
+      <c r="C144" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D144" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="13" t="s">
+    <row r="145" spans="3:4">
+      <c r="C145" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D145" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="13" t="s">
+    <row r="146" spans="3:4">
+      <c r="C146" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D146" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="13" t="s">
+    <row r="147" spans="3:4">
+      <c r="C147" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D147" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="13" t="s">
+    <row r="148" spans="3:4">
+      <c r="C148" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D148" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="13" t="s">
+    <row r="149" spans="3:4">
+      <c r="C149" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D149" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="13" t="s">
+    <row r="150" spans="3:4">
+      <c r="C150" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D150" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="13" t="s">
+    <row r="151" spans="3:4">
+      <c r="C151" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D151" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="3:4">
-      <c r="C148" s="13" t="s">
+    <row r="152" spans="3:4">
+      <c r="C152" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D152" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="3:4">
-      <c r="C149" s="13" t="s">
+    <row r="153" spans="3:4">
+      <c r="C153" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D153" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="13" t="s">
+    <row r="154" spans="3:4">
+      <c r="C154" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D154" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="13" t="s">
+    <row r="155" spans="3:4">
+      <c r="C155" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D155" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="3:4">
-      <c r="C152" s="13" t="s">
+    <row r="156" spans="3:4">
+      <c r="C156" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D156" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="3:4">
-      <c r="C153" s="13" t="s">
+    <row r="157" spans="3:4">
+      <c r="C157" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D157" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="3:4">
-      <c r="C154" s="13" t="s">
+    <row r="158" spans="3:4">
+      <c r="C158" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D158" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="3:4">
-      <c r="C155" s="13" t="s">
+    <row r="159" spans="3:4">
+      <c r="C159" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D159" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="13" t="s">
+    <row r="160" spans="3:4">
+      <c r="C160" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D160" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="13" t="s">
+    <row r="161" spans="3:4">
+      <c r="C161" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D161" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="158" spans="3:4">
-      <c r="C158" s="13" t="s">
+    <row r="162" spans="3:4">
+      <c r="C162" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D162" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="3:4">
-      <c r="C159" s="13" t="s">
+    <row r="163" spans="3:4">
+      <c r="C163" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D163" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="3:4">
-      <c r="C160" s="13" t="s">
+    <row r="164" spans="3:4">
+      <c r="C164" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D164" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="13" t="s">
+    <row r="165" spans="3:4">
+      <c r="C165" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D165" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="13" t="s">
+    <row r="166" spans="3:4">
+      <c r="C166" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D166" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="13" t="s">
+    <row r="167" spans="3:4">
+      <c r="C167" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D167" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="13" t="s">
+    <row r="168" spans="3:4">
+      <c r="C168" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D168" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="13" t="s">
+    <row r="169" spans="3:4">
+      <c r="C169" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D169" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="13" t="s">
+    <row r="170" spans="3:4">
+      <c r="C170" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D170" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="13" t="s">
+    <row r="171" spans="3:4">
+      <c r="C171" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D171" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="3:4">
-      <c r="C168" s="13" t="s">
+    <row r="172" spans="3:4">
+      <c r="C172" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D172" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="3:4">
-      <c r="C169" s="13" t="s">
+    <row r="173" spans="3:4">
+      <c r="C173" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D173" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="13" t="s">
+    <row r="174" spans="3:4">
+      <c r="C174" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D174" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="13" t="s">
+    <row r="175" spans="3:4">
+      <c r="C175" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D175" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="13" t="s">
+    <row r="176" spans="3:4">
+      <c r="C176" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D176" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="13" t="s">
+    <row r="177" spans="3:4">
+      <c r="C177" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D177" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="174" spans="3:4">
-      <c r="C174" s="13" t="s">
+    <row r="178" spans="3:4">
+      <c r="C178" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D178" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="3:4">
-      <c r="C175" s="13" t="s">
+    <row r="179" spans="3:4">
+      <c r="C179" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D179" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="3:4">
-      <c r="C176" s="13" t="s">
+    <row r="180" spans="3:4">
+      <c r="C180" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D180" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="3:4">
-      <c r="C177" s="13" t="s">
+    <row r="181" spans="3:4">
+      <c r="C181" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D181" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="13" t="s">
+    <row r="182" spans="3:4">
+      <c r="C182" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D182" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="3:4">
-      <c r="C179" s="13" t="s">
+    <row r="183" spans="3:4">
+      <c r="C183" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D183" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="3:4">
-      <c r="C180" s="13" t="s">
+    <row r="184" spans="3:4">
+      <c r="C184" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D184" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="181" spans="3:4">
-      <c r="C181" s="13" t="s">
+    <row r="185" spans="3:4">
+      <c r="C185" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D185" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="182" spans="3:4">
-      <c r="C182" s="13" t="s">
+    <row r="186" spans="3:4">
+      <c r="C186" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D186" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="183" spans="3:4">
-      <c r="C183" s="13" t="s">
+    <row r="187" spans="3:4">
+      <c r="C187" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D187" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="3:4">
-      <c r="C184" s="13" t="s">
+    <row r="188" spans="3:4">
+      <c r="C188" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D188" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="3:4">
-      <c r="C185" s="13" t="s">
+    <row r="189" spans="3:4">
+      <c r="C189" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D189" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="186" spans="3:4">
-      <c r="C186" s="13" t="s">
+    <row r="190" spans="3:4">
+      <c r="C190" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D190" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="3:4">
-      <c r="C187" s="13" t="s">
+    <row r="191" spans="3:4">
+      <c r="C191" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D191" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="3:4">
-      <c r="C188" s="13" t="s">
+    <row r="192" spans="3:4">
+      <c r="C192" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D192" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="3:4">
-      <c r="C189" s="13" t="s">
+    <row r="193" spans="3:4">
+      <c r="C193" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D193" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="3:4">
-      <c r="C190" s="13" t="s">
+    <row r="194" spans="3:4">
+      <c r="C194" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D194" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="3:4">
-      <c r="C191" s="13" t="s">
+    <row r="195" spans="3:4">
+      <c r="C195" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D195" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="3:4">
-      <c r="C192" s="13" t="s">
+    <row r="196" spans="3:4">
+      <c r="C196" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D196" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="193" spans="3:4">
-      <c r="C193" s="13" t="s">
+    <row r="197" spans="3:4">
+      <c r="C197" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D197" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="3:4">
-      <c r="C194" s="13" t="s">
+    <row r="198" spans="3:4">
+      <c r="C198" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D198" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="195" spans="3:4">
-      <c r="C195" s="13" t="s">
+    <row r="199" spans="3:4">
+      <c r="C199" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D199" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="3:4">
-      <c r="C196" s="13" t="s">
+    <row r="200" spans="3:4">
+      <c r="C200" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D200" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="3:4">
-      <c r="C197" s="13" t="s">
+    <row r="201" spans="3:4">
+      <c r="C201" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D201" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="3:4">
-      <c r="C198" s="13" t="s">
+    <row r="202" spans="3:4">
+      <c r="C202" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D202" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="3:4">
-      <c r="C199" s="13" t="s">
+    <row r="203" spans="3:4">
+      <c r="C203" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D203" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="200" spans="3:4">
-      <c r="C200" s="13" t="s">
+    <row r="204" spans="3:4">
+      <c r="C204" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D204" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="3:4">
-      <c r="C201" s="13" t="s">
+    <row r="205" spans="3:4">
+      <c r="C205" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D205" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="3:4">
-      <c r="C202" s="13" t="s">
+    <row r="206" spans="3:4">
+      <c r="C206" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D206" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="203" spans="3:4">
-      <c r="C203" s="13" t="s">
+    <row r="207" spans="3:4">
+      <c r="C207" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="D207" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="3:4">
-      <c r="C204" s="13" t="s">
+    <row r="208" spans="3:4">
+      <c r="C208" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D208" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="3:4">
-      <c r="C205" s="13" t="s">
+    <row r="209" spans="3:4">
+      <c r="C209" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D209" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="206" spans="3:4">
-      <c r="C206" s="13" t="s">
+    <row r="210" spans="3:4">
+      <c r="C210" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D210" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="3:4">
-      <c r="C207" s="13" t="s">
+    <row r="211" spans="3:4">
+      <c r="C211" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D211" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="208" spans="3:4">
-      <c r="C208" s="13" t="s">
+    <row r="212" spans="3:4">
+      <c r="C212" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D212" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="209" spans="3:4">
-      <c r="C209" s="13" t="s">
+    <row r="213" spans="3:4">
+      <c r="C213" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D213" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="210" spans="3:4">
-      <c r="C210" s="13" t="s">
+    <row r="214" spans="3:4">
+      <c r="C214" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D214" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="211" spans="3:4">
-      <c r="C211" s="13" t="s">
+    <row r="215" spans="3:4">
+      <c r="C215" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D215" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="212" spans="3:4">
-      <c r="C212" s="13" t="s">
+    <row r="216" spans="3:4">
+      <c r="C216" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D216" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="213" spans="3:4">
-      <c r="C213" s="13" t="s">
+    <row r="217" spans="3:4">
+      <c r="C217" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D217" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="214" spans="3:4">
-      <c r="C214" s="13" t="s">
+    <row r="218" spans="3:4">
+      <c r="C218" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D218" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="215" spans="3:4">
-      <c r="C215" s="13" t="s">
+    <row r="219" spans="3:4">
+      <c r="C219" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D219" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="216" spans="3:4">
-      <c r="C216" s="13" t="s">
+    <row r="220" spans="3:4">
+      <c r="C220" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D220" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="3:4">
-      <c r="C217" s="13" t="s">
+    <row r="221" spans="3:4">
+      <c r="C221" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D221" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="218" spans="3:4">
-      <c r="C218" s="13" t="s">
+    <row r="222" spans="3:4">
+      <c r="C222" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D222" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="219" spans="3:4">
-      <c r="C219" s="13" t="s">
+    <row r="223" spans="3:4">
+      <c r="C223" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D223" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="220" spans="3:4">
-      <c r="C220" s="13" t="s">
+    <row r="224" spans="3:4">
+      <c r="C224" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D224" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="3:4">
-      <c r="C221" s="13" t="s">
+    <row r="225" spans="3:4">
+      <c r="C225" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D225" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="222" spans="3:4">
-      <c r="C222" s="13" t="s">
+    <row r="226" spans="3:4">
+      <c r="C226" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D226" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="223" spans="3:4">
-      <c r="C223" s="13" t="s">
+    <row r="227" spans="3:4">
+      <c r="C227" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D227" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="224" spans="3:4">
-      <c r="C224" s="13" t="s">
+    <row r="228" spans="3:4">
+      <c r="C228" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D228" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="225" spans="3:4">
-      <c r="C225" s="13" t="s">
+    <row r="229" spans="3:4">
+      <c r="C229" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D229" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="226" spans="3:4">
-      <c r="C226" s="13" t="s">
+    <row r="230" spans="3:4">
+      <c r="C230" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D230" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="227" spans="3:4">
-      <c r="C227" s="13" t="s">
+    <row r="231" spans="3:4">
+      <c r="C231" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D231" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="3:4">
-      <c r="C228" s="13" t="s">
+    <row r="232" spans="3:4">
+      <c r="C232" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D232" s="9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="3:4">
-      <c r="C229" s="13" t="s">
+    <row r="233" spans="3:4">
+      <c r="C233" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D233" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="230" spans="3:4">
-      <c r="C230" s="13" t="s">
+    <row r="234" spans="3:4">
+      <c r="C234" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D234" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="231" spans="3:4">
-      <c r="C231" s="13" t="s">
+    <row r="235" spans="3:4">
+      <c r="C235" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D235" s="9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="232" spans="3:4">
-      <c r="C232" s="13" t="s">
+    <row r="236" spans="3:4">
+      <c r="C236" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D236" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="233" spans="3:4">
-      <c r="C233" s="13" t="s">
+    <row r="237" spans="3:4">
+      <c r="C237" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D237" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="234" spans="3:4">
-      <c r="C234" s="13" t="s">
+    <row r="238" spans="3:4">
+      <c r="C238" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D234" s="14" t="s">
+      <c r="D238" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="235" spans="3:4">
-      <c r="C235" s="13" t="s">
+    <row r="239" spans="3:4">
+      <c r="C239" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D239" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="236" spans="3:4">
-      <c r="C236" s="13" t="s">
+    <row r="240" spans="3:4">
+      <c r="C240" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D240" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4">
+      <c r="C241" s="8" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="237" spans="3:4">
-      <c r="C237" s="13" t="s">
+      <c r="D241" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D237" s="14" t="s">
+    </row>
+    <row r="242" spans="3:4">
+      <c r="C242" s="8" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="238" spans="3:4">
-      <c r="C238" s="13" t="s">
+      <c r="D242" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D238" s="14" t="s">
+    </row>
+    <row r="243" spans="3:4">
+      <c r="C243" s="8" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="239" spans="3:4">
-      <c r="C239" s="13" t="s">
+      <c r="D243" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D239" s="14" t="s">
+    </row>
+    <row r="244" spans="3:4">
+      <c r="C244" s="8" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="240" spans="3:4">
-      <c r="C240" s="13" t="s">
+      <c r="D244" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D240" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4">
-      <c r="C241" s="13" t="s">
+    </row>
+    <row r="245" spans="3:4">
+      <c r="C245" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D245" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="242" spans="3:4">
-      <c r="C242" s="13" t="s">
+    <row r="246" spans="3:4">
+      <c r="C246" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D246" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="243" spans="3:4">
-      <c r="C243" s="13" t="s">
+    <row r="247" spans="3:4">
+      <c r="C247" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D247" s="9" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="244" spans="3:4">
-      <c r="C244" s="13" t="s">
+    <row r="248" spans="3:4">
+      <c r="C248" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D248" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="245" spans="3:4">
-      <c r="C245" s="13" t="s">
+    <row r="249" spans="3:4">
+      <c r="C249" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="D249" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="246" spans="3:4">
-      <c r="C246" s="13" t="s">
+    <row r="250" spans="3:4">
+      <c r="C250" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D250" s="11" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="247" spans="3:4">
-      <c r="C247" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="248" spans="3:4">
-      <c r="C248" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="249" spans="3:4">
-      <c r="C249" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="250" spans="3:4">
-      <c r="C250" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/_Never Backup/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4F87A-6D35-5D4D-ACA3-492614C8F861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7E8EB-8CE8-CF4F-88EF-0F55A49D292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="3940" windowWidth="35840" windowHeight="19920" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19920" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Template - DO NOT EDIT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="534">
   <si>
     <t>Date ROS Contract Signed</t>
   </si>
@@ -1621,18 +1621,6 @@
     <t>BCCNM Decision Date</t>
   </si>
   <si>
-    <t>BCCNM Full License LPN</t>
-  </si>
-  <si>
-    <t>BCCNM Full License RN</t>
-  </si>
-  <si>
-    <t>BCCNM Provisional License LPN</t>
-  </si>
-  <si>
-    <t>BCCNM Provisional License RN</t>
-  </si>
-  <si>
     <t xml:space="preserve">First name </t>
   </si>
   <si>
@@ -1646,6 +1634,12 @@
   </si>
   <si>
     <t>File Name</t>
+  </si>
+  <si>
+    <t>BCCNM Full Licence RPN</t>
+  </si>
+  <si>
+    <t>BCCNM Provisional Licence RPN</t>
   </si>
 </sst>
 </file>
@@ -1946,12 +1940,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1965,6 +1953,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1988,21 +1982,21 @@
     <tableColumn id="2" xr3:uid="{FC3A8880-1945-4DDE-9E12-E4AD6545BD94}" name="Last name "/>
     <tableColumn id="3" xr3:uid="{4FEABF76-703E-4E5C-BEF5-1B8BCD8D52CA}" name="NCAS ID"/>
     <tableColumn id="4" xr3:uid="{9CFB1ADA-FA54-4BFA-9D89-60D240A017E6}" name="Email - Primary"/>
-    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Covered by Bursary" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Covered by Bursary" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{1289DA46-C6F4-4809-8F21-C820C84BD194}" name="File Name"/>
-    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="ISO Code - Education" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="ISO Code - Education" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Date ROS Contract Signed"/>
     <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Date NCAS Assessment Complete"/>
     <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="Date BCCNM Application Complete"/>
-    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="BCCNM Decision Date" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="BCCNM Decision Date" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Date BCCNM Application Complete]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="BCCNM Full License LPN" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="BCCNM Full License RN" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Full License RPN" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="BCCNM Provisional License LPN" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{B0A5DF27-4781-E549-AE55-87A740B508E6}" name="BCCNM Provisional License RN" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{FA3D4950-FEA7-A343-A9A0-B684CFDE7B7F}" name="BCCNM Provisional License RPN" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="BCCNM Full Licence LPN" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="BCCNM Full Licence RN" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Full Licence RPN" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="BCCNM Provisional Licence LPN" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{B0A5DF27-4781-E549-AE55-87A740B508E6}" name="BCCNM Provisional Licence RN" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{FA3D4950-FEA7-A343-A9A0-B684CFDE7B7F}" name="BCCNM Provisional Licence RPN" dataDxfId="1"/>
     <tableColumn id="19" xr3:uid="{FF0BDF1A-A776-B141-9A2B-C79986315763}" name="Registration Designation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2308,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
   <dimension ref="A1:S643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="M1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -2338,22 +2332,22 @@
         <v>4</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>523</v>
@@ -2371,22 +2365,22 @@
         <v>526</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>528</v>
+        <v>12</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>529</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>530</v>
+        <v>10</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>7</v>

--- a/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
+++ b/apps/web/cypress/fixtures/bccnm-ncas-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry.wang/Library/CloudStorage/OneDrive-EY/Documents/projects/jerry/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/_Never Backup/internationally-educated-nurses/apps/web/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F01FF9-0108-C946-B177-EB8369AB9AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7E8EB-8CE8-CF4F-88EF-0F55A49D292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19920" xr2:uid="{D4D11464-A1E4-4602-A7F2-C977BA426C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Template - DO NOT EDIT" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="535">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="534">
   <si>
     <t>Date ROS Contract Signed</t>
   </si>
@@ -64,21 +55,6 @@
     <t>HMBC Unique ID</t>
   </si>
   <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State/Province</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Zip/Postal Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
@@ -1633,16 +1609,37 @@
     <t>Oral72@gmail.com</t>
   </si>
   <si>
-    <t>NCAS Assessment Complete</t>
-  </si>
-  <si>
-    <t>BCCNM Application Complete</t>
-  </si>
-  <si>
-    <t>kr</t>
-  </si>
-  <si>
     <t>ISO Code - Education</t>
+  </si>
+  <si>
+    <t>Date NCAS Assessment Complete</t>
+  </si>
+  <si>
+    <t>Date BCCNM Application Complete</t>
+  </si>
+  <si>
+    <t>BCCNM Decision Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name </t>
+  </si>
+  <si>
+    <t>Email - Primary</t>
+  </si>
+  <si>
+    <t>Covered by Bursary</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>BCCNM Full Licence RPN</t>
+  </si>
+  <si>
+    <t>BCCNM Provisional Licence RPN</t>
   </si>
 </sst>
 </file>
@@ -1652,17 +1649,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="BC Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
       <name val="BC Sans"/>
       <family val="2"/>
     </font>
@@ -1685,8 +1675,34 @@
       <name val="BC Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF305496"/>
+      <name val="BC Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1711,8 +1727,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF156082"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1805,47 +1833,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF156082"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF156082"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -1867,29 +1960,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="BC Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1904,27 +1974,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}" name="Table1" displayName="Table1" ref="A1:P643" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:P643" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}" name="Table1" displayName="Table1" ref="A1:S643" totalsRowShown="0">
+  <autoFilter ref="A1:S643" xr:uid="{B9ED65BA-8964-482A-BC95-8F1CDFE6D06C}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{CDFAA216-362A-4C3B-91ED-973573FA63BE}" name="HMBC Unique ID"/>
-    <tableColumn id="16" xr3:uid="{6B1C3EF8-434B-4A70-9CC2-01868A58237A}" name="NCAS ID"/>
-    <tableColumn id="2" xr3:uid="{FC3A8880-1945-4DDE-9E12-E4AD6545BD94}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{4FEABF76-703E-4E5C-BEF5-1B8BCD8D52CA}" name="First Name"/>
-    <tableColumn id="4" xr3:uid="{9CFB1ADA-FA54-4BFA-9D89-60D240A017E6}" name="Email Address"/>
-    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Street Address" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1289DA46-C6F4-4809-8F21-C820C84BD194}" name="City"/>
-    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="State/Province" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Country"/>
-    <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Zip/Postal Code"/>
-    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="ISO Code - Education"/>
-    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="ISO Code" dataDxfId="4">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[ISO Code - Education]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{6B1C3EF8-434B-4A70-9CC2-01868A58237A}" name="First name "/>
+    <tableColumn id="2" xr3:uid="{FC3A8880-1945-4DDE-9E12-E4AD6545BD94}" name="Last name "/>
+    <tableColumn id="3" xr3:uid="{4FEABF76-703E-4E5C-BEF5-1B8BCD8D52CA}" name="NCAS ID"/>
+    <tableColumn id="4" xr3:uid="{9CFB1ADA-FA54-4BFA-9D89-60D240A017E6}" name="Email - Primary"/>
+    <tableColumn id="8" xr3:uid="{1E6F4468-8F47-4633-9414-853DC6D9C0DA}" name="Covered by Bursary" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1289DA46-C6F4-4809-8F21-C820C84BD194}" name="File Name"/>
+    <tableColumn id="9" xr3:uid="{C29B86CB-35D1-4A90-988C-B376D1F11746}" name="ISO Code - Education" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{51680233-1ACB-4042-AB01-CF531A1CA912}" name="Date ROS Contract Signed"/>
+    <tableColumn id="11" xr3:uid="{7CBE1023-D597-4113-A0E3-6BF724D0B2F5}" name="Date NCAS Assessment Complete"/>
+    <tableColumn id="14" xr3:uid="{B2EE4131-382E-447B-8582-93712B4E1CE0}" name="Date BCCNM Application Complete"/>
+    <tableColumn id="13" xr3:uid="{312FBB00-E05F-4292-8BE8-67886879CB82}" name="BCCNM Decision Date" dataDxfId="7">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Date BCCNM Application Complete]],Sheet1!C2:D250,2,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="Date ROS Contract Signed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="NCAS Assessment Complete" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Application Complete" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="Registration Designation" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A3485428-BB17-4719-9693-9A5D42422885}" name="BCCNM Full Licence LPN" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{C528BBBE-AF13-4DE4-8CB9-6A5D36322874}" name="BCCNM Full Licence RN" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{FC5EB113-2259-4AAD-B918-D66D8CDC1B70}" name="BCCNM Full Licence RPN" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{2EEE535B-18BF-4006-8377-F5D12DDCB956}" name="BCCNM Provisional Licence LPN" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{B0A5DF27-4781-E549-AE55-87A740B508E6}" name="BCCNM Provisional Licence RN" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{FA3D4950-FEA7-A343-A9A0-B684CFDE7B7F}" name="BCCNM Provisional Licence RPN" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{FF0BDF1A-A776-B141-9A2B-C79986315763}" name="Registration Designation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2227,761 +2300,3767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54943090-89AD-474D-AA31-B1A3EE9F8526}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:S643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="M1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="31.19921875" customWidth="1"/>
     <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="54.796875" customWidth="1"/>
-    <col min="6" max="6" width="54.796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="54.796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.19921875" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" style="4" customWidth="1"/>
     <col min="9" max="10" width="21.19921875" customWidth="1"/>
     <col min="11" max="11" width="33.19921875" customWidth="1"/>
     <col min="12" max="12" width="21.19921875" customWidth="1"/>
-    <col min="13" max="13" width="26" style="9" customWidth="1"/>
-    <col min="14" max="15" width="29.59765625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="32.19921875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26" style="5" customWidth="1"/>
+    <col min="14" max="15" width="29.59765625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="32.19921875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="35.19921875" customWidth="1"/>
+    <col min="18" max="18" width="43.59765625" customWidth="1"/>
+    <col min="19" max="19" width="34.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>112374</v>
       </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2" t="s">
-        <v>524</v>
-      </c>
-      <c r="K2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M2" s="9">
+        <v>518</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="5">
         <v>44593</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="K2" s="5">
+        <v>44563</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>111166</v>
       </c>
+      <c r="B3" t="s">
+        <v>518</v>
+      </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I3" t="s">
-        <v>524</v>
-      </c>
-      <c r="M3" s="9">
+        <v>521</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="I3" s="5">
         <v>44621</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="P4" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="P5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1">
+      <c r="K3" s="5">
+        <v>44594</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" s="6" customFormat="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
       <c r="G20"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="4"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" s="11" customFormat="1">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" s="6" customFormat="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="4"/>
       <c r="G21"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="4"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" s="11" customFormat="1">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" s="6" customFormat="1">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="4"/>
       <c r="G22"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="4"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" s="6" customFormat="1">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="4"/>
       <c r="G23"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="4"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" s="11" customFormat="1">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="6" customFormat="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="4"/>
       <c r="G24"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="4"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" s="11" customFormat="1">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" s="6" customFormat="1">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="4"/>
       <c r="G25"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="4"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" s="11" customFormat="1">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" s="6" customFormat="1">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" s="11" customFormat="1">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" s="6" customFormat="1">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="4"/>
       <c r="G27"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="4"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" s="11" customFormat="1">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" s="6" customFormat="1">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="4"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" s="11" customFormat="1">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" s="6" customFormat="1">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="4"/>
       <c r="G29"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="4"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" s="11" customFormat="1">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="4"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" s="11" customFormat="1">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="4"/>
       <c r="G31"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="4"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" s="11" customFormat="1">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" s="6" customFormat="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="4"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" s="11" customFormat="1">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="4"/>
       <c r="G33"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="4"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" s="11" customFormat="1">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="4"/>
       <c r="G34"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" s="11" customFormat="1">
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" s="6" customFormat="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="4"/>
       <c r="G35"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="4"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" s="11" customFormat="1">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" s="6" customFormat="1">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="4"/>
       <c r="G36"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" s="11" customFormat="1">
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" s="6" customFormat="1">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="4"/>
       <c r="G37"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="4"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" s="11" customFormat="1">
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" s="6" customFormat="1">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="4"/>
       <c r="G38"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="4"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" s="11" customFormat="1">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" s="6" customFormat="1">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="4"/>
       <c r="G39"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="4"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" s="11" customFormat="1">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" s="6" customFormat="1">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="4"/>
       <c r="G40"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="4"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" s="11" customFormat="1">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" s="6" customFormat="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="4"/>
       <c r="G41"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="4"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" s="11" customFormat="1">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="4"/>
       <c r="G42"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="4"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" s="11" customFormat="1">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="4"/>
       <c r="G43"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="4"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" s="11" customFormat="1">
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="4"/>
       <c r="G44"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="4"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" s="11" customFormat="1">
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="4"/>
       <c r="G45"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="4"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" s="11" customFormat="1">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="4"/>
       <c r="G46"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="4"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" s="11" customFormat="1">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="4"/>
       <c r="G47"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="4"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" s="11" customFormat="1">
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" s="6" customFormat="1">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="4"/>
       <c r="G48"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="4"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" s="11" customFormat="1">
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" s="6" customFormat="1">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="4"/>
       <c r="G49"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="4"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" s="11" customFormat="1">
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="4"/>
       <c r="G50"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="4"/>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" s="11" customFormat="1">
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" s="6" customFormat="1">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="4"/>
       <c r="G51"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="4"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:13" s="11" customFormat="1">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" s="6" customFormat="1">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="4"/>
       <c r="G52"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="4"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" s="11" customFormat="1">
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="4"/>
       <c r="G53"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="4"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="1:13" s="11" customFormat="1">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" s="6" customFormat="1">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="4"/>
       <c r="G54"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="4"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" s="11" customFormat="1">
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="4"/>
       <c r="G55"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="4"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="1:13" s="11" customFormat="1">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" s="6" customFormat="1">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="4"/>
       <c r="G56"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="4"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="1:13" s="11" customFormat="1">
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" s="6" customFormat="1">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="4"/>
       <c r="G57"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="4"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="1:13" s="11" customFormat="1">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" s="6" customFormat="1">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="4"/>
       <c r="G58"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="4"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="1:13" s="11" customFormat="1">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="4"/>
       <c r="G59"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="4"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="17:19">
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+    </row>
+    <row r="66" spans="17:19">
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="17:19">
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+    </row>
+    <row r="68" spans="17:19">
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+    </row>
+    <row r="69" spans="17:19">
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+    </row>
+    <row r="70" spans="17:19">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+    </row>
+    <row r="71" spans="17:19">
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+    </row>
+    <row r="72" spans="17:19">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+    </row>
+    <row r="73" spans="17:19">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+    </row>
+    <row r="74" spans="17:19">
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+    </row>
+    <row r="75" spans="17:19">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+    </row>
+    <row r="76" spans="17:19">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+    </row>
+    <row r="77" spans="17:19">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+    </row>
+    <row r="78" spans="17:19">
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+    </row>
+    <row r="79" spans="17:19">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+    </row>
+    <row r="80" spans="17:19">
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+    </row>
+    <row r="81" spans="17:19">
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+    </row>
+    <row r="82" spans="17:19">
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+    </row>
+    <row r="83" spans="17:19">
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+    </row>
+    <row r="84" spans="17:19">
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+    </row>
+    <row r="85" spans="17:19">
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="17:19">
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+    </row>
+    <row r="87" spans="17:19">
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+    </row>
+    <row r="88" spans="17:19">
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+    </row>
+    <row r="89" spans="17:19">
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+    </row>
+    <row r="90" spans="17:19">
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+    </row>
+    <row r="91" spans="17:19">
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+    </row>
+    <row r="92" spans="17:19">
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+    </row>
+    <row r="93" spans="17:19">
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+    </row>
+    <row r="94" spans="17:19">
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="17:19">
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+    </row>
+    <row r="96" spans="17:19">
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+    </row>
+    <row r="97" spans="17:19">
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+    </row>
+    <row r="98" spans="17:19">
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+    </row>
+    <row r="99" spans="17:19">
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+    </row>
+    <row r="100" spans="17:19">
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+    </row>
+    <row r="101" spans="17:19">
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+    </row>
+    <row r="102" spans="17:19">
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+    </row>
+    <row r="103" spans="17:19">
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+    </row>
+    <row r="104" spans="17:19">
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+    </row>
+    <row r="105" spans="17:19">
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+    </row>
+    <row r="106" spans="17:19">
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+    </row>
+    <row r="107" spans="17:19">
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+    </row>
+    <row r="108" spans="17:19">
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+    </row>
+    <row r="109" spans="17:19">
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+    </row>
+    <row r="110" spans="17:19">
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+    </row>
+    <row r="111" spans="17:19">
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+    </row>
+    <row r="112" spans="17:19">
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+    </row>
+    <row r="113" spans="17:19">
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+    </row>
+    <row r="114" spans="17:19">
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+    </row>
+    <row r="115" spans="17:19">
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+    </row>
+    <row r="116" spans="17:19">
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+    </row>
+    <row r="117" spans="17:19">
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+    </row>
+    <row r="118" spans="17:19">
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+    </row>
+    <row r="119" spans="17:19">
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+    </row>
+    <row r="120" spans="17:19">
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+    </row>
+    <row r="121" spans="17:19">
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+    </row>
+    <row r="122" spans="17:19">
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+    </row>
+    <row r="123" spans="17:19">
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+    </row>
+    <row r="124" spans="17:19">
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+    </row>
+    <row r="125" spans="17:19">
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+    </row>
+    <row r="126" spans="17:19">
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+    </row>
+    <row r="127" spans="17:19">
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+    </row>
+    <row r="128" spans="17:19">
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+    </row>
+    <row r="129" spans="17:19">
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+    </row>
+    <row r="130" spans="17:19">
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+    </row>
+    <row r="131" spans="17:19">
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+    </row>
+    <row r="132" spans="17:19">
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+    </row>
+    <row r="133" spans="17:19">
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+    </row>
+    <row r="134" spans="17:19">
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+    </row>
+    <row r="135" spans="17:19">
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+    </row>
+    <row r="136" spans="17:19">
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+    </row>
+    <row r="137" spans="17:19">
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+    </row>
+    <row r="138" spans="17:19">
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+    </row>
+    <row r="139" spans="17:19">
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+    </row>
+    <row r="140" spans="17:19">
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+    </row>
+    <row r="141" spans="17:19">
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+    </row>
+    <row r="142" spans="17:19">
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+    </row>
+    <row r="143" spans="17:19">
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+    </row>
+    <row r="144" spans="17:19">
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+    </row>
+    <row r="145" spans="17:19">
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6"/>
+    </row>
+    <row r="146" spans="17:19">
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+    </row>
+    <row r="147" spans="17:19">
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+    </row>
+    <row r="148" spans="17:19">
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+    </row>
+    <row r="149" spans="17:19">
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+    </row>
+    <row r="150" spans="17:19">
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+    </row>
+    <row r="151" spans="17:19">
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+    </row>
+    <row r="152" spans="17:19">
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6"/>
+    </row>
+    <row r="153" spans="17:19">
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+    </row>
+    <row r="154" spans="17:19">
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+    </row>
+    <row r="155" spans="17:19">
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+    </row>
+    <row r="156" spans="17:19">
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+    </row>
+    <row r="157" spans="17:19">
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+    </row>
+    <row r="158" spans="17:19">
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+    </row>
+    <row r="159" spans="17:19">
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+    </row>
+    <row r="160" spans="17:19">
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+    </row>
+    <row r="161" spans="17:19">
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+    </row>
+    <row r="162" spans="17:19">
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+    </row>
+    <row r="163" spans="17:19">
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+    </row>
+    <row r="164" spans="17:19">
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+    </row>
+    <row r="165" spans="17:19">
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+    </row>
+    <row r="166" spans="17:19">
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+    </row>
+    <row r="167" spans="17:19">
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+    </row>
+    <row r="168" spans="17:19">
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+    </row>
+    <row r="169" spans="17:19">
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+    </row>
+    <row r="170" spans="17:19">
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+    </row>
+    <row r="171" spans="17:19">
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+    </row>
+    <row r="172" spans="17:19">
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+    </row>
+    <row r="173" spans="17:19">
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+    </row>
+    <row r="174" spans="17:19">
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+    </row>
+    <row r="175" spans="17:19">
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+    </row>
+    <row r="176" spans="17:19">
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+    </row>
+    <row r="177" spans="17:19">
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+    </row>
+    <row r="178" spans="17:19">
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+    </row>
+    <row r="179" spans="17:19">
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+    </row>
+    <row r="180" spans="17:19">
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+    </row>
+    <row r="181" spans="17:19">
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+    </row>
+    <row r="182" spans="17:19">
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+    </row>
+    <row r="183" spans="17:19">
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+    </row>
+    <row r="184" spans="17:19">
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+    </row>
+    <row r="185" spans="17:19">
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+    </row>
+    <row r="186" spans="17:19">
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+    </row>
+    <row r="187" spans="17:19">
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
+    </row>
+    <row r="188" spans="17:19">
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+    </row>
+    <row r="189" spans="17:19">
+      <c r="Q189" s="6"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="6"/>
+    </row>
+    <row r="190" spans="17:19">
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6"/>
+    </row>
+    <row r="191" spans="17:19">
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6"/>
+    </row>
+    <row r="192" spans="17:19">
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+    </row>
+    <row r="193" spans="17:19">
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6"/>
+    </row>
+    <row r="194" spans="17:19">
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6"/>
+    </row>
+    <row r="195" spans="17:19">
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6"/>
+    </row>
+    <row r="196" spans="17:19">
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6"/>
+    </row>
+    <row r="197" spans="17:19">
+      <c r="Q197" s="6"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="6"/>
+    </row>
+    <row r="198" spans="17:19">
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6"/>
+    </row>
+    <row r="199" spans="17:19">
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6"/>
+    </row>
+    <row r="200" spans="17:19">
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6"/>
+    </row>
+    <row r="201" spans="17:19">
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+    </row>
+    <row r="202" spans="17:19">
+      <c r="Q202" s="6"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="6"/>
+    </row>
+    <row r="203" spans="17:19">
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6"/>
+    </row>
+    <row r="204" spans="17:19">
+      <c r="Q204" s="6"/>
+      <c r="R204" s="6"/>
+      <c r="S204" s="6"/>
+    </row>
+    <row r="205" spans="17:19">
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+    </row>
+    <row r="206" spans="17:19">
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6"/>
+    </row>
+    <row r="207" spans="17:19">
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6"/>
+    </row>
+    <row r="208" spans="17:19">
+      <c r="Q208" s="6"/>
+      <c r="R208" s="6"/>
+      <c r="S208" s="6"/>
+    </row>
+    <row r="209" spans="17:19">
+      <c r="Q209" s="6"/>
+      <c r="R209" s="6"/>
+      <c r="S209" s="6"/>
+    </row>
+    <row r="210" spans="17:19">
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6"/>
+    </row>
+    <row r="211" spans="17:19">
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6"/>
+    </row>
+    <row r="212" spans="17:19">
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6"/>
+      <c r="S212" s="6"/>
+    </row>
+    <row r="213" spans="17:19">
+      <c r="Q213" s="6"/>
+      <c r="R213" s="6"/>
+      <c r="S213" s="6"/>
+    </row>
+    <row r="214" spans="17:19">
+      <c r="Q214" s="6"/>
+      <c r="R214" s="6"/>
+      <c r="S214" s="6"/>
+    </row>
+    <row r="215" spans="17:19">
+      <c r="Q215" s="6"/>
+      <c r="R215" s="6"/>
+      <c r="S215" s="6"/>
+    </row>
+    <row r="216" spans="17:19">
+      <c r="Q216" s="6"/>
+      <c r="R216" s="6"/>
+      <c r="S216" s="6"/>
+    </row>
+    <row r="217" spans="17:19">
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+    </row>
+    <row r="218" spans="17:19">
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+    </row>
+    <row r="219" spans="17:19">
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+    </row>
+    <row r="220" spans="17:19">
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+    </row>
+    <row r="221" spans="17:19">
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+    </row>
+    <row r="222" spans="17:19">
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+    </row>
+    <row r="223" spans="17:19">
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+    </row>
+    <row r="224" spans="17:19">
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+    </row>
+    <row r="225" spans="17:19">
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+    </row>
+    <row r="226" spans="17:19">
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+    </row>
+    <row r="227" spans="17:19">
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+    </row>
+    <row r="228" spans="17:19">
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+    </row>
+    <row r="229" spans="17:19">
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+    </row>
+    <row r="230" spans="17:19">
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+    </row>
+    <row r="231" spans="17:19">
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+    </row>
+    <row r="232" spans="17:19">
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+    </row>
+    <row r="233" spans="17:19">
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+    </row>
+    <row r="234" spans="17:19">
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+    </row>
+    <row r="235" spans="17:19">
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+    </row>
+    <row r="236" spans="17:19">
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+    </row>
+    <row r="237" spans="17:19">
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+    </row>
+    <row r="238" spans="17:19">
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+    </row>
+    <row r="239" spans="17:19">
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+    </row>
+    <row r="240" spans="17:19">
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+    </row>
+    <row r="241" spans="17:19">
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+    </row>
+    <row r="242" spans="17:19">
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+    </row>
+    <row r="243" spans="17:19">
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+    </row>
+    <row r="244" spans="17:19">
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+    </row>
+    <row r="245" spans="17:19">
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+    </row>
+    <row r="246" spans="17:19">
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+    </row>
+    <row r="247" spans="17:19">
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+    </row>
+    <row r="248" spans="17:19">
+      <c r="Q248" s="6"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="6"/>
+    </row>
+    <row r="249" spans="17:19">
+      <c r="Q249" s="6"/>
+      <c r="R249" s="6"/>
+      <c r="S249" s="6"/>
+    </row>
+    <row r="250" spans="17:19">
+      <c r="Q250" s="6"/>
+      <c r="R250" s="6"/>
+      <c r="S250" s="6"/>
+    </row>
+    <row r="251" spans="17:19">
+      <c r="Q251" s="6"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="6"/>
+    </row>
+    <row r="252" spans="17:19">
+      <c r="Q252" s="6"/>
+      <c r="R252" s="6"/>
+      <c r="S252" s="6"/>
+    </row>
+    <row r="253" spans="17:19">
+      <c r="Q253" s="6"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="6"/>
+    </row>
+    <row r="254" spans="17:19">
+      <c r="Q254" s="6"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="6"/>
+    </row>
+    <row r="255" spans="17:19">
+      <c r="Q255" s="6"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="6"/>
+    </row>
+    <row r="256" spans="17:19">
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="6"/>
+    </row>
+    <row r="257" spans="17:19">
+      <c r="Q257" s="6"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="6"/>
+    </row>
+    <row r="258" spans="17:19">
+      <c r="Q258" s="6"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="6"/>
+    </row>
+    <row r="259" spans="17:19">
+      <c r="Q259" s="6"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="6"/>
+    </row>
+    <row r="260" spans="17:19">
+      <c r="Q260" s="6"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="6"/>
+    </row>
+    <row r="261" spans="17:19">
+      <c r="Q261" s="6"/>
+      <c r="R261" s="6"/>
+      <c r="S261" s="6"/>
+    </row>
+    <row r="262" spans="17:19">
+      <c r="Q262" s="6"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="6"/>
+    </row>
+    <row r="263" spans="17:19">
+      <c r="Q263" s="6"/>
+      <c r="R263" s="6"/>
+      <c r="S263" s="6"/>
+    </row>
+    <row r="264" spans="17:19">
+      <c r="Q264" s="6"/>
+      <c r="R264" s="6"/>
+      <c r="S264" s="6"/>
+    </row>
+    <row r="265" spans="17:19">
+      <c r="Q265" s="6"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="6"/>
+    </row>
+    <row r="266" spans="17:19">
+      <c r="Q266" s="6"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="6"/>
+    </row>
+    <row r="267" spans="17:19">
+      <c r="Q267" s="6"/>
+      <c r="R267" s="6"/>
+      <c r="S267" s="6"/>
+    </row>
+    <row r="268" spans="17:19">
+      <c r="Q268" s="6"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="6"/>
+    </row>
+    <row r="269" spans="17:19">
+      <c r="Q269" s="6"/>
+      <c r="R269" s="6"/>
+      <c r="S269" s="6"/>
+    </row>
+    <row r="270" spans="17:19">
+      <c r="Q270" s="6"/>
+      <c r="R270" s="6"/>
+      <c r="S270" s="6"/>
+    </row>
+    <row r="271" spans="17:19">
+      <c r="Q271" s="6"/>
+      <c r="R271" s="6"/>
+      <c r="S271" s="6"/>
+    </row>
+    <row r="272" spans="17:19">
+      <c r="Q272" s="6"/>
+      <c r="R272" s="6"/>
+      <c r="S272" s="6"/>
+    </row>
+    <row r="273" spans="17:19">
+      <c r="Q273" s="6"/>
+      <c r="R273" s="6"/>
+      <c r="S273" s="6"/>
+    </row>
+    <row r="274" spans="17:19">
+      <c r="Q274" s="6"/>
+      <c r="R274" s="6"/>
+      <c r="S274" s="6"/>
+    </row>
+    <row r="275" spans="17:19">
+      <c r="Q275" s="6"/>
+      <c r="R275" s="6"/>
+      <c r="S275" s="6"/>
+    </row>
+    <row r="276" spans="17:19">
+      <c r="Q276" s="6"/>
+      <c r="R276" s="6"/>
+      <c r="S276" s="6"/>
+    </row>
+    <row r="277" spans="17:19">
+      <c r="Q277" s="6"/>
+      <c r="R277" s="6"/>
+      <c r="S277" s="6"/>
+    </row>
+    <row r="278" spans="17:19">
+      <c r="Q278" s="6"/>
+      <c r="R278" s="6"/>
+      <c r="S278" s="6"/>
+    </row>
+    <row r="279" spans="17:19">
+      <c r="Q279" s="6"/>
+      <c r="R279" s="6"/>
+      <c r="S279" s="6"/>
+    </row>
+    <row r="280" spans="17:19">
+      <c r="Q280" s="6"/>
+      <c r="R280" s="6"/>
+      <c r="S280" s="6"/>
+    </row>
+    <row r="281" spans="17:19">
+      <c r="Q281" s="6"/>
+      <c r="R281" s="6"/>
+      <c r="S281" s="6"/>
+    </row>
+    <row r="282" spans="17:19">
+      <c r="Q282" s="6"/>
+      <c r="R282" s="6"/>
+      <c r="S282" s="6"/>
+    </row>
+    <row r="283" spans="17:19">
+      <c r="Q283" s="6"/>
+      <c r="R283" s="6"/>
+      <c r="S283" s="6"/>
+    </row>
+    <row r="284" spans="17:19">
+      <c r="Q284" s="6"/>
+      <c r="R284" s="6"/>
+      <c r="S284" s="6"/>
+    </row>
+    <row r="285" spans="17:19">
+      <c r="Q285" s="6"/>
+      <c r="R285" s="6"/>
+      <c r="S285" s="6"/>
+    </row>
+    <row r="286" spans="17:19">
+      <c r="Q286" s="6"/>
+      <c r="R286" s="6"/>
+      <c r="S286" s="6"/>
+    </row>
+    <row r="287" spans="17:19">
+      <c r="Q287" s="6"/>
+      <c r="R287" s="6"/>
+      <c r="S287" s="6"/>
+    </row>
+    <row r="288" spans="17:19">
+      <c r="Q288" s="6"/>
+      <c r="R288" s="6"/>
+      <c r="S288" s="6"/>
+    </row>
+    <row r="289" spans="17:19">
+      <c r="Q289" s="6"/>
+      <c r="R289" s="6"/>
+      <c r="S289" s="6"/>
+    </row>
+    <row r="290" spans="17:19">
+      <c r="Q290" s="6"/>
+      <c r="R290" s="6"/>
+      <c r="S290" s="6"/>
+    </row>
+    <row r="291" spans="17:19">
+      <c r="Q291" s="6"/>
+      <c r="R291" s="6"/>
+      <c r="S291" s="6"/>
+    </row>
+    <row r="292" spans="17:19">
+      <c r="Q292" s="6"/>
+      <c r="R292" s="6"/>
+      <c r="S292" s="6"/>
+    </row>
+    <row r="293" spans="17:19">
+      <c r="Q293" s="6"/>
+      <c r="R293" s="6"/>
+      <c r="S293" s="6"/>
+    </row>
+    <row r="294" spans="17:19">
+      <c r="Q294" s="6"/>
+      <c r="R294" s="6"/>
+      <c r="S294" s="6"/>
+    </row>
+    <row r="295" spans="17:19">
+      <c r="Q295" s="6"/>
+      <c r="R295" s="6"/>
+      <c r="S295" s="6"/>
+    </row>
+    <row r="296" spans="17:19">
+      <c r="Q296" s="6"/>
+      <c r="R296" s="6"/>
+      <c r="S296" s="6"/>
+    </row>
+    <row r="297" spans="17:19">
+      <c r="Q297" s="6"/>
+      <c r="R297" s="6"/>
+      <c r="S297" s="6"/>
+    </row>
+    <row r="298" spans="17:19">
+      <c r="Q298" s="6"/>
+      <c r="R298" s="6"/>
+      <c r="S298" s="6"/>
+    </row>
+    <row r="299" spans="17:19">
+      <c r="Q299" s="6"/>
+      <c r="R299" s="6"/>
+      <c r="S299" s="6"/>
+    </row>
+    <row r="300" spans="17:19">
+      <c r="Q300" s="6"/>
+      <c r="R300" s="6"/>
+      <c r="S300" s="6"/>
+    </row>
+    <row r="301" spans="17:19">
+      <c r="Q301" s="6"/>
+      <c r="R301" s="6"/>
+      <c r="S301" s="6"/>
+    </row>
+    <row r="302" spans="17:19">
+      <c r="Q302" s="6"/>
+      <c r="R302" s="6"/>
+      <c r="S302" s="6"/>
+    </row>
+    <row r="303" spans="17:19">
+      <c r="Q303" s="6"/>
+      <c r="R303" s="6"/>
+      <c r="S303" s="6"/>
+    </row>
+    <row r="304" spans="17:19">
+      <c r="Q304" s="6"/>
+      <c r="R304" s="6"/>
+      <c r="S304" s="6"/>
+    </row>
+    <row r="305" spans="17:19">
+      <c r="Q305" s="6"/>
+      <c r="R305" s="6"/>
+      <c r="S305" s="6"/>
+    </row>
+    <row r="306" spans="17:19">
+      <c r="Q306" s="6"/>
+      <c r="R306" s="6"/>
+      <c r="S306" s="6"/>
+    </row>
+    <row r="307" spans="17:19">
+      <c r="Q307" s="6"/>
+      <c r="R307" s="6"/>
+      <c r="S307" s="6"/>
+    </row>
+    <row r="308" spans="17:19">
+      <c r="Q308" s="6"/>
+      <c r="R308" s="6"/>
+      <c r="S308" s="6"/>
+    </row>
+    <row r="309" spans="17:19">
+      <c r="Q309" s="6"/>
+      <c r="R309" s="6"/>
+      <c r="S309" s="6"/>
+    </row>
+    <row r="310" spans="17:19">
+      <c r="Q310" s="6"/>
+      <c r="R310" s="6"/>
+      <c r="S310" s="6"/>
+    </row>
+    <row r="311" spans="17:19">
+      <c r="Q311" s="6"/>
+      <c r="R311" s="6"/>
+      <c r="S311" s="6"/>
+    </row>
+    <row r="312" spans="17:19">
+      <c r="Q312" s="6"/>
+      <c r="R312" s="6"/>
+      <c r="S312" s="6"/>
+    </row>
+    <row r="313" spans="17:19">
+      <c r="Q313" s="6"/>
+      <c r="R313" s="6"/>
+      <c r="S313" s="6"/>
+    </row>
+    <row r="314" spans="17:19">
+      <c r="Q314" s="6"/>
+      <c r="R314" s="6"/>
+      <c r="S314" s="6"/>
+    </row>
+    <row r="315" spans="17:19">
+      <c r="Q315" s="6"/>
+      <c r="R315" s="6"/>
+      <c r="S315" s="6"/>
+    </row>
+    <row r="316" spans="17:19">
+      <c r="Q316" s="6"/>
+      <c r="R316" s="6"/>
+      <c r="S316" s="6"/>
+    </row>
+    <row r="317" spans="17:19">
+      <c r="Q317" s="6"/>
+      <c r="R317" s="6"/>
+      <c r="S317" s="6"/>
+    </row>
+    <row r="318" spans="17:19">
+      <c r="Q318" s="6"/>
+      <c r="R318" s="6"/>
+      <c r="S318" s="6"/>
+    </row>
+    <row r="319" spans="17:19">
+      <c r="Q319" s="6"/>
+      <c r="R319" s="6"/>
+      <c r="S319" s="6"/>
+    </row>
+    <row r="320" spans="17:19">
+      <c r="Q320" s="6"/>
+      <c r="R320" s="6"/>
+      <c r="S320" s="6"/>
+    </row>
+    <row r="321" spans="17:19">
+      <c r="Q321" s="6"/>
+      <c r="R321" s="6"/>
+      <c r="S321" s="6"/>
+    </row>
+    <row r="322" spans="17:19">
+      <c r="Q322" s="6"/>
+      <c r="R322" s="6"/>
+      <c r="S322" s="6"/>
+    </row>
+    <row r="323" spans="17:19">
+      <c r="Q323" s="6"/>
+      <c r="R323" s="6"/>
+      <c r="S323" s="6"/>
+    </row>
+    <row r="324" spans="17:19">
+      <c r="Q324" s="6"/>
+      <c r="R324" s="6"/>
+      <c r="S324" s="6"/>
+    </row>
+    <row r="325" spans="17:19">
+      <c r="Q325" s="6"/>
+      <c r="R325" s="6"/>
+      <c r="S325" s="6"/>
+    </row>
+    <row r="326" spans="17:19">
+      <c r="Q326" s="6"/>
+      <c r="R326" s="6"/>
+      <c r="S326" s="6"/>
+    </row>
+    <row r="327" spans="17:19">
+      <c r="Q327" s="6"/>
+      <c r="R327" s="6"/>
+      <c r="S327" s="6"/>
+    </row>
+    <row r="328" spans="17:19">
+      <c r="Q328" s="6"/>
+      <c r="R328" s="6"/>
+      <c r="S328" s="6"/>
+    </row>
+    <row r="329" spans="17:19">
+      <c r="Q329" s="6"/>
+      <c r="R329" s="6"/>
+      <c r="S329" s="6"/>
+    </row>
+    <row r="330" spans="17:19">
+      <c r="Q330" s="6"/>
+      <c r="R330" s="6"/>
+      <c r="S330" s="6"/>
+    </row>
+    <row r="331" spans="17:19">
+      <c r="Q331" s="6"/>
+      <c r="R331" s="6"/>
+      <c r="S331" s="6"/>
+    </row>
+    <row r="332" spans="17:19">
+      <c r="Q332" s="6"/>
+      <c r="R332" s="6"/>
+      <c r="S332" s="6"/>
+    </row>
+    <row r="333" spans="17:19">
+      <c r="Q333" s="6"/>
+      <c r="R333" s="6"/>
+      <c r="S333" s="6"/>
+    </row>
+    <row r="334" spans="17:19">
+      <c r="Q334" s="6"/>
+      <c r="R334" s="6"/>
+      <c r="S334" s="6"/>
+    </row>
+    <row r="335" spans="17:19">
+      <c r="Q335" s="6"/>
+      <c r="R335" s="6"/>
+      <c r="S335" s="6"/>
+    </row>
+    <row r="336" spans="17:19">
+      <c r="Q336" s="6"/>
+      <c r="R336" s="6"/>
+      <c r="S336" s="6"/>
+    </row>
+    <row r="337" spans="17:19">
+      <c r="Q337" s="6"/>
+      <c r="R337" s="6"/>
+      <c r="S337" s="6"/>
+    </row>
+    <row r="338" spans="17:19">
+      <c r="Q338" s="6"/>
+      <c r="R338" s="6"/>
+      <c r="S338" s="6"/>
+    </row>
+    <row r="339" spans="17:19">
+      <c r="Q339" s="6"/>
+      <c r="R339" s="6"/>
+      <c r="S339" s="6"/>
+    </row>
+    <row r="340" spans="17:19">
+      <c r="Q340" s="6"/>
+      <c r="R340" s="6"/>
+      <c r="S340" s="6"/>
+    </row>
+    <row r="341" spans="17:19">
+      <c r="Q341" s="6"/>
+      <c r="R341" s="6"/>
+      <c r="S341" s="6"/>
+    </row>
+    <row r="342" spans="17:19">
+      <c r="Q342" s="6"/>
+      <c r="R342" s="6"/>
+      <c r="S342" s="6"/>
+    </row>
+    <row r="343" spans="17:19">
+      <c r="Q343" s="6"/>
+      <c r="R343" s="6"/>
+      <c r="S343" s="6"/>
+    </row>
+    <row r="344" spans="17:19">
+      <c r="Q344" s="6"/>
+      <c r="R344" s="6"/>
+      <c r="S344" s="6"/>
+    </row>
+    <row r="345" spans="17:19">
+      <c r="Q345" s="6"/>
+      <c r="R345" s="6"/>
+      <c r="S345" s="6"/>
+    </row>
+    <row r="346" spans="17:19">
+      <c r="Q346" s="6"/>
+      <c r="R346" s="6"/>
+      <c r="S346" s="6"/>
+    </row>
+    <row r="347" spans="17:19">
+      <c r="Q347" s="6"/>
+      <c r="R347" s="6"/>
+      <c r="S347" s="6"/>
+    </row>
+    <row r="348" spans="17:19">
+      <c r="Q348" s="6"/>
+      <c r="R348" s="6"/>
+      <c r="S348" s="6"/>
+    </row>
+    <row r="349" spans="17:19">
+      <c r="Q349" s="6"/>
+      <c r="R349" s="6"/>
+      <c r="S349" s="6"/>
+    </row>
+    <row r="350" spans="17:19">
+      <c r="Q350" s="6"/>
+      <c r="R350" s="6"/>
+      <c r="S350" s="6"/>
+    </row>
+    <row r="351" spans="17:19">
+      <c r="Q351" s="6"/>
+      <c r="R351" s="6"/>
+      <c r="S351" s="6"/>
+    </row>
+    <row r="352" spans="17:19">
+      <c r="Q352" s="6"/>
+      <c r="R352" s="6"/>
+      <c r="S352" s="6"/>
+    </row>
+    <row r="353" spans="17:19">
+      <c r="Q353" s="6"/>
+      <c r="R353" s="6"/>
+      <c r="S353" s="6"/>
+    </row>
+    <row r="354" spans="17:19">
+      <c r="Q354" s="6"/>
+      <c r="R354" s="6"/>
+      <c r="S354" s="6"/>
+    </row>
+    <row r="355" spans="17:19">
+      <c r="Q355" s="6"/>
+      <c r="R355" s="6"/>
+      <c r="S355" s="6"/>
+    </row>
+    <row r="356" spans="17:19">
+      <c r="Q356" s="6"/>
+      <c r="R356" s="6"/>
+      <c r="S356" s="6"/>
+    </row>
+    <row r="357" spans="17:19">
+      <c r="Q357" s="6"/>
+      <c r="R357" s="6"/>
+      <c r="S357" s="6"/>
+    </row>
+    <row r="358" spans="17:19">
+      <c r="Q358" s="6"/>
+      <c r="R358" s="6"/>
+      <c r="S358" s="6"/>
+    </row>
+    <row r="359" spans="17:19">
+      <c r="Q359" s="6"/>
+      <c r="R359" s="6"/>
+      <c r="S359" s="6"/>
+    </row>
+    <row r="360" spans="17:19">
+      <c r="Q360" s="6"/>
+      <c r="R360" s="6"/>
+      <c r="S360" s="6"/>
+    </row>
+    <row r="361" spans="17:19">
+      <c r="Q361" s="6"/>
+      <c r="R361" s="6"/>
+      <c r="S361" s="6"/>
+    </row>
+    <row r="362" spans="17:19">
+      <c r="Q362" s="6"/>
+      <c r="R362" s="6"/>
+      <c r="S362" s="6"/>
+    </row>
+    <row r="363" spans="17:19">
+      <c r="Q363" s="6"/>
+      <c r="R363" s="6"/>
+      <c r="S363" s="6"/>
+    </row>
+    <row r="364" spans="17:19">
+      <c r="Q364" s="6"/>
+      <c r="R364" s="6"/>
+      <c r="S364" s="6"/>
+    </row>
+    <row r="365" spans="17:19">
+      <c r="Q365" s="6"/>
+      <c r="R365" s="6"/>
+      <c r="S365" s="6"/>
+    </row>
+    <row r="366" spans="17:19">
+      <c r="Q366" s="6"/>
+      <c r="R366" s="6"/>
+      <c r="S366" s="6"/>
+    </row>
+    <row r="367" spans="17:19">
+      <c r="Q367" s="6"/>
+      <c r="R367" s="6"/>
+      <c r="S367" s="6"/>
+    </row>
+    <row r="368" spans="17:19">
+      <c r="Q368" s="6"/>
+      <c r="R368" s="6"/>
+      <c r="S368" s="6"/>
+    </row>
+    <row r="369" spans="17:19">
+      <c r="Q369" s="6"/>
+      <c r="R369" s="6"/>
+      <c r="S369" s="6"/>
+    </row>
+    <row r="370" spans="17:19">
+      <c r="Q370" s="6"/>
+      <c r="R370" s="6"/>
+      <c r="S370" s="6"/>
+    </row>
+    <row r="371" spans="17:19">
+      <c r="Q371" s="6"/>
+      <c r="R371" s="6"/>
+      <c r="S371" s="6"/>
+    </row>
+    <row r="372" spans="17:19">
+      <c r="Q372" s="6"/>
+      <c r="R372" s="6"/>
+      <c r="S372" s="6"/>
+    </row>
+    <row r="373" spans="17:19">
+      <c r="Q373" s="6"/>
+      <c r="R373" s="6"/>
+      <c r="S373" s="6"/>
+    </row>
+    <row r="374" spans="17:19">
+      <c r="Q374" s="6"/>
+      <c r="R374" s="6"/>
+      <c r="S374" s="6"/>
+    </row>
+    <row r="375" spans="17:19">
+      <c r="Q375" s="6"/>
+      <c r="R375" s="6"/>
+      <c r="S375" s="6"/>
+    </row>
+    <row r="376" spans="17:19">
+      <c r="Q376" s="6"/>
+      <c r="R376" s="6"/>
+      <c r="S376" s="6"/>
+    </row>
+    <row r="377" spans="17:19">
+      <c r="Q377" s="6"/>
+      <c r="R377" s="6"/>
+      <c r="S377" s="6"/>
+    </row>
+    <row r="378" spans="17:19">
+      <c r="Q378" s="6"/>
+      <c r="R378" s="6"/>
+      <c r="S378" s="6"/>
+    </row>
+    <row r="379" spans="17:19">
+      <c r="Q379" s="6"/>
+      <c r="R379" s="6"/>
+      <c r="S379" s="6"/>
+    </row>
+    <row r="380" spans="17:19">
+      <c r="Q380" s="6"/>
+      <c r="R380" s="6"/>
+      <c r="S380" s="6"/>
+    </row>
+    <row r="381" spans="17:19">
+      <c r="Q381" s="6"/>
+      <c r="R381" s="6"/>
+      <c r="S381" s="6"/>
+    </row>
+    <row r="382" spans="17:19">
+      <c r="Q382" s="6"/>
+      <c r="R382" s="6"/>
+      <c r="S382" s="6"/>
+    </row>
+    <row r="383" spans="17:19">
+      <c r="Q383" s="6"/>
+      <c r="R383" s="6"/>
+      <c r="S383" s="6"/>
+    </row>
+    <row r="384" spans="17:19">
+      <c r="Q384" s="6"/>
+      <c r="R384" s="6"/>
+      <c r="S384" s="6"/>
+    </row>
+    <row r="385" spans="17:19">
+      <c r="Q385" s="6"/>
+      <c r="R385" s="6"/>
+      <c r="S385" s="6"/>
+    </row>
+    <row r="386" spans="17:19">
+      <c r="Q386" s="6"/>
+      <c r="R386" s="6"/>
+      <c r="S386" s="6"/>
+    </row>
+    <row r="387" spans="17:19">
+      <c r="Q387" s="6"/>
+      <c r="R387" s="6"/>
+      <c r="S387" s="6"/>
+    </row>
+    <row r="388" spans="17:19">
+      <c r="Q388" s="6"/>
+      <c r="R388" s="6"/>
+      <c r="S388" s="6"/>
+    </row>
+    <row r="389" spans="17:19">
+      <c r="Q389" s="6"/>
+      <c r="R389" s="6"/>
+      <c r="S389" s="6"/>
+    </row>
+    <row r="390" spans="17:19">
+      <c r="Q390" s="6"/>
+      <c r="R390" s="6"/>
+      <c r="S390" s="6"/>
+    </row>
+    <row r="391" spans="17:19">
+      <c r="Q391" s="6"/>
+      <c r="R391" s="6"/>
+      <c r="S391" s="6"/>
+    </row>
+    <row r="392" spans="17:19">
+      <c r="Q392" s="6"/>
+      <c r="R392" s="6"/>
+      <c r="S392" s="6"/>
+    </row>
+    <row r="393" spans="17:19">
+      <c r="Q393" s="6"/>
+      <c r="R393" s="6"/>
+      <c r="S393" s="6"/>
+    </row>
+    <row r="394" spans="17:19">
+      <c r="Q394" s="6"/>
+      <c r="R394" s="6"/>
+      <c r="S394" s="6"/>
+    </row>
+    <row r="395" spans="17:19">
+      <c r="Q395" s="6"/>
+      <c r="R395" s="6"/>
+      <c r="S395" s="6"/>
+    </row>
+    <row r="396" spans="17:19">
+      <c r="Q396" s="6"/>
+      <c r="R396" s="6"/>
+      <c r="S396" s="6"/>
+    </row>
+    <row r="397" spans="17:19">
+      <c r="Q397" s="6"/>
+      <c r="R397" s="6"/>
+      <c r="S397" s="6"/>
+    </row>
+    <row r="398" spans="17:19">
+      <c r="Q398" s="6"/>
+      <c r="R398" s="6"/>
+      <c r="S398" s="6"/>
+    </row>
+    <row r="399" spans="17:19">
+      <c r="Q399" s="6"/>
+      <c r="R399" s="6"/>
+      <c r="S399" s="6"/>
+    </row>
+    <row r="400" spans="17:19">
+      <c r="Q400" s="6"/>
+      <c r="R400" s="6"/>
+      <c r="S400" s="6"/>
+    </row>
+    <row r="401" spans="17:19">
+      <c r="Q401" s="6"/>
+      <c r="R401" s="6"/>
+      <c r="S401" s="6"/>
+    </row>
+    <row r="402" spans="17:19">
+      <c r="Q402" s="6"/>
+      <c r="R402" s="6"/>
+      <c r="S402" s="6"/>
+    </row>
+    <row r="403" spans="17:19">
+      <c r="Q403" s="6"/>
+      <c r="R403" s="6"/>
+      <c r="S403" s="6"/>
+    </row>
+    <row r="404" spans="17:19">
+      <c r="Q404" s="6"/>
+      <c r="R404" s="6"/>
+      <c r="S404" s="6"/>
+    </row>
+    <row r="405" spans="17:19">
+      <c r="Q405" s="6"/>
+      <c r="R405" s="6"/>
+      <c r="S405" s="6"/>
+    </row>
+    <row r="406" spans="17:19">
+      <c r="Q406" s="6"/>
+      <c r="R406" s="6"/>
+      <c r="S406" s="6"/>
+    </row>
+    <row r="407" spans="17:19">
+      <c r="Q407" s="6"/>
+      <c r="R407" s="6"/>
+      <c r="S407" s="6"/>
+    </row>
+    <row r="408" spans="17:19">
+      <c r="Q408" s="6"/>
+      <c r="R408" s="6"/>
+      <c r="S408" s="6"/>
+    </row>
+    <row r="409" spans="17:19">
+      <c r="Q409" s="6"/>
+      <c r="R409" s="6"/>
+      <c r="S409" s="6"/>
+    </row>
+    <row r="410" spans="17:19">
+      <c r="Q410" s="6"/>
+      <c r="R410" s="6"/>
+      <c r="S410" s="6"/>
+    </row>
+    <row r="411" spans="17:19">
+      <c r="Q411" s="6"/>
+      <c r="R411" s="6"/>
+      <c r="S411" s="6"/>
+    </row>
+    <row r="412" spans="17:19">
+      <c r="Q412" s="6"/>
+      <c r="R412" s="6"/>
+      <c r="S412" s="6"/>
+    </row>
+    <row r="413" spans="17:19">
+      <c r="Q413" s="6"/>
+      <c r="R413" s="6"/>
+      <c r="S413" s="6"/>
+    </row>
+    <row r="414" spans="17:19">
+      <c r="Q414" s="6"/>
+      <c r="R414" s="6"/>
+      <c r="S414" s="6"/>
+    </row>
+    <row r="415" spans="17:19">
+      <c r="Q415" s="6"/>
+      <c r="R415" s="6"/>
+      <c r="S415" s="6"/>
+    </row>
+    <row r="416" spans="17:19">
+      <c r="Q416" s="6"/>
+      <c r="R416" s="6"/>
+      <c r="S416" s="6"/>
+    </row>
+    <row r="417" spans="17:19">
+      <c r="Q417" s="6"/>
+      <c r="R417" s="6"/>
+      <c r="S417" s="6"/>
+    </row>
+    <row r="418" spans="17:19">
+      <c r="Q418" s="6"/>
+      <c r="R418" s="6"/>
+      <c r="S418" s="6"/>
+    </row>
+    <row r="419" spans="17:19">
+      <c r="Q419" s="6"/>
+      <c r="R419" s="6"/>
+      <c r="S419" s="6"/>
+    </row>
+    <row r="420" spans="17:19">
+      <c r="Q420" s="6"/>
+      <c r="R420" s="6"/>
+      <c r="S420" s="6"/>
+    </row>
+    <row r="421" spans="17:19">
+      <c r="Q421" s="6"/>
+      <c r="R421" s="6"/>
+      <c r="S421" s="6"/>
+    </row>
+    <row r="422" spans="17:19">
+      <c r="Q422" s="6"/>
+      <c r="R422" s="6"/>
+      <c r="S422" s="6"/>
+    </row>
+    <row r="423" spans="17:19">
+      <c r="Q423" s="6"/>
+      <c r="R423" s="6"/>
+      <c r="S423" s="6"/>
+    </row>
+    <row r="424" spans="17:19">
+      <c r="Q424" s="6"/>
+      <c r="R424" s="6"/>
+      <c r="S424" s="6"/>
+    </row>
+    <row r="425" spans="17:19">
+      <c r="Q425" s="6"/>
+      <c r="R425" s="6"/>
+      <c r="S425" s="6"/>
+    </row>
+    <row r="426" spans="17:19">
+      <c r="Q426" s="6"/>
+      <c r="R426" s="6"/>
+      <c r="S426" s="6"/>
+    </row>
+    <row r="427" spans="17:19">
+      <c r="Q427" s="6"/>
+      <c r="R427" s="6"/>
+      <c r="S427" s="6"/>
+    </row>
+    <row r="428" spans="17:19">
+      <c r="Q428" s="6"/>
+      <c r="R428" s="6"/>
+      <c r="S428" s="6"/>
+    </row>
+    <row r="429" spans="17:19">
+      <c r="Q429" s="6"/>
+      <c r="R429" s="6"/>
+      <c r="S429" s="6"/>
+    </row>
+    <row r="430" spans="17:19">
+      <c r="Q430" s="6"/>
+      <c r="R430" s="6"/>
+      <c r="S430" s="6"/>
+    </row>
+    <row r="431" spans="17:19">
+      <c r="Q431" s="6"/>
+      <c r="R431" s="6"/>
+      <c r="S431" s="6"/>
+    </row>
+    <row r="432" spans="17:19">
+      <c r="Q432" s="6"/>
+      <c r="R432" s="6"/>
+      <c r="S432" s="6"/>
+    </row>
+    <row r="433" spans="17:19">
+      <c r="Q433" s="6"/>
+      <c r="R433" s="6"/>
+      <c r="S433" s="6"/>
+    </row>
+    <row r="434" spans="17:19">
+      <c r="Q434" s="6"/>
+      <c r="R434" s="6"/>
+      <c r="S434" s="6"/>
+    </row>
+    <row r="435" spans="17:19">
+      <c r="Q435" s="6"/>
+      <c r="R435" s="6"/>
+      <c r="S435" s="6"/>
+    </row>
+    <row r="436" spans="17:19">
+      <c r="Q436" s="6"/>
+      <c r="R436" s="6"/>
+      <c r="S436" s="6"/>
+    </row>
+    <row r="437" spans="17:19">
+      <c r="Q437" s="6"/>
+      <c r="R437" s="6"/>
+      <c r="S437" s="6"/>
+    </row>
+    <row r="438" spans="17:19">
+      <c r="Q438" s="6"/>
+      <c r="R438" s="6"/>
+      <c r="S438" s="6"/>
+    </row>
+    <row r="439" spans="17:19">
+      <c r="Q439" s="6"/>
+      <c r="R439" s="6"/>
+      <c r="S439" s="6"/>
+    </row>
+    <row r="440" spans="17:19">
+      <c r="Q440" s="6"/>
+      <c r="R440" s="6"/>
+      <c r="S440" s="6"/>
+    </row>
+    <row r="441" spans="17:19">
+      <c r="Q441" s="6"/>
+      <c r="R441" s="6"/>
+      <c r="S441" s="6"/>
+    </row>
+    <row r="442" spans="17:19">
+      <c r="Q442" s="6"/>
+      <c r="R442" s="6"/>
+      <c r="S442" s="6"/>
+    </row>
+    <row r="443" spans="17:19">
+      <c r="Q443" s="6"/>
+      <c r="R443" s="6"/>
+      <c r="S443" s="6"/>
+    </row>
+    <row r="444" spans="17:19">
+      <c r="Q444" s="6"/>
+      <c r="R444" s="6"/>
+      <c r="S444" s="6"/>
+    </row>
+    <row r="445" spans="17:19">
+      <c r="Q445" s="6"/>
+      <c r="R445" s="6"/>
+      <c r="S445" s="6"/>
+    </row>
+    <row r="446" spans="17:19">
+      <c r="Q446" s="6"/>
+      <c r="R446" s="6"/>
+      <c r="S446" s="6"/>
+    </row>
+    <row r="447" spans="17:19">
+      <c r="Q447" s="6"/>
+      <c r="R447" s="6"/>
+      <c r="S447" s="6"/>
+    </row>
+    <row r="448" spans="17:19">
+      <c r="Q448" s="6"/>
+      <c r="R448" s="6"/>
+      <c r="S448" s="6"/>
+    </row>
+    <row r="449" spans="17:19">
+      <c r="Q449" s="6"/>
+      <c r="R449" s="6"/>
+      <c r="S449" s="6"/>
+    </row>
+    <row r="450" spans="17:19">
+      <c r="Q450" s="6"/>
+      <c r="R450" s="6"/>
+      <c r="S450" s="6"/>
+    </row>
+    <row r="451" spans="17:19">
+      <c r="Q451" s="6"/>
+      <c r="R451" s="6"/>
+      <c r="S451" s="6"/>
+    </row>
+    <row r="452" spans="17:19">
+      <c r="Q452" s="6"/>
+      <c r="R452" s="6"/>
+      <c r="S452" s="6"/>
+    </row>
+    <row r="453" spans="17:19">
+      <c r="Q453" s="6"/>
+      <c r="R453" s="6"/>
+      <c r="S453" s="6"/>
+    </row>
+    <row r="454" spans="17:19">
+      <c r="Q454" s="6"/>
+      <c r="R454" s="6"/>
+      <c r="S454" s="6"/>
+    </row>
+    <row r="455" spans="17:19">
+      <c r="Q455" s="6"/>
+      <c r="R455" s="6"/>
+      <c r="S455" s="6"/>
+    </row>
+    <row r="456" spans="17:19">
+      <c r="Q456" s="6"/>
+      <c r="R456" s="6"/>
+      <c r="S456" s="6"/>
+    </row>
+    <row r="457" spans="17:19">
+      <c r="Q457" s="6"/>
+      <c r="R457" s="6"/>
+      <c r="S457" s="6"/>
+    </row>
+    <row r="458" spans="17:19">
+      <c r="Q458" s="6"/>
+      <c r="R458" s="6"/>
+      <c r="S458" s="6"/>
+    </row>
+    <row r="459" spans="17:19">
+      <c r="Q459" s="6"/>
+      <c r="R459" s="6"/>
+      <c r="S459" s="6"/>
+    </row>
+    <row r="460" spans="17:19">
+      <c r="Q460" s="6"/>
+      <c r="R460" s="6"/>
+      <c r="S460" s="6"/>
+    </row>
+    <row r="461" spans="17:19">
+      <c r="Q461" s="6"/>
+      <c r="R461" s="6"/>
+      <c r="S461" s="6"/>
+    </row>
+    <row r="462" spans="17:19">
+      <c r="Q462" s="6"/>
+      <c r="R462" s="6"/>
+      <c r="S462" s="6"/>
+    </row>
+    <row r="463" spans="17:19">
+      <c r="Q463" s="6"/>
+      <c r="R463" s="6"/>
+      <c r="S463" s="6"/>
+    </row>
+    <row r="464" spans="17:19">
+      <c r="Q464" s="6"/>
+      <c r="R464" s="6"/>
+      <c r="S464" s="6"/>
+    </row>
+    <row r="465" spans="17:19">
+      <c r="Q465" s="6"/>
+      <c r="R465" s="6"/>
+      <c r="S465" s="6"/>
+    </row>
+    <row r="466" spans="17:19">
+      <c r="Q466" s="6"/>
+      <c r="R466" s="6"/>
+      <c r="S466" s="6"/>
+    </row>
+    <row r="467" spans="17:19">
+      <c r="Q467" s="6"/>
+      <c r="R467" s="6"/>
+      <c r="S467" s="6"/>
+    </row>
+    <row r="468" spans="17:19">
+      <c r="Q468" s="6"/>
+      <c r="R468" s="6"/>
+      <c r="S468" s="6"/>
+    </row>
+    <row r="469" spans="17:19">
+      <c r="Q469" s="6"/>
+      <c r="R469" s="6"/>
+      <c r="S469" s="6"/>
+    </row>
+    <row r="470" spans="17:19">
+      <c r="Q470" s="6"/>
+      <c r="R470" s="6"/>
+      <c r="S470" s="6"/>
+    </row>
+    <row r="471" spans="17:19">
+      <c r="Q471" s="6"/>
+      <c r="R471" s="6"/>
+      <c r="S471" s="6"/>
+    </row>
+    <row r="472" spans="17:19">
+      <c r="Q472" s="6"/>
+      <c r="R472" s="6"/>
+      <c r="S472" s="6"/>
+    </row>
+    <row r="473" spans="17:19">
+      <c r="Q473" s="6"/>
+      <c r="R473" s="6"/>
+      <c r="S473" s="6"/>
+    </row>
+    <row r="474" spans="17:19">
+      <c r="Q474" s="6"/>
+      <c r="R474" s="6"/>
+      <c r="S474" s="6"/>
+    </row>
+    <row r="475" spans="17:19">
+      <c r="Q475" s="6"/>
+      <c r="R475" s="6"/>
+      <c r="S475" s="6"/>
+    </row>
+    <row r="476" spans="17:19">
+      <c r="Q476" s="6"/>
+      <c r="R476" s="6"/>
+      <c r="S476" s="6"/>
+    </row>
+    <row r="477" spans="17:19">
+      <c r="Q477" s="6"/>
+      <c r="R477" s="6"/>
+      <c r="S477" s="6"/>
+    </row>
+    <row r="478" spans="17:19">
+      <c r="Q478" s="6"/>
+      <c r="R478" s="6"/>
+      <c r="S478" s="6"/>
+    </row>
+    <row r="479" spans="17:19">
+      <c r="Q479" s="6"/>
+      <c r="R479" s="6"/>
+      <c r="S479" s="6"/>
+    </row>
+    <row r="480" spans="17:19">
+      <c r="Q480" s="6"/>
+      <c r="R480" s="6"/>
+      <c r="S480" s="6"/>
+    </row>
+    <row r="481" spans="17:19">
+      <c r="Q481" s="6"/>
+      <c r="R481" s="6"/>
+      <c r="S481" s="6"/>
+    </row>
+    <row r="482" spans="17:19">
+      <c r="Q482" s="6"/>
+      <c r="R482" s="6"/>
+      <c r="S482" s="6"/>
+    </row>
+    <row r="483" spans="17:19">
+      <c r="Q483" s="6"/>
+      <c r="R483" s="6"/>
+      <c r="S483" s="6"/>
+    </row>
+    <row r="484" spans="17:19">
+      <c r="Q484" s="6"/>
+      <c r="R484" s="6"/>
+      <c r="S484" s="6"/>
+    </row>
+    <row r="485" spans="17:19">
+      <c r="Q485" s="6"/>
+      <c r="R485" s="6"/>
+      <c r="S485" s="6"/>
+    </row>
+    <row r="486" spans="17:19">
+      <c r="Q486" s="6"/>
+      <c r="R486" s="6"/>
+      <c r="S486" s="6"/>
+    </row>
+    <row r="487" spans="17:19">
+      <c r="Q487" s="6"/>
+      <c r="R487" s="6"/>
+      <c r="S487" s="6"/>
+    </row>
+    <row r="488" spans="17:19">
+      <c r="Q488" s="6"/>
+      <c r="R488" s="6"/>
+      <c r="S488" s="6"/>
+    </row>
+    <row r="489" spans="17:19">
+      <c r="Q489" s="6"/>
+      <c r="R489" s="6"/>
+      <c r="S489" s="6"/>
+    </row>
+    <row r="490" spans="17:19">
+      <c r="Q490" s="6"/>
+      <c r="R490" s="6"/>
+      <c r="S490" s="6"/>
+    </row>
+    <row r="491" spans="17:19">
+      <c r="Q491" s="6"/>
+      <c r="R491" s="6"/>
+      <c r="S491" s="6"/>
+    </row>
+    <row r="492" spans="17:19">
+      <c r="Q492" s="6"/>
+      <c r="R492" s="6"/>
+      <c r="S492" s="6"/>
+    </row>
+    <row r="493" spans="17:19">
+      <c r="Q493" s="6"/>
+      <c r="R493" s="6"/>
+      <c r="S493" s="6"/>
+    </row>
+    <row r="494" spans="17:19">
+      <c r="Q494" s="6"/>
+      <c r="R494" s="6"/>
+      <c r="S494" s="6"/>
+    </row>
+    <row r="495" spans="17:19">
+      <c r="Q495" s="6"/>
+      <c r="R495" s="6"/>
+      <c r="S495" s="6"/>
+    </row>
+    <row r="496" spans="17:19">
+      <c r="Q496" s="6"/>
+      <c r="R496" s="6"/>
+      <c r="S496" s="6"/>
+    </row>
+    <row r="497" spans="17:19">
+      <c r="Q497" s="6"/>
+      <c r="R497" s="6"/>
+      <c r="S497" s="6"/>
+    </row>
+    <row r="498" spans="17:19">
+      <c r="Q498" s="6"/>
+      <c r="R498" s="6"/>
+      <c r="S498" s="6"/>
+    </row>
+    <row r="499" spans="17:19">
+      <c r="Q499" s="6"/>
+      <c r="R499" s="6"/>
+      <c r="S499" s="6"/>
+    </row>
+    <row r="500" spans="17:19">
+      <c r="Q500" s="6"/>
+      <c r="R500" s="6"/>
+      <c r="S500" s="6"/>
+    </row>
+    <row r="501" spans="17:19">
+      <c r="Q501" s="6"/>
+      <c r="R501" s="6"/>
+      <c r="S501" s="6"/>
+    </row>
+    <row r="502" spans="17:19">
+      <c r="Q502" s="6"/>
+      <c r="R502" s="6"/>
+      <c r="S502" s="6"/>
+    </row>
+    <row r="503" spans="17:19">
+      <c r="Q503" s="6"/>
+      <c r="R503" s="6"/>
+      <c r="S503" s="6"/>
+    </row>
+    <row r="504" spans="17:19">
+      <c r="Q504" s="6"/>
+      <c r="R504" s="6"/>
+      <c r="S504" s="6"/>
+    </row>
+    <row r="505" spans="17:19">
+      <c r="Q505" s="6"/>
+      <c r="R505" s="6"/>
+      <c r="S505" s="6"/>
+    </row>
+    <row r="506" spans="17:19">
+      <c r="Q506" s="6"/>
+      <c r="R506" s="6"/>
+      <c r="S506" s="6"/>
+    </row>
+    <row r="507" spans="17:19">
+      <c r="Q507" s="6"/>
+      <c r="R507" s="6"/>
+      <c r="S507" s="6"/>
+    </row>
+    <row r="508" spans="17:19">
+      <c r="Q508" s="6"/>
+      <c r="R508" s="6"/>
+      <c r="S508" s="6"/>
+    </row>
+    <row r="509" spans="17:19">
+      <c r="Q509" s="6"/>
+      <c r="R509" s="6"/>
+      <c r="S509" s="6"/>
+    </row>
+    <row r="510" spans="17:19">
+      <c r="Q510" s="6"/>
+      <c r="R510" s="6"/>
+      <c r="S510" s="6"/>
+    </row>
+    <row r="511" spans="17:19">
+      <c r="Q511" s="6"/>
+      <c r="R511" s="6"/>
+      <c r="S511" s="6"/>
+    </row>
+    <row r="512" spans="17:19">
+      <c r="Q512" s="6"/>
+      <c r="R512" s="6"/>
+      <c r="S512" s="6"/>
+    </row>
+    <row r="513" spans="17:19">
+      <c r="Q513" s="6"/>
+      <c r="R513" s="6"/>
+      <c r="S513" s="6"/>
+    </row>
+    <row r="514" spans="17:19">
+      <c r="Q514" s="6"/>
+      <c r="R514" s="6"/>
+      <c r="S514" s="6"/>
+    </row>
+    <row r="515" spans="17:19">
+      <c r="Q515" s="6"/>
+      <c r="R515" s="6"/>
+      <c r="S515" s="6"/>
+    </row>
+    <row r="516" spans="17:19">
+      <c r="Q516" s="6"/>
+      <c r="R516" s="6"/>
+      <c r="S516" s="6"/>
+    </row>
+    <row r="517" spans="17:19">
+      <c r="Q517" s="6"/>
+      <c r="R517" s="6"/>
+      <c r="S517" s="6"/>
+    </row>
+    <row r="518" spans="17:19">
+      <c r="Q518" s="6"/>
+      <c r="R518" s="6"/>
+      <c r="S518" s="6"/>
+    </row>
+    <row r="519" spans="17:19">
+      <c r="Q519" s="6"/>
+      <c r="R519" s="6"/>
+      <c r="S519" s="6"/>
+    </row>
+    <row r="520" spans="17:19">
+      <c r="Q520" s="6"/>
+      <c r="R520" s="6"/>
+      <c r="S520" s="6"/>
+    </row>
+    <row r="521" spans="17:19">
+      <c r="Q521" s="6"/>
+      <c r="R521" s="6"/>
+      <c r="S521" s="6"/>
+    </row>
+    <row r="522" spans="17:19">
+      <c r="Q522" s="6"/>
+      <c r="R522" s="6"/>
+      <c r="S522" s="6"/>
+    </row>
+    <row r="523" spans="17:19">
+      <c r="Q523" s="6"/>
+      <c r="R523" s="6"/>
+      <c r="S523" s="6"/>
+    </row>
+    <row r="524" spans="17:19">
+      <c r="Q524" s="6"/>
+      <c r="R524" s="6"/>
+      <c r="S524" s="6"/>
+    </row>
+    <row r="525" spans="17:19">
+      <c r="Q525" s="6"/>
+      <c r="R525" s="6"/>
+      <c r="S525" s="6"/>
+    </row>
+    <row r="526" spans="17:19">
+      <c r="Q526" s="6"/>
+      <c r="R526" s="6"/>
+      <c r="S526" s="6"/>
+    </row>
+    <row r="527" spans="17:19">
+      <c r="Q527" s="6"/>
+      <c r="R527" s="6"/>
+      <c r="S527" s="6"/>
+    </row>
+    <row r="528" spans="17:19">
+      <c r="Q528" s="6"/>
+      <c r="R528" s="6"/>
+      <c r="S528" s="6"/>
+    </row>
+    <row r="529" spans="17:19">
+      <c r="Q529" s="6"/>
+      <c r="R529" s="6"/>
+      <c r="S529" s="6"/>
+    </row>
+    <row r="530" spans="17:19">
+      <c r="Q530" s="6"/>
+      <c r="R530" s="6"/>
+      <c r="S530" s="6"/>
+    </row>
+    <row r="531" spans="17:19">
+      <c r="Q531" s="6"/>
+      <c r="R531" s="6"/>
+      <c r="S531" s="6"/>
+    </row>
+    <row r="532" spans="17:19">
+      <c r="Q532" s="6"/>
+      <c r="R532" s="6"/>
+      <c r="S532" s="6"/>
+    </row>
+    <row r="533" spans="17:19">
+      <c r="Q533" s="6"/>
+      <c r="R533" s="6"/>
+      <c r="S533" s="6"/>
+    </row>
+    <row r="534" spans="17:19">
+      <c r="Q534" s="6"/>
+      <c r="R534" s="6"/>
+      <c r="S534" s="6"/>
+    </row>
+    <row r="535" spans="17:19">
+      <c r="Q535" s="6"/>
+      <c r="R535" s="6"/>
+      <c r="S535" s="6"/>
+    </row>
+    <row r="536" spans="17:19">
+      <c r="Q536" s="6"/>
+      <c r="R536" s="6"/>
+      <c r="S536" s="6"/>
+    </row>
+    <row r="537" spans="17:19">
+      <c r="Q537" s="6"/>
+      <c r="R537" s="6"/>
+      <c r="S537" s="6"/>
+    </row>
+    <row r="538" spans="17:19">
+      <c r="Q538" s="6"/>
+      <c r="R538" s="6"/>
+      <c r="S538" s="6"/>
+    </row>
+    <row r="539" spans="17:19">
+      <c r="Q539" s="6"/>
+      <c r="R539" s="6"/>
+      <c r="S539" s="6"/>
+    </row>
+    <row r="540" spans="17:19">
+      <c r="Q540" s="6"/>
+      <c r="R540" s="6"/>
+      <c r="S540" s="6"/>
+    </row>
+    <row r="541" spans="17:19">
+      <c r="Q541" s="6"/>
+      <c r="R541" s="6"/>
+      <c r="S541" s="6"/>
+    </row>
+    <row r="542" spans="17:19">
+      <c r="Q542" s="6"/>
+      <c r="R542" s="6"/>
+      <c r="S542" s="6"/>
+    </row>
+    <row r="543" spans="17:19">
+      <c r="Q543" s="6"/>
+      <c r="R543" s="6"/>
+      <c r="S543" s="6"/>
+    </row>
+    <row r="544" spans="17:19">
+      <c r="Q544" s="6"/>
+      <c r="R544" s="6"/>
+      <c r="S544" s="6"/>
+    </row>
+    <row r="545" spans="17:19">
+      <c r="Q545" s="6"/>
+      <c r="R545" s="6"/>
+      <c r="S545" s="6"/>
+    </row>
+    <row r="546" spans="17:19">
+      <c r="Q546" s="6"/>
+      <c r="R546" s="6"/>
+      <c r="S546" s="6"/>
+    </row>
+    <row r="547" spans="17:19">
+      <c r="Q547" s="6"/>
+      <c r="R547" s="6"/>
+      <c r="S547" s="6"/>
+    </row>
+    <row r="548" spans="17:19">
+      <c r="Q548" s="6"/>
+      <c r="R548" s="6"/>
+      <c r="S548" s="6"/>
+    </row>
+    <row r="549" spans="17:19">
+      <c r="Q549" s="6"/>
+      <c r="R549" s="6"/>
+      <c r="S549" s="6"/>
+    </row>
+    <row r="550" spans="17:19">
+      <c r="Q550" s="6"/>
+      <c r="R550" s="6"/>
+      <c r="S550" s="6"/>
+    </row>
+    <row r="551" spans="17:19">
+      <c r="Q551" s="6"/>
+      <c r="R551" s="6"/>
+      <c r="S551" s="6"/>
+    </row>
+    <row r="552" spans="17:19">
+      <c r="Q552" s="6"/>
+      <c r="R552" s="6"/>
+      <c r="S552" s="6"/>
+    </row>
+    <row r="553" spans="17:19">
+      <c r="Q553" s="6"/>
+      <c r="R553" s="6"/>
+      <c r="S553" s="6"/>
+    </row>
+    <row r="554" spans="17:19">
+      <c r="Q554" s="6"/>
+      <c r="R554" s="6"/>
+      <c r="S554" s="6"/>
+    </row>
+    <row r="555" spans="17:19">
+      <c r="Q555" s="6"/>
+      <c r="R555" s="6"/>
+      <c r="S555" s="6"/>
+    </row>
+    <row r="556" spans="17:19">
+      <c r="Q556" s="6"/>
+      <c r="R556" s="6"/>
+      <c r="S556" s="6"/>
+    </row>
+    <row r="557" spans="17:19">
+      <c r="Q557" s="6"/>
+      <c r="R557" s="6"/>
+      <c r="S557" s="6"/>
+    </row>
+    <row r="558" spans="17:19">
+      <c r="Q558" s="6"/>
+      <c r="R558" s="6"/>
+      <c r="S558" s="6"/>
+    </row>
+    <row r="559" spans="17:19">
+      <c r="Q559" s="6"/>
+      <c r="R559" s="6"/>
+      <c r="S559" s="6"/>
+    </row>
+    <row r="560" spans="17:19">
+      <c r="Q560" s="6"/>
+      <c r="R560" s="6"/>
+      <c r="S560" s="6"/>
+    </row>
+    <row r="561" spans="17:19">
+      <c r="Q561" s="6"/>
+      <c r="R561" s="6"/>
+      <c r="S561" s="6"/>
+    </row>
+    <row r="562" spans="17:19">
+      <c r="Q562" s="6"/>
+      <c r="R562" s="6"/>
+      <c r="S562" s="6"/>
+    </row>
+    <row r="563" spans="17:19">
+      <c r="Q563" s="6"/>
+      <c r="R563" s="6"/>
+      <c r="S563" s="6"/>
+    </row>
+    <row r="564" spans="17:19">
+      <c r="Q564" s="6"/>
+      <c r="R564" s="6"/>
+      <c r="S564" s="6"/>
+    </row>
+    <row r="565" spans="17:19">
+      <c r="Q565" s="6"/>
+      <c r="R565" s="6"/>
+      <c r="S565" s="6"/>
+    </row>
+    <row r="566" spans="17:19">
+      <c r="Q566" s="6"/>
+      <c r="R566" s="6"/>
+      <c r="S566" s="6"/>
+    </row>
+    <row r="567" spans="17:19">
+      <c r="Q567" s="6"/>
+      <c r="R567" s="6"/>
+      <c r="S567" s="6"/>
+    </row>
+    <row r="568" spans="17:19">
+      <c r="Q568" s="6"/>
+      <c r="R568" s="6"/>
+      <c r="S568" s="6"/>
+    </row>
+    <row r="569" spans="17:19">
+      <c r="Q569" s="6"/>
+      <c r="R569" s="6"/>
+      <c r="S569" s="6"/>
+    </row>
+    <row r="570" spans="17:19">
+      <c r="Q570" s="6"/>
+      <c r="R570" s="6"/>
+      <c r="S570" s="6"/>
+    </row>
+    <row r="571" spans="17:19">
+      <c r="Q571" s="6"/>
+      <c r="R571" s="6"/>
+      <c r="S571" s="6"/>
+    </row>
+    <row r="572" spans="17:19">
+      <c r="Q572" s="6"/>
+      <c r="R572" s="6"/>
+      <c r="S572" s="6"/>
+    </row>
+    <row r="573" spans="17:19">
+      <c r="Q573" s="6"/>
+      <c r="R573" s="6"/>
+      <c r="S573" s="6"/>
+    </row>
+    <row r="574" spans="17:19">
+      <c r="Q574" s="6"/>
+      <c r="R574" s="6"/>
+      <c r="S574" s="6"/>
+    </row>
+    <row r="575" spans="17:19">
+      <c r="Q575" s="6"/>
+      <c r="R575" s="6"/>
+      <c r="S575" s="6"/>
+    </row>
+    <row r="576" spans="17:19">
+      <c r="Q576" s="6"/>
+      <c r="R576" s="6"/>
+      <c r="S576" s="6"/>
+    </row>
+    <row r="577" spans="17:19">
+      <c r="Q577" s="6"/>
+      <c r="R577" s="6"/>
+      <c r="S577" s="6"/>
+    </row>
+    <row r="578" spans="17:19">
+      <c r="Q578" s="6"/>
+      <c r="R578" s="6"/>
+      <c r="S578" s="6"/>
+    </row>
+    <row r="579" spans="17:19">
+      <c r="Q579" s="6"/>
+      <c r="R579" s="6"/>
+      <c r="S579" s="6"/>
+    </row>
+    <row r="580" spans="17:19">
+      <c r="Q580" s="6"/>
+      <c r="R580" s="6"/>
+      <c r="S580" s="6"/>
+    </row>
+    <row r="581" spans="17:19">
+      <c r="Q581" s="6"/>
+      <c r="R581" s="6"/>
+      <c r="S581" s="6"/>
+    </row>
+    <row r="582" spans="17:19">
+      <c r="Q582" s="6"/>
+      <c r="R582" s="6"/>
+      <c r="S582" s="6"/>
+    </row>
+    <row r="583" spans="17:19">
+      <c r="Q583" s="6"/>
+      <c r="R583" s="6"/>
+      <c r="S583" s="6"/>
+    </row>
+    <row r="584" spans="17:19">
+      <c r="Q584" s="6"/>
+      <c r="R584" s="6"/>
+      <c r="S584" s="6"/>
+    </row>
+    <row r="585" spans="17:19">
+      <c r="Q585" s="6"/>
+      <c r="R585" s="6"/>
+      <c r="S585" s="6"/>
+    </row>
+    <row r="586" spans="17:19">
+      <c r="Q586" s="6"/>
+      <c r="R586" s="6"/>
+      <c r="S586" s="6"/>
+    </row>
+    <row r="587" spans="17:19">
+      <c r="Q587" s="6"/>
+      <c r="R587" s="6"/>
+      <c r="S587" s="6"/>
+    </row>
+    <row r="588" spans="17:19">
+      <c r="Q588" s="6"/>
+      <c r="R588" s="6"/>
+      <c r="S588" s="6"/>
+    </row>
+    <row r="589" spans="17:19">
+      <c r="Q589" s="6"/>
+      <c r="R589" s="6"/>
+      <c r="S589" s="6"/>
+    </row>
+    <row r="590" spans="17:19">
+      <c r="Q590" s="6"/>
+      <c r="R590" s="6"/>
+      <c r="S590" s="6"/>
+    </row>
+    <row r="591" spans="17:19">
+      <c r="Q591" s="6"/>
+      <c r="R591" s="6"/>
+      <c r="S591" s="6"/>
+    </row>
+    <row r="592" spans="17:19">
+      <c r="Q592" s="6"/>
+      <c r="R592" s="6"/>
+      <c r="S592" s="6"/>
+    </row>
+    <row r="593" spans="17:19">
+      <c r="Q593" s="6"/>
+      <c r="R593" s="6"/>
+      <c r="S593" s="6"/>
+    </row>
+    <row r="594" spans="17:19">
+      <c r="Q594" s="6"/>
+      <c r="R594" s="6"/>
+      <c r="S594" s="6"/>
+    </row>
+    <row r="595" spans="17:19">
+      <c r="Q595" s="6"/>
+      <c r="R595" s="6"/>
+      <c r="S595" s="6"/>
+    </row>
+    <row r="596" spans="17:19">
+      <c r="Q596" s="6"/>
+      <c r="R596" s="6"/>
+      <c r="S596" s="6"/>
+    </row>
+    <row r="597" spans="17:19">
+      <c r="Q597" s="6"/>
+      <c r="R597" s="6"/>
+      <c r="S597" s="6"/>
+    </row>
+    <row r="598" spans="17:19">
+      <c r="Q598" s="6"/>
+      <c r="R598" s="6"/>
+      <c r="S598" s="6"/>
+    </row>
+    <row r="599" spans="17:19">
+      <c r="Q599" s="6"/>
+      <c r="R599" s="6"/>
+      <c r="S599" s="6"/>
+    </row>
+    <row r="600" spans="17:19">
+      <c r="Q600" s="6"/>
+      <c r="R600" s="6"/>
+      <c r="S600" s="6"/>
+    </row>
+    <row r="601" spans="17:19">
+      <c r="Q601" s="6"/>
+      <c r="R601" s="6"/>
+      <c r="S601" s="6"/>
+    </row>
+    <row r="602" spans="17:19">
+      <c r="Q602" s="6"/>
+      <c r="R602" s="6"/>
+      <c r="S602" s="6"/>
+    </row>
+    <row r="603" spans="17:19">
+      <c r="Q603" s="6"/>
+      <c r="R603" s="6"/>
+      <c r="S603" s="6"/>
+    </row>
+    <row r="604" spans="17:19">
+      <c r="Q604" s="6"/>
+      <c r="R604" s="6"/>
+      <c r="S604" s="6"/>
+    </row>
+    <row r="605" spans="17:19">
+      <c r="Q605" s="6"/>
+      <c r="R605" s="6"/>
+      <c r="S605" s="6"/>
+    </row>
+    <row r="606" spans="17:19">
+      <c r="Q606" s="6"/>
+      <c r="R606" s="6"/>
+      <c r="S606" s="6"/>
+    </row>
+    <row r="607" spans="17:19">
+      <c r="Q607" s="6"/>
+      <c r="R607" s="6"/>
+      <c r="S607" s="6"/>
+    </row>
+    <row r="608" spans="17:19">
+      <c r="Q608" s="6"/>
+      <c r="R608" s="6"/>
+      <c r="S608" s="6"/>
+    </row>
+    <row r="609" spans="17:19">
+      <c r="Q609" s="6"/>
+      <c r="R609" s="6"/>
+      <c r="S609" s="6"/>
+    </row>
+    <row r="610" spans="17:19">
+      <c r="Q610" s="6"/>
+      <c r="R610" s="6"/>
+      <c r="S610" s="6"/>
+    </row>
+    <row r="611" spans="17:19">
+      <c r="Q611" s="6"/>
+      <c r="R611" s="6"/>
+      <c r="S611" s="6"/>
+    </row>
+    <row r="612" spans="17:19">
+      <c r="Q612" s="6"/>
+      <c r="R612" s="6"/>
+      <c r="S612" s="6"/>
+    </row>
+    <row r="613" spans="17:19">
+      <c r="Q613" s="6"/>
+      <c r="R613" s="6"/>
+      <c r="S613" s="6"/>
+    </row>
+    <row r="614" spans="17:19">
+      <c r="Q614" s="6"/>
+      <c r="R614" s="6"/>
+      <c r="S614" s="6"/>
+    </row>
+    <row r="615" spans="17:19">
+      <c r="Q615" s="6"/>
+      <c r="R615" s="6"/>
+      <c r="S615" s="6"/>
+    </row>
+    <row r="616" spans="17:19">
+      <c r="Q616" s="6"/>
+      <c r="R616" s="6"/>
+      <c r="S616" s="6"/>
+    </row>
+    <row r="617" spans="17:19">
+      <c r="Q617" s="6"/>
+      <c r="R617" s="6"/>
+      <c r="S617" s="6"/>
+    </row>
+    <row r="618" spans="17:19">
+      <c r="Q618" s="6"/>
+      <c r="R618" s="6"/>
+      <c r="S618" s="6"/>
+    </row>
+    <row r="619" spans="17:19">
+      <c r="Q619" s="6"/>
+      <c r="R619" s="6"/>
+      <c r="S619" s="6"/>
+    </row>
+    <row r="620" spans="17:19">
+      <c r="Q620" s="6"/>
+      <c r="R620" s="6"/>
+      <c r="S620" s="6"/>
+    </row>
+    <row r="621" spans="17:19">
+      <c r="Q621" s="6"/>
+      <c r="R621" s="6"/>
+      <c r="S621" s="6"/>
+    </row>
+    <row r="622" spans="17:19">
+      <c r="Q622" s="6"/>
+      <c r="R622" s="6"/>
+      <c r="S622" s="6"/>
+    </row>
+    <row r="623" spans="17:19">
+      <c r="Q623" s="6"/>
+      <c r="R623" s="6"/>
+      <c r="S623" s="6"/>
+    </row>
+    <row r="624" spans="17:19">
+      <c r="Q624" s="6"/>
+      <c r="R624" s="6"/>
+      <c r="S624" s="6"/>
+    </row>
+    <row r="625" spans="17:19">
+      <c r="Q625" s="6"/>
+      <c r="R625" s="6"/>
+      <c r="S625" s="6"/>
+    </row>
+    <row r="626" spans="17:19">
+      <c r="Q626" s="6"/>
+      <c r="R626" s="6"/>
+      <c r="S626" s="6"/>
+    </row>
+    <row r="627" spans="17:19">
+      <c r="Q627" s="6"/>
+      <c r="R627" s="6"/>
+      <c r="S627" s="6"/>
+    </row>
+    <row r="628" spans="17:19">
+      <c r="Q628" s="6"/>
+      <c r="R628" s="6"/>
+      <c r="S628" s="6"/>
+    </row>
+    <row r="629" spans="17:19">
+      <c r="Q629" s="6"/>
+      <c r="R629" s="6"/>
+      <c r="S629" s="6"/>
+    </row>
+    <row r="630" spans="17:19">
+      <c r="Q630" s="6"/>
+      <c r="R630" s="6"/>
+      <c r="S630" s="6"/>
+    </row>
+    <row r="631" spans="17:19">
+      <c r="Q631" s="6"/>
+      <c r="R631" s="6"/>
+      <c r="S631" s="6"/>
+    </row>
+    <row r="632" spans="17:19">
+      <c r="Q632" s="6"/>
+      <c r="R632" s="6"/>
+      <c r="S632" s="6"/>
+    </row>
+    <row r="633" spans="17:19">
+      <c r="Q633" s="6"/>
+      <c r="R633" s="6"/>
+      <c r="S633" s="6"/>
+    </row>
+    <row r="634" spans="17:19">
+      <c r="Q634" s="6"/>
+      <c r="R634" s="6"/>
+      <c r="S634" s="6"/>
+    </row>
+    <row r="635" spans="17:19">
+      <c r="Q635" s="6"/>
+      <c r="R635" s="6"/>
+      <c r="S635" s="6"/>
+    </row>
+    <row r="636" spans="17:19">
+      <c r="Q636" s="6"/>
+      <c r="R636" s="6"/>
+      <c r="S636" s="6"/>
+    </row>
+    <row r="637" spans="17:19">
+      <c r="Q637" s="6"/>
+      <c r="R637" s="6"/>
+      <c r="S637" s="6"/>
+    </row>
+    <row r="638" spans="17:19">
+      <c r="Q638" s="6"/>
+      <c r="R638" s="6"/>
+      <c r="S638" s="6"/>
+    </row>
+    <row r="639" spans="17:19">
+      <c r="Q639" s="6"/>
+      <c r="R639" s="6"/>
+      <c r="S639" s="6"/>
+    </row>
+    <row r="640" spans="17:19">
+      <c r="Q640" s="6"/>
+      <c r="R640" s="6"/>
+      <c r="S640" s="6"/>
+    </row>
+    <row r="641" spans="17:19">
+      <c r="Q641" s="6"/>
+      <c r="R641" s="6"/>
+      <c r="S641" s="6"/>
+    </row>
+    <row r="642" spans="17:19">
+      <c r="Q642" s="6"/>
+      <c r="R642" s="6"/>
+      <c r="S642" s="6"/>
+    </row>
+    <row r="643" spans="17:19">
+      <c r="Q643" s="6"/>
+      <c r="R643" s="6"/>
+      <c r="S643" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:P1" xr:uid="{BEEEE0E7-8791-4CC6-B23A-AAB276F68531}"/>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:O1048576 M2:M59" xr:uid="{FC76C5EB-0027-4C81-9F77-08421AE0CD39}">
+  <dataValidations count="1">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:O1048576 I2:I3 M4:M59 K2:K3" xr:uid="{FC76C5EB-0027-4C81-9F77-08421AE0CD39}">
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{7E4BE943-0E18-5941-8032-88EB3AD0BFB7}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D522A895-47E5-2E43-AA91-05542E59E31D}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{81517EF9-E86F-BE42-AC0B-803D1BCD4FE4}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{4599D42F-8255-BC4C-ADAE-9151583F2833}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3029,81 +6108,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" ht="13" thickBot="1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,2033 +6206,2033 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>522</v>
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
+      <c r="D3" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
+        <v>515</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="13" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="13" t="s">
+    <row r="13" spans="1:4">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="13" t="s">
+    <row r="14" spans="1:4">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="13" t="s">
+    <row r="15" spans="1:4">
+      <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="13" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="13" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="13" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="13" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="13" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="13" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="13" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="13" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="13" t="s">
+    <row r="24" spans="3:4">
+      <c r="C24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="13" t="s">
+    <row r="25" spans="3:4">
+      <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="13" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="13" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="13" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="13" t="s">
+    <row r="29" spans="3:4">
+      <c r="C29" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="13" t="s">
+    <row r="30" spans="3:4">
+      <c r="C30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="13" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D31" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="13" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D32" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="13" t="s">
+    <row r="33" spans="3:4">
+      <c r="C33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D33" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="13" t="s">
+    <row r="34" spans="3:4">
+      <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D34" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="13" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D35" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="13" t="s">
+    <row r="36" spans="3:4">
+      <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D36" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="13" t="s">
+    <row r="37" spans="3:4">
+      <c r="C37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D37" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="13" t="s">
+    <row r="38" spans="3:4">
+      <c r="C38" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="13" t="s">
+    <row r="39" spans="3:4">
+      <c r="C39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D39" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="13" t="s">
+    <row r="40" spans="3:4">
+      <c r="C40" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D40" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="13" t="s">
+    <row r="41" spans="3:4">
+      <c r="C41" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D41" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="13" t="s">
+    <row r="42" spans="3:4">
+      <c r="C42" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D42" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="13" t="s">
+    <row r="43" spans="3:4">
+      <c r="C43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D43" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="13" t="s">
+    <row r="44" spans="3:4">
+      <c r="C44" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D44" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="13" t="s">
+    <row r="45" spans="3:4">
+      <c r="C45" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D45" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="13" t="s">
+    <row r="46" spans="3:4">
+      <c r="C46" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D46" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="13" t="s">
+    <row r="47" spans="3:4">
+      <c r="C47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D47" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="13" t="s">
+    <row r="48" spans="3:4">
+      <c r="C48" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D48" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="13" t="s">
+    <row r="49" spans="3:4">
+      <c r="C49" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D49" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="13" t="s">
+    <row r="50" spans="3:4">
+      <c r="C50" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D50" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="13" t="s">
+    <row r="51" spans="3:4">
+      <c r="C51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D51" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="13" t="s">
+    <row r="52" spans="3:4">
+      <c r="C52" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D52" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="13" t="s">
+    <row r="53" spans="3:4">
+      <c r="C53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D53" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="13" t="s">
+    <row r="54" spans="3:4">
+      <c r="C54" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D54" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="13" t="s">
+    <row r="55" spans="3:4">
+      <c r="C55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D55" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="13" t="s">
+    <row r="56" spans="3:4">
+      <c r="C56" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D56" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="13" t="s">
+    <row r="57" spans="3:4">
+      <c r="C57" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D57" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="13" t="s">
+    <row r="58" spans="3:4">
+      <c r="C58" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D58" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="13" t="s">
+    <row r="59" spans="3:4">
+      <c r="C59" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D59" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="13" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D60" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="13" t="s">
+    <row r="61" spans="3:4">
+      <c r="C61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D61" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="13" t="s">
+    <row r="62" spans="3:4">
+      <c r="C62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D62" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="13" t="s">
+    <row r="63" spans="3:4">
+      <c r="C63" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D63" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="13" t="s">
+    <row r="64" spans="3:4">
+      <c r="C64" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D64" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="13" t="s">
+    <row r="65" spans="3:4">
+      <c r="C65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D65" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="13" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D66" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="13" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D67" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="13" t="s">
+    <row r="68" spans="3:4">
+      <c r="C68" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D68" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="13" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D69" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="13" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D70" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="13" t="s">
+    <row r="71" spans="3:4">
+      <c r="C71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D71" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="13" t="s">
+    <row r="72" spans="3:4">
+      <c r="C72" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D72" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="13" t="s">
+    <row r="73" spans="3:4">
+      <c r="C73" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D73" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="13" t="s">
+    <row r="74" spans="3:4">
+      <c r="C74" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D74" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="13" t="s">
+    <row r="75" spans="3:4">
+      <c r="C75" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D75" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="13" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D76" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="13" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D77" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="13" t="s">
+    <row r="78" spans="3:4">
+      <c r="C78" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D78" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="13" t="s">
+    <row r="79" spans="3:4">
+      <c r="C79" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D79" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="13" t="s">
+    <row r="80" spans="3:4">
+      <c r="C80" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="13" t="s">
+    <row r="81" spans="3:4">
+      <c r="C81" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D81" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="13" t="s">
+    <row r="82" spans="3:4">
+      <c r="C82" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D82" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="13" t="s">
+    <row r="83" spans="3:4">
+      <c r="C83" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D83" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="13" t="s">
+    <row r="84" spans="3:4">
+      <c r="C84" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D84" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="13" t="s">
+    <row r="85" spans="3:4">
+      <c r="C85" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D85" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="13" t="s">
+    <row r="86" spans="3:4">
+      <c r="C86" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D86" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="13" t="s">
+    <row r="87" spans="3:4">
+      <c r="C87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D87" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="13" t="s">
+    <row r="88" spans="3:4">
+      <c r="C88" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D88" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="13" t="s">
+    <row r="89" spans="3:4">
+      <c r="C89" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D89" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="13" t="s">
+    <row r="90" spans="3:4">
+      <c r="C90" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D90" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="13" t="s">
+    <row r="91" spans="3:4">
+      <c r="C91" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D91" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="13" t="s">
+    <row r="92" spans="3:4">
+      <c r="C92" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D92" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="13" t="s">
+    <row r="93" spans="3:4">
+      <c r="C93" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D93" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="13" t="s">
+    <row r="94" spans="3:4">
+      <c r="C94" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D94" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="13" t="s">
+    <row r="95" spans="3:4">
+      <c r="C95" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D95" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="13" t="s">
+    <row r="96" spans="3:4">
+      <c r="C96" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D96" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="13" t="s">
+    <row r="97" spans="3:4">
+      <c r="C97" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D97" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="13" t="s">
+    <row r="98" spans="3:4">
+      <c r="C98" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D98" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="13" t="s">
+    <row r="99" spans="3:4">
+      <c r="C99" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D99" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="13" t="s">
+    <row r="100" spans="3:4">
+      <c r="C100" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D100" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="13" t="s">
+    <row r="101" spans="3:4">
+      <c r="C101" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D101" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="13" t="s">
+    <row r="102" spans="3:4">
+      <c r="C102" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D102" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="13" t="s">
+    <row r="103" spans="3:4">
+      <c r="C103" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D103" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="13" t="s">
+    <row r="104" spans="3:4">
+      <c r="C104" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D104" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="13" t="s">
+    <row r="105" spans="3:4">
+      <c r="C105" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D105" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="13" t="s">
+    <row r="106" spans="3:4">
+      <c r="C106" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D106" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="13" t="s">
+    <row r="107" spans="3:4">
+      <c r="C107" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D107" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="13" t="s">
+    <row r="108" spans="3:4">
+      <c r="C108" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D108" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="13" t="s">
+    <row r="109" spans="3:4">
+      <c r="C109" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D109" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="13" t="s">
+    <row r="110" spans="3:4">
+      <c r="C110" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D110" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="13" t="s">
+    <row r="111" spans="3:4">
+      <c r="C111" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D111" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="13" t="s">
+    <row r="112" spans="3:4">
+      <c r="C112" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D112" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="13" t="s">
+    <row r="113" spans="3:4">
+      <c r="C113" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D113" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="13" t="s">
+    <row r="114" spans="3:4">
+      <c r="C114" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D114" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="13" t="s">
+    <row r="115" spans="3:4">
+      <c r="C115" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D115" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="13" t="s">
+    <row r="116" spans="3:4">
+      <c r="C116" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D116" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="13" t="s">
+    <row r="117" spans="3:4">
+      <c r="C117" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D117" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="13" t="s">
+    <row r="118" spans="3:4">
+      <c r="C118" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D118" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="13" t="s">
+    <row r="119" spans="3:4">
+      <c r="C119" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D119" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="13" t="s">
+    <row r="120" spans="3:4">
+      <c r="C120" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D120" s="9" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="13" t="s">
+    <row r="121" spans="3:4">
+      <c r="C121" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D121" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="13" t="s">
+    <row r="122" spans="3:4">
+      <c r="C122" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D122" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="13" t="s">
+    <row r="123" spans="3:4">
+      <c r="C123" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D123" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="13" t="s">
+    <row r="124" spans="3:4">
+      <c r="C124" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D124" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="13" t="s">
+    <row r="125" spans="3:4">
+      <c r="C125" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D125" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="13" t="s">
+    <row r="126" spans="3:4">
+      <c r="C126" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D126" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="13" t="s">
+    <row r="127" spans="3:4">
+      <c r="C127" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D127" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="13" t="s">
+    <row r="128" spans="3:4">
+      <c r="C128" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D128" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="13" t="s">
+    <row r="129" spans="3:4">
+      <c r="C129" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D129" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="13" t="s">
+    <row r="130" spans="3:4">
+      <c r="C130" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D130" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="13" t="s">
+    <row r="131" spans="3:4">
+      <c r="C131" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D131" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="13" t="s">
+    <row r="132" spans="3:4">
+      <c r="C132" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D132" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="13" t="s">
+    <row r="133" spans="3:4">
+      <c r="C133" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D133" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="13" t="s">
+    <row r="134" spans="3:4">
+      <c r="C134" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D134" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="13" t="s">
+    <row r="135" spans="3:4">
+      <c r="C135" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D135" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="13" t="s">
+    <row r="136" spans="3:4">
+      <c r="C136" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D136" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="13" t="s">
+    <row r="137" spans="3:4">
+      <c r="C137" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D137" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="13" t="s">
+    <row r="138" spans="3:4">
+      <c r="C138" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D138" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="13" t="s">
+    <row r="139" spans="3:4">
+      <c r="C139" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D139" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="13" t="s">
+    <row r="140" spans="3:4">
+      <c r="C140" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D140" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="13" t="s">
+    <row r="141" spans="3:4">
+      <c r="C141" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D141" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="13" t="s">
+    <row r="142" spans="3:4">
+      <c r="C142" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D142" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="13" t="s">
+    <row r="143" spans="3:4">
+      <c r="C143" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D143" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="13" t="s">
+    <row r="144" spans="3:4">
+      <c r="C144" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D144" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="13" t="s">
+    <row r="145" spans="3:4">
+      <c r="C145" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="D145" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="13" t="s">
+    <row r="146" spans="3:4">
+      <c r="C146" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D146" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="13" t="s">
+    <row r="147" spans="3:4">
+      <c r="C147" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D147" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="13" t="s">
+    <row r="148" spans="3:4">
+      <c r="C148" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="D148" s="9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="13" t="s">
+    <row r="149" spans="3:4">
+      <c r="C149" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D149" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="13" t="s">
+    <row r="150" spans="3:4">
+      <c r="C150" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D150" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="13" t="s">
+    <row r="151" spans="3:4">
+      <c r="C151" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D151" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="3:4">
-      <c r="C148" s="13" t="s">
+    <row r="152" spans="3:4">
+      <c r="C152" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D152" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="3:4">
-      <c r="C149" s="13" t="s">
+    <row r="153" spans="3:4">
+      <c r="C153" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D153" s="9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="13" t="s">
+    <row r="154" spans="3:4">
+      <c r="C154" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D154" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="13" t="s">
+    <row r="155" spans="3:4">
+      <c r="C155" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D155" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="3:4">
-      <c r="C152" s="13" t="s">
+    <row r="156" spans="3:4">
+      <c r="C156" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D156" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="3:4">
-      <c r="C153" s="13" t="s">
+    <row r="157" spans="3:4">
+      <c r="C157" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D157" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="3:4">
-      <c r="C154" s="13" t="s">
+    <row r="158" spans="3:4">
+      <c r="C158" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D158" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="3:4">
-      <c r="C155" s="13" t="s">
+    <row r="159" spans="3:4">
+      <c r="C159" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D159" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="13" t="s">
+    <row r="160" spans="3:4">
+      <c r="C160" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D160" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="13" t="s">
+    <row r="161" spans="3:4">
+      <c r="C161" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D161" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="158" spans="3:4">
-      <c r="C158" s="13" t="s">
+    <row r="162" spans="3:4">
+      <c r="C162" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D162" s="9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="3:4">
-      <c r="C159" s="13" t="s">
+    <row r="163" spans="3:4">
+      <c r="C163" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D163" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="160" spans="3:4">
-      <c r="C160" s="13" t="s">
+    <row r="164" spans="3:4">
+      <c r="C164" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D164" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="13" t="s">
+    <row r="165" spans="3:4">
+      <c r="C165" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D165" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="13" t="s">
+    <row r="166" spans="3:4">
+      <c r="C166" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D166" s="9" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="13" t="s">
+    <row r="167" spans="3:4">
+      <c r="C167" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D167" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="13" t="s">
+    <row r="168" spans="3:4">
+      <c r="C168" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D168" s="9" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="13" t="s">
+    <row r="169" spans="3:4">
+      <c r="C169" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D169" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="13" t="s">
+    <row r="170" spans="3:4">
+      <c r="C170" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D170" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="13" t="s">
+    <row r="171" spans="3:4">
+      <c r="C171" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D171" s="9" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="3:4">
-      <c r="C168" s="13" t="s">
+    <row r="172" spans="3:4">
+      <c r="C172" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D172" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="3:4">
-      <c r="C169" s="13" t="s">
+    <row r="173" spans="3:4">
+      <c r="C173" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D173" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="13" t="s">
+    <row r="174" spans="3:4">
+      <c r="C174" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D174" s="9" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="13" t="s">
+    <row r="175" spans="3:4">
+      <c r="C175" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D175" s="9" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="13" t="s">
+    <row r="176" spans="3:4">
+      <c r="C176" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D176" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="13" t="s">
+    <row r="177" spans="3:4">
+      <c r="C177" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D177" s="9" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="174" spans="3:4">
-      <c r="C174" s="13" t="s">
+    <row r="178" spans="3:4">
+      <c r="C178" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D178" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="3:4">
-      <c r="C175" s="13" t="s">
+    <row r="179" spans="3:4">
+      <c r="C179" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D179" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="176" spans="3:4">
-      <c r="C176" s="13" t="s">
+    <row r="180" spans="3:4">
+      <c r="C180" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D180" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="177" spans="3:4">
-      <c r="C177" s="13" t="s">
+    <row r="181" spans="3:4">
+      <c r="C181" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D181" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="13" t="s">
+    <row r="182" spans="3:4">
+      <c r="C182" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D182" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="3:4">
-      <c r="C179" s="13" t="s">
+    <row r="183" spans="3:4">
+      <c r="C183" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D183" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="3:4">
-      <c r="C180" s="13" t="s">
+    <row r="184" spans="3:4">
+      <c r="C184" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D184" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="181" spans="3:4">
-      <c r="C181" s="13" t="s">
+    <row r="185" spans="3:4">
+      <c r="C185" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D185" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="182" spans="3:4">
-      <c r="C182" s="13" t="s">
+    <row r="186" spans="3:4">
+      <c r="C186" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D186" s="9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="183" spans="3:4">
-      <c r="C183" s="13" t="s">
+    <row r="187" spans="3:4">
+      <c r="C187" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D187" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="3:4">
-      <c r="C184" s="13" t="s">
+    <row r="188" spans="3:4">
+      <c r="C188" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D188" s="9" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="3:4">
-      <c r="C185" s="13" t="s">
+    <row r="189" spans="3:4">
+      <c r="C189" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D189" s="9" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="186" spans="3:4">
-      <c r="C186" s="13" t="s">
+    <row r="190" spans="3:4">
+      <c r="C190" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D190" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="187" spans="3:4">
-      <c r="C187" s="13" t="s">
+    <row r="191" spans="3:4">
+      <c r="C191" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D191" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="188" spans="3:4">
-      <c r="C188" s="13" t="s">
+    <row r="192" spans="3:4">
+      <c r="C192" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D192" s="9" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="189" spans="3:4">
-      <c r="C189" s="13" t="s">
+    <row r="193" spans="3:4">
+      <c r="C193" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D193" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="190" spans="3:4">
-      <c r="C190" s="13" t="s">
+    <row r="194" spans="3:4">
+      <c r="C194" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D194" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="3:4">
-      <c r="C191" s="13" t="s">
+    <row r="195" spans="3:4">
+      <c r="C195" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D195" s="9" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="3:4">
-      <c r="C192" s="13" t="s">
+    <row r="196" spans="3:4">
+      <c r="C196" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D196" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="193" spans="3:4">
-      <c r="C193" s="13" t="s">
+    <row r="197" spans="3:4">
+      <c r="C197" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D197" s="9" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="3:4">
-      <c r="C194" s="13" t="s">
+    <row r="198" spans="3:4">
+      <c r="C198" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D198" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="195" spans="3:4">
-      <c r="C195" s="13" t="s">
+    <row r="199" spans="3:4">
+      <c r="C199" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D199" s="9" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="3:4">
-      <c r="C196" s="13" t="s">
+    <row r="200" spans="3:4">
+      <c r="C200" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D200" s="9" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="3:4">
-      <c r="C197" s="13" t="s">
+    <row r="201" spans="3:4">
+      <c r="C201" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D201" s="9" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="198" spans="3:4">
-      <c r="C198" s="13" t="s">
+    <row r="202" spans="3:4">
+      <c r="C202" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D202" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="3:4">
-      <c r="C199" s="13" t="s">
+    <row r="203" spans="3:4">
+      <c r="C203" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D203" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="200" spans="3:4">
-      <c r="C200" s="13" t="s">
+    <row r="204" spans="3:4">
+      <c r="C204" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D204" s="9" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="3:4">
-      <c r="C201" s="13" t="s">
+    <row r="205" spans="3:4">
+      <c r="C205" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D205" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="3:4">
-      <c r="C202" s="13" t="s">
+    <row r="206" spans="3:4">
+      <c r="C206" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D206" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="203" spans="3:4">
-      <c r="C203" s="13" t="s">
+    <row r="207" spans="3:4">
+      <c r="C207" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="D207" s="9" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="204" spans="3:4">
-      <c r="C204" s="13" t="s">
+    <row r="208" spans="3:4">
+      <c r="C208" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D208" s="9" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="205" spans="3:4">
-      <c r="C205" s="13" t="s">
+    <row r="209" spans="3:4">
+      <c r="C209" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D209" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="206" spans="3:4">
-      <c r="C206" s="13" t="s">
+    <row r="210" spans="3:4">
+      <c r="C210" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D210" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="3:4">
-      <c r="C207" s="13" t="s">
+    <row r="211" spans="3:4">
+      <c r="C211" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D211" s="9" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="208" spans="3:4">
-      <c r="C208" s="13" t="s">
+    <row r="212" spans="3:4">
+      <c r="C212" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D212" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="209" spans="3:4">
-      <c r="C209" s="13" t="s">
+    <row r="213" spans="3:4">
+      <c r="C213" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D213" s="9" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="210" spans="3:4">
-      <c r="C210" s="13" t="s">
+    <row r="214" spans="3:4">
+      <c r="C214" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D214" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="211" spans="3:4">
-      <c r="C211" s="13" t="s">
+    <row r="215" spans="3:4">
+      <c r="C215" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D215" s="9" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="212" spans="3:4">
-      <c r="C212" s="13" t="s">
+    <row r="216" spans="3:4">
+      <c r="C216" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D216" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="213" spans="3:4">
-      <c r="C213" s="13" t="s">
+    <row r="217" spans="3:4">
+      <c r="C217" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D217" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="214" spans="3:4">
-      <c r="C214" s="13" t="s">
+    <row r="218" spans="3:4">
+      <c r="C218" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D218" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="215" spans="3:4">
-      <c r="C215" s="13" t="s">
+    <row r="219" spans="3:4">
+      <c r="C219" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D219" s="9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="216" spans="3:4">
-      <c r="C216" s="13" t="s">
+    <row r="220" spans="3:4">
+      <c r="C220" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D220" s="9" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="3:4">
-      <c r="C217" s="13" t="s">
+    <row r="221" spans="3:4">
+      <c r="C221" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D221" s="9" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="218" spans="3:4">
-      <c r="C218" s="13" t="s">
+    <row r="222" spans="3:4">
+      <c r="C222" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D222" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="219" spans="3:4">
-      <c r="C219" s="13" t="s">
+    <row r="223" spans="3:4">
+      <c r="C223" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D223" s="9" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="220" spans="3:4">
-      <c r="C220" s="13" t="s">
+    <row r="224" spans="3:4">
+      <c r="C224" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D224" s="9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="3:4">
-      <c r="C221" s="13" t="s">
+    <row r="225" spans="3:4">
+      <c r="C225" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D225" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="222" spans="3:4">
-      <c r="C222" s="13" t="s">
+    <row r="226" spans="3:4">
+      <c r="C226" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D226" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="223" spans="3:4">
-      <c r="C223" s="13" t="s">
+    <row r="227" spans="3:4">
+      <c r="C227" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D227" s="9" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="224" spans="3:4">
-      <c r="C224" s="13" t="s">
+    <row r="228" spans="3:4">
+      <c r="C228" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D228" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="225" spans="3:4">
-      <c r="C225" s="13" t="s">
+    <row r="229" spans="3:4">
+      <c r="C229" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D229" s="9" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="226" spans="3:4">
-      <c r="C226" s="13" t="s">
+    <row r="230" spans="3:4">
+      <c r="C230" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D230" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="227" spans="3:4">
-      <c r="C227" s="13" t="s">
+    <row r="231" spans="3:4">
+      <c r="C231" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D231" s="9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="3:4">
-      <c r="C228" s="13" t="s">
+    <row r="232" spans="3:4">
+      <c r="C232" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D232" s="9" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="3:4">
-      <c r="C229" s="13" t="s">
+    <row r="233" spans="3:4">
+      <c r="C233" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D233" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="230" spans="3:4">
-      <c r="C230" s="13" t="s">
+    <row r="234" spans="3:4">
+      <c r="C234" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D230" s="14" t="s">
+      <c r="D234" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="231" spans="3:4">
-      <c r="C231" s="13" t="s">
+    <row r="235" spans="3:4">
+      <c r="C235" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D231" s="14" t="s">
+      <c r="D235" s="9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="232" spans="3:4">
-      <c r="C232" s="13" t="s">
+    <row r="236" spans="3:4">
+      <c r="C236" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="D236" s="9" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="233" spans="3:4">
-      <c r="C233" s="13" t="s">
+    <row r="237" spans="3:4">
+      <c r="C237" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D237" s="9" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="234" spans="3:4">
-      <c r="C234" s="13" t="s">
+    <row r="238" spans="3:4">
+      <c r="C238" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D234" s="14" t="s">
+      <c r="D238" s="9" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="235" spans="3:4">
-      <c r="C235" s="13" t="s">
+    <row r="239" spans="3:4">
+      <c r="C239" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D239" s="9" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="236" spans="3:4">
-      <c r="C236" s="13" t="s">
+    <row r="240" spans="3:4">
+      <c r="C240" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D240" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4">
+      <c r="C241" s="8" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="237" spans="3:4">
-      <c r="C237" s="13" t="s">
+      <c r="D241" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D237" s="14" t="s">
+    </row>
+    <row r="242" spans="3:4">
+      <c r="C242" s="8" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="238" spans="3:4">
-      <c r="C238" s="13" t="s">
+      <c r="D242" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D238" s="14" t="s">
+    </row>
+    <row r="243" spans="3:4">
+      <c r="C243" s="8" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="239" spans="3:4">
-      <c r="C239" s="13" t="s">
+      <c r="D243" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D239" s="14" t="s">
+    </row>
+    <row r="244" spans="3:4">
+      <c r="C244" s="8" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="240" spans="3:4">
-      <c r="C240" s="13" t="s">
+      <c r="D244" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D240" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4">
-      <c r="C241" s="13" t="s">
+    </row>
+    <row r="245" spans="3:4">
+      <c r="C245" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D241" s="14" t="s">
+      <c r="D245" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="242" spans="3:4">
-      <c r="C242" s="13" t="s">
+    <row r="246" spans="3:4">
+      <c r="C246" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D242" s="14" t="s">
+      <c r="D246" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="243" spans="3:4">
-      <c r="C243" s="13" t="s">
+    <row r="247" spans="3:4">
+      <c r="C247" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D247" s="9" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="244" spans="3:4">
-      <c r="C244" s="13" t="s">
+    <row r="248" spans="3:4">
+      <c r="C248" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D248" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="245" spans="3:4">
-      <c r="C245" s="13" t="s">
+    <row r="249" spans="3:4">
+      <c r="C249" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="D249" s="9" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="246" spans="3:4">
-      <c r="C246" s="13" t="s">
+    <row r="250" spans="3:4">
+      <c r="C250" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D250" s="11" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="247" spans="3:4">
-      <c r="C247" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="248" spans="3:4">
-      <c r="C248" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="249" spans="3:4">
-      <c r="C249" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="250" spans="3:4">
-      <c r="C250" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D250" s="16" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
